--- a/files/p05.xlsx
+++ b/files/p05.xlsx
@@ -727,9 +727,12 @@
       <sheetName val="all-items"/>
       <sheetName val="recipes"/>
       <sheetName val="participants"/>
+      <sheetName val="inventory"/>
+      <sheetName val="places"/>
+      <sheetName val="type"/>
+      <sheetName val="all-items-raw"/>
+      <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
-      <sheetName val="inventory"/>
-      <sheetName val="all-items-raw"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -866,9 +869,11 @@
           <cell r="A9" t="str">
             <v>choppingBoard</v>
           </cell>
+          <cell r="B9"/>
           <cell r="C9" t="str">
             <v>chopB</v>
           </cell>
+          <cell r="D9"/>
           <cell r="F9" t="str">
             <v>container</v>
           </cell>
@@ -918,10 +923,13 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>cpB_a_4</v>
+            <v>wine</v>
           </cell>
           <cell r="C12" t="str">
-            <v>pastaServer</v>
+            <v>cookingSpoon</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>w_1</v>
           </cell>
           <cell r="F12" t="str">
             <v>cpB_a_2</v>
@@ -1148,9 +1156,11 @@
           <cell r="A24" t="str">
             <v>garlic_powder</v>
           </cell>
+          <cell r="B24"/>
           <cell r="C24" t="str">
             <v>fridge</v>
           </cell>
+          <cell r="D24"/>
           <cell r="F24" t="str">
             <v>fork_2</v>
           </cell>
@@ -1247,9 +1257,11 @@
           <cell r="A30" t="str">
             <v>meat_minced</v>
           </cell>
+          <cell r="B30"/>
           <cell r="C30" t="str">
             <v>knife</v>
           </cell>
+          <cell r="D30"/>
           <cell r="F30" t="str">
             <v>kettle</v>
           </cell>
@@ -1273,13 +1285,10 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>pan</v>
+            <v>pasta</v>
           </cell>
           <cell r="C32" t="str">
-            <v>rBook</v>
-          </cell>
-          <cell r="D32" t="str">
-            <v>nBook</v>
+            <v>oregano</v>
           </cell>
           <cell r="F32" t="str">
             <v>knife_large</v>
@@ -1293,10 +1302,10 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>pasta</v>
+            <v>plate</v>
           </cell>
           <cell r="C33" t="str">
-            <v>oregano</v>
+            <v>pan</v>
           </cell>
           <cell r="F33" t="str">
             <v>knife_long</v>
@@ -1310,10 +1319,10 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>plate</v>
+            <v>cpB_a_4</v>
           </cell>
           <cell r="C34" t="str">
-            <v>pan</v>
+            <v>pastaServer</v>
           </cell>
           <cell r="F34" t="str">
             <v>knife_table</v>
@@ -1327,10 +1336,10 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>pot_large</v>
+            <v>recipeNotebook</v>
           </cell>
           <cell r="C35" t="str">
-            <v>spaghetti</v>
+            <v>plate</v>
           </cell>
           <cell r="F35" t="str">
             <v>oil</v>
@@ -1341,11 +1350,13 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>recipeNotebook</v>
-          </cell>
+            <v>recipeSheets</v>
+          </cell>
+          <cell r="B36"/>
           <cell r="C36" t="str">
-            <v>plate</v>
-          </cell>
+            <v>pot</v>
+          </cell>
+          <cell r="D36"/>
           <cell r="F36" t="str">
             <v>onion</v>
           </cell>
@@ -1355,10 +1366,13 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>recipeSheets</v>
+            <v>pan</v>
           </cell>
           <cell r="C37" t="str">
-            <v>pot</v>
+            <v>rBook</v>
+          </cell>
+          <cell r="D37" t="str">
+            <v>nBook</v>
           </cell>
           <cell r="F37" t="str">
             <v>palette_wood</v>
@@ -1429,10 +1443,10 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>spoon_pasta_plastic</v>
+            <v>pot_large</v>
           </cell>
           <cell r="C41" t="str">
-            <v>stove</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="F41" t="str">
             <v>phone</v>
@@ -1443,10 +1457,10 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
+            <v>spoon_pasta_plastic</v>
+          </cell>
+          <cell r="C42" t="str">
             <v>stove</v>
-          </cell>
-          <cell r="C42" t="str">
-            <v>strainer</v>
           </cell>
           <cell r="F42" t="str">
             <v>plate</v>
@@ -1457,16 +1471,10 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
+            <v>stove</v>
+          </cell>
+          <cell r="C43" t="str">
             <v>strainer</v>
-          </cell>
-          <cell r="B43" t="str">
-            <v>tomatoesCanned</v>
-          </cell>
-          <cell r="C43" t="str">
-            <v>tomatoesProcessed</v>
-          </cell>
-          <cell r="D43" t="str">
-            <v>tomatoesCanned</v>
           </cell>
           <cell r="F43" t="str">
             <v>plate_large</v>
@@ -1480,16 +1488,16 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>tomatoes_can</v>
+            <v>strainer</v>
           </cell>
           <cell r="B44" t="str">
-            <v>tomatoesPaste</v>
+            <v>tomatoesCanned</v>
           </cell>
           <cell r="C44" t="str">
             <v>tomatoesProcessed</v>
           </cell>
           <cell r="D44" t="str">
-            <v>tomatoesPaste</v>
+            <v>tomatoesCanned</v>
           </cell>
           <cell r="F44" t="str">
             <v>pot</v>
@@ -1500,10 +1508,16 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>tomatoes_paste</v>
+            <v>tomatoes_can</v>
+          </cell>
+          <cell r="B45" t="str">
+            <v>tomatoesPaste</v>
           </cell>
           <cell r="C45" t="str">
-            <v>towel</v>
+            <v>tomatoesProcessed</v>
+          </cell>
+          <cell r="D45" t="str">
+            <v>tomatoesPaste</v>
           </cell>
           <cell r="F45" t="str">
             <v>scissors</v>
@@ -1514,13 +1528,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>towel_red</v>
-          </cell>
-          <cell r="B46" t="str">
-            <v>trashB</v>
+            <v>tomatoes_paste</v>
           </cell>
           <cell r="C46" t="str">
-            <v>trashB</v>
+            <v>towel</v>
           </cell>
           <cell r="F46" t="str">
             <v>amazonEcho</v>
@@ -1534,16 +1545,13 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>trashBin</v>
+            <v>towel_red</v>
           </cell>
           <cell r="B47" t="str">
-            <v>trashB_r</v>
+            <v>trashB</v>
           </cell>
           <cell r="C47" t="str">
             <v>trashB</v>
-          </cell>
-          <cell r="D47" t="str">
-            <v>recycling</v>
           </cell>
           <cell r="F47" t="str">
             <v>spoon</v>
@@ -1554,10 +1562,16 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>trashBin_recycling</v>
+            <v>trashBin</v>
+          </cell>
+          <cell r="B48" t="str">
+            <v>trashB_r</v>
           </cell>
           <cell r="C48" t="str">
-            <v>water</v>
+            <v>trashB</v>
+          </cell>
+          <cell r="D48" t="str">
+            <v>recycling</v>
           </cell>
           <cell r="F48" t="str">
             <v>stove</v>
@@ -1568,10 +1582,10 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
+            <v>trashBin_recycling</v>
+          </cell>
+          <cell r="C49" t="str">
             <v>water</v>
-          </cell>
-          <cell r="C49" t="str">
-            <v>wine</v>
           </cell>
           <cell r="F49" t="str">
             <v>sugar_brown</v>
@@ -1585,13 +1599,10 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
+            <v>water</v>
+          </cell>
+          <cell r="C50" t="str">
             <v>wine</v>
-          </cell>
-          <cell r="C50" t="str">
-            <v>cookingSpoon</v>
-          </cell>
-          <cell r="D50" t="str">
-            <v>w_1</v>
           </cell>
           <cell r="F50" t="str">
             <v>toaster</v>
@@ -1978,6 +1989,7 @@
           <cell r="F85" t="str">
             <v>cup_3</v>
           </cell>
+          <cell r="G85"/>
           <cell r="H85" t="str">
             <v>cup</v>
           </cell>
@@ -2000,6 +2012,7 @@
           <cell r="F87" t="str">
             <v>plate_small</v>
           </cell>
+          <cell r="G87"/>
           <cell r="H87" t="str">
             <v>plate</v>
           </cell>
@@ -2011,14 +2024,17 @@
           <cell r="F88" t="str">
             <v>milk</v>
           </cell>
+          <cell r="G88"/>
           <cell r="H88" t="str">
             <v>milk</v>
           </cell>
+          <cell r="I88"/>
         </row>
         <row r="89">
           <cell r="F89" t="str">
             <v>towel</v>
           </cell>
+          <cell r="G89"/>
           <cell r="H89" t="str">
             <v>towel</v>
           </cell>
@@ -2030,14 +2046,17 @@
           <cell r="F90" t="str">
             <v>glass</v>
           </cell>
+          <cell r="G90"/>
           <cell r="H90" t="str">
             <v>glass</v>
           </cell>
+          <cell r="I90"/>
         </row>
         <row r="91">
           <cell r="F91" t="str">
             <v>knife_clutery</v>
           </cell>
+          <cell r="G91"/>
           <cell r="H91" t="str">
             <v>knife</v>
           </cell>
@@ -2049,6 +2068,7 @@
           <cell r="F92" t="str">
             <v>fork_clutery</v>
           </cell>
+          <cell r="G92"/>
           <cell r="H92" t="str">
             <v>fork</v>
           </cell>
@@ -2060,12 +2080,55 @@
           <cell r="F93" t="str">
             <v>spoon_cutlery</v>
           </cell>
+          <cell r="G93"/>
           <cell r="H93" t="str">
             <v>spoon</v>
           </cell>
           <cell r="I93" t="str">
             <v>clutery</v>
           </cell>
+        </row>
+        <row r="94">
+          <cell r="F94"/>
+          <cell r="G94"/>
+          <cell r="H94"/>
+          <cell r="I94"/>
+        </row>
+        <row r="95">
+          <cell r="F95"/>
+          <cell r="G95"/>
+          <cell r="H95"/>
+          <cell r="I95"/>
+        </row>
+        <row r="96">
+          <cell r="F96"/>
+          <cell r="G96"/>
+          <cell r="H96"/>
+          <cell r="I96"/>
+        </row>
+        <row r="97">
+          <cell r="F97"/>
+          <cell r="G97"/>
+          <cell r="H97"/>
+          <cell r="I97"/>
+        </row>
+        <row r="98">
+          <cell r="F98"/>
+          <cell r="G98"/>
+          <cell r="H98"/>
+          <cell r="I98"/>
+        </row>
+        <row r="99">
+          <cell r="F99"/>
+          <cell r="G99"/>
+          <cell r="H99"/>
+          <cell r="I99"/>
+        </row>
+        <row r="100">
+          <cell r="F100"/>
+          <cell r="G100"/>
+          <cell r="H100"/>
+          <cell r="I100"/>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
@@ -2108,18 +2171,18 @@
         </row>
         <row r="4">
           <cell r="A4" t="str">
-            <v>apron</v>
+            <v>artichoke</v>
           </cell>
           <cell r="B4" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C4" t="str">
-            <v>protect</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>artichoke</v>
+            <v>asparagus</v>
           </cell>
           <cell r="B5" t="str">
             <v>c</v>
@@ -2130,7 +2193,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>asparagus</v>
+            <v>aubergine</v>
           </cell>
           <cell r="B6" t="str">
             <v>c</v>
@@ -2141,7 +2204,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>aubergine</v>
+            <v>avocado</v>
           </cell>
           <cell r="B7" t="str">
             <v>c</v>
@@ -2152,29 +2215,29 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>avocado</v>
+            <v>bacon</v>
           </cell>
           <cell r="B8" t="str">
             <v>c</v>
           </cell>
           <cell r="C8" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>bacon</v>
+            <v>bag</v>
           </cell>
           <cell r="B9" t="str">
             <v>c</v>
           </cell>
           <cell r="C9" t="str">
-            <v>proteins</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>bag</v>
+            <v>bagFreezer</v>
           </cell>
           <cell r="B10" t="str">
             <v>c</v>
@@ -2185,7 +2248,7 @@
         </row>
         <row r="11">
           <cell r="A11" t="str">
-            <v>bagFreezer</v>
+            <v>bakingPaper</v>
           </cell>
           <cell r="B11" t="str">
             <v>c</v>
@@ -2196,106 +2259,106 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>bakingPaper</v>
+            <v>bakingPwd</v>
           </cell>
           <cell r="B12" t="str">
             <v>c</v>
           </cell>
           <cell r="C12" t="str">
-            <v>disposables</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="13">
           <cell r="A13" t="str">
-            <v>bakingPwd</v>
+            <v>basil</v>
           </cell>
           <cell r="B13" t="str">
             <v>c</v>
           </cell>
           <cell r="C13" t="str">
-            <v>cereals</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="14">
           <cell r="A14" t="str">
-            <v>basil</v>
+            <v>basilPwd</v>
           </cell>
           <cell r="B14" t="str">
             <v>c</v>
           </cell>
           <cell r="C14" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="15">
           <cell r="A15" t="str">
-            <v>basilPwd</v>
+            <v>beans</v>
           </cell>
           <cell r="B15" t="str">
             <v>c</v>
           </cell>
           <cell r="C15" t="str">
-            <v>spice</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="16">
           <cell r="A16" t="str">
-            <v>beans</v>
+            <v>beanSprouts</v>
           </cell>
           <cell r="B16" t="str">
             <v>c</v>
           </cell>
           <cell r="C16" t="str">
-            <v>legumes</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="17">
           <cell r="A17" t="str">
-            <v>beanSprouts</v>
+            <v>beef</v>
           </cell>
           <cell r="B17" t="str">
             <v>c</v>
           </cell>
           <cell r="C17" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="18">
           <cell r="A18" t="str">
-            <v>beef</v>
+            <v>beer</v>
           </cell>
           <cell r="B18" t="str">
             <v>c</v>
           </cell>
           <cell r="C18" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="19">
           <cell r="A19" t="str">
-            <v>beer</v>
+            <v>bellPepper</v>
           </cell>
           <cell r="B19" t="str">
             <v>c</v>
           </cell>
           <cell r="C19" t="str">
-            <v>drinks</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="20">
           <cell r="A20" t="str">
-            <v>bellPepper</v>
+            <v>blackPepper</v>
           </cell>
           <cell r="B20" t="str">
             <v>c</v>
           </cell>
           <cell r="C20" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="21">
           <cell r="A21" t="str">
-            <v>blackPepper</v>
+            <v>bouillon</v>
           </cell>
           <cell r="B21" t="str">
             <v>c</v>
@@ -2306,106 +2369,106 @@
         </row>
         <row r="22">
           <cell r="A22" t="str">
-            <v>blender</v>
+            <v>bread</v>
           </cell>
           <cell r="B22" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C22" t="str">
-            <v>prepare</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="23">
           <cell r="A23" t="str">
-            <v>bottle</v>
+            <v>butter</v>
           </cell>
           <cell r="B23" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C23" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="24">
           <cell r="A24" t="str">
-            <v>bouillon</v>
+            <v>butternutSquash</v>
           </cell>
           <cell r="B24" t="str">
             <v>c</v>
           </cell>
           <cell r="C24" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="25">
           <cell r="A25" t="str">
-            <v>bowl</v>
+            <v>cabbage</v>
           </cell>
           <cell r="B25" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C25" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="26">
           <cell r="A26" t="str">
-            <v>boxCondiments</v>
+            <v>cake</v>
           </cell>
           <cell r="B26" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C26" t="str">
-            <v>contain</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="27">
           <cell r="A27" t="str">
-            <v>bread</v>
+            <v>cardamon</v>
           </cell>
           <cell r="B27" t="str">
             <v>c</v>
           </cell>
           <cell r="C27" t="str">
-            <v>breads</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="28">
           <cell r="A28" t="str">
-            <v>brush</v>
+            <v>caribeanSpices</v>
           </cell>
           <cell r="B28" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C28" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="29">
           <cell r="A29" t="str">
-            <v>bucket</v>
+            <v>carrots</v>
           </cell>
           <cell r="B29" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C29" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="30">
           <cell r="A30" t="str">
-            <v>butter</v>
+            <v>cayenne</v>
           </cell>
           <cell r="B30" t="str">
             <v>c</v>
           </cell>
           <cell r="C30" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="31">
           <cell r="A31" t="str">
-            <v>butternutSquash</v>
+            <v>celery</v>
           </cell>
           <cell r="B31" t="str">
             <v>c</v>
@@ -2416,51 +2479,51 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>cabbage</v>
+            <v>cheese</v>
           </cell>
           <cell r="B32" t="str">
             <v>c</v>
           </cell>
           <cell r="C32" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>cake</v>
+            <v>chicken</v>
           </cell>
           <cell r="B33" t="str">
             <v>c</v>
           </cell>
           <cell r="C33" t="str">
-            <v>breads</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>canOpener</v>
+            <v>chickpeas</v>
           </cell>
           <cell r="B34" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C34" t="str">
-            <v>prepare</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>cardamon</v>
+            <v>chillies</v>
           </cell>
           <cell r="B35" t="str">
             <v>c</v>
           </cell>
           <cell r="C35" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>caribeanSpices</v>
+            <v>chilliesFlakes</v>
           </cell>
           <cell r="B36" t="str">
             <v>c</v>
@@ -2471,29 +2534,29 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>carrots</v>
+            <v>chilliesPwd</v>
           </cell>
           <cell r="B37" t="str">
             <v>c</v>
           </cell>
           <cell r="C37" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="38">
           <cell r="A38" t="str">
-            <v>case</v>
+            <v>chineseGreens</v>
           </cell>
           <cell r="B38" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C38" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="39">
           <cell r="A39" t="str">
-            <v>cayenne</v>
+            <v>chineseSpice</v>
           </cell>
           <cell r="B39" t="str">
             <v>c</v>
@@ -2504,106 +2567,106 @@
         </row>
         <row r="40">
           <cell r="A40" t="str">
-            <v>celery</v>
+            <v>chips</v>
           </cell>
           <cell r="B40" t="str">
             <v>c</v>
           </cell>
           <cell r="C40" t="str">
-            <v>produce</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>charger</v>
+            <v>chives</v>
           </cell>
           <cell r="B41" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C41" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>cheese</v>
+            <v>chorizo</v>
           </cell>
           <cell r="B42" t="str">
             <v>c</v>
           </cell>
           <cell r="C42" t="str">
-            <v>dairy</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>chicken</v>
+            <v>cider</v>
           </cell>
           <cell r="B43" t="str">
             <v>c</v>
           </cell>
           <cell r="C43" t="str">
-            <v>proteins</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>chickpeas</v>
+            <v>cilantroBase</v>
           </cell>
           <cell r="B44" t="str">
             <v>c</v>
           </cell>
           <cell r="C44" t="str">
-            <v>legumes</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>chillies</v>
+            <v>cinamon</v>
           </cell>
           <cell r="B45" t="str">
             <v>c</v>
           </cell>
           <cell r="C45" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>chilliesFlakes</v>
+            <v>cleaningLiquid</v>
           </cell>
           <cell r="B46" t="str">
             <v>c</v>
           </cell>
           <cell r="C46" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>chilliesPwd</v>
+            <v>clingFilm</v>
           </cell>
           <cell r="B47" t="str">
             <v>c</v>
           </cell>
           <cell r="C47" t="str">
-            <v>spice</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>chineseGreens</v>
+            <v>cloth</v>
           </cell>
           <cell r="B48" t="str">
             <v>c</v>
           </cell>
           <cell r="C48" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>chineseSpice</v>
+            <v>cocoa</v>
           </cell>
           <cell r="B49" t="str">
             <v>c</v>
@@ -2614,227 +2677,227 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>chips</v>
+            <v>coconutCream</v>
           </cell>
           <cell r="B50" t="str">
             <v>c</v>
           </cell>
           <cell r="C50" t="str">
-            <v>breads</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="51">
           <cell r="A51" t="str">
-            <v>chives</v>
+            <v>coffee</v>
           </cell>
           <cell r="B51" t="str">
             <v>c</v>
           </cell>
           <cell r="C51" t="str">
-            <v>spice</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="52">
           <cell r="A52" t="str">
-            <v>chopB</v>
+            <v>coriander</v>
           </cell>
           <cell r="B52" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C52" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="53">
           <cell r="A53" t="str">
-            <v>chopSticks</v>
+            <v>corianderPwd</v>
           </cell>
           <cell r="B53" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C53" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="54">
           <cell r="A54" t="str">
-            <v>chorizo</v>
+            <v>corn</v>
           </cell>
           <cell r="B54" t="str">
             <v>c</v>
           </cell>
           <cell r="C54" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="55">
           <cell r="A55" t="str">
-            <v>cider</v>
+            <v>cornFlour</v>
           </cell>
           <cell r="B55" t="str">
             <v>c</v>
           </cell>
           <cell r="C55" t="str">
-            <v>drinks</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="56">
           <cell r="A56" t="str">
-            <v>cilantroBase</v>
+            <v>courgette</v>
           </cell>
           <cell r="B56" t="str">
             <v>c</v>
           </cell>
           <cell r="C56" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="57">
           <cell r="A57" t="str">
-            <v>cinamon</v>
+            <v>cream</v>
           </cell>
           <cell r="B57" t="str">
             <v>c</v>
           </cell>
           <cell r="C57" t="str">
-            <v>spice</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="58">
           <cell r="A58" t="str">
-            <v>cleaningLiquid</v>
+            <v>cucumber</v>
           </cell>
           <cell r="B58" t="str">
             <v>c</v>
           </cell>
           <cell r="C58" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="59">
           <cell r="A59" t="str">
-            <v>clingFilm</v>
+            <v>cumin</v>
           </cell>
           <cell r="B59" t="str">
             <v>c</v>
           </cell>
           <cell r="C59" t="str">
-            <v>disposables</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="60">
           <cell r="A60" t="str">
-            <v>cloth</v>
+            <v>curry</v>
           </cell>
           <cell r="B60" t="str">
             <v>c</v>
           </cell>
           <cell r="C60" t="str">
-            <v>cleaning</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="61">
           <cell r="A61" t="str">
-            <v>clothes</v>
+            <v>disposables</v>
           </cell>
           <cell r="B61" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C61" t="str">
-            <v>noCooking</v>
+            <v>disposables</v>
           </cell>
         </row>
         <row r="62">
           <cell r="A62" t="str">
-            <v>cocoa</v>
+            <v>dWashL</v>
           </cell>
           <cell r="B62" t="str">
             <v>c</v>
           </cell>
           <cell r="C62" t="str">
-            <v>spice</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="63">
           <cell r="A63" t="str">
-            <v>coconutCream</v>
+            <v>eggs</v>
           </cell>
           <cell r="B63" t="str">
             <v>c</v>
           </cell>
           <cell r="C63" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="64">
           <cell r="A64" t="str">
-            <v>coffee</v>
+            <v>fennel</v>
           </cell>
           <cell r="B64" t="str">
             <v>c</v>
           </cell>
           <cell r="C64" t="str">
-            <v>drinks</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="65">
           <cell r="A65" t="str">
-            <v>coffeeMachine</v>
+            <v>fishSauce</v>
           </cell>
           <cell r="B65" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C65" t="str">
-            <v>toHeat</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="66">
           <cell r="A66" t="str">
-            <v>colander</v>
+            <v>fiveSpicesSeasoning</v>
           </cell>
           <cell r="B66" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C66" t="str">
-            <v>manipulate</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="67">
           <cell r="A67" t="str">
-            <v>computer</v>
+            <v>flour</v>
           </cell>
           <cell r="B67" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C67" t="str">
-            <v>tech</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="68">
           <cell r="A68" t="str">
-            <v>container</v>
+            <v>food</v>
           </cell>
           <cell r="B68" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C68" t="str">
-            <v>store</v>
+            <v>food</v>
           </cell>
         </row>
         <row r="69">
           <cell r="A69" t="str">
-            <v>cookingSpoon</v>
+            <v>frozenVegs</v>
           </cell>
           <cell r="B69" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C69" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="70">
           <cell r="A70" t="str">
-            <v>coriander</v>
+            <v>garlic</v>
           </cell>
           <cell r="B70" t="str">
             <v>c</v>
@@ -2845,7 +2908,7 @@
         </row>
         <row r="71">
           <cell r="A71" t="str">
-            <v>corianderPwd</v>
+            <v>garlicPwd</v>
           </cell>
           <cell r="B71" t="str">
             <v>c</v>
@@ -2856,271 +2919,271 @@
         </row>
         <row r="72">
           <cell r="A72" t="str">
-            <v>corn</v>
+            <v>ginger</v>
           </cell>
           <cell r="B72" t="str">
             <v>c</v>
           </cell>
           <cell r="C72" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="73">
           <cell r="A73" t="str">
-            <v>cornFlour</v>
+            <v>gloves</v>
           </cell>
           <cell r="B73" t="str">
             <v>c</v>
           </cell>
           <cell r="C73" t="str">
-            <v>cereals</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="74">
           <cell r="A74" t="str">
-            <v>courgette</v>
+            <v>goyaSeasoning</v>
           </cell>
           <cell r="B74" t="str">
             <v>c</v>
           </cell>
           <cell r="C74" t="str">
-            <v>produce</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="75">
           <cell r="A75" t="str">
-            <v>cpB</v>
+            <v>greenBeans</v>
           </cell>
           <cell r="B75" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C75" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="76">
           <cell r="A76" t="str">
-            <v>cream</v>
+            <v>greenPeas</v>
           </cell>
           <cell r="B76" t="str">
             <v>c</v>
           </cell>
           <cell r="C76" t="str">
-            <v>dairy</v>
+            <v>legumes</v>
           </cell>
         </row>
         <row r="77">
           <cell r="A77" t="str">
-            <v>crusher</v>
+            <v>greenSnaps</v>
           </cell>
           <cell r="B77" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C77" t="str">
-            <v>prepare</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="78">
           <cell r="A78" t="str">
-            <v>cucumber</v>
+            <v>ham</v>
           </cell>
           <cell r="B78" t="str">
             <v>c</v>
           </cell>
           <cell r="C78" t="str">
-            <v>produce</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="79">
           <cell r="A79" t="str">
-            <v>cumin</v>
+            <v>hoisinSauce</v>
           </cell>
           <cell r="B79" t="str">
             <v>c</v>
           </cell>
           <cell r="C79" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="80">
           <cell r="A80" t="str">
-            <v>cup</v>
+            <v>hotSauce</v>
           </cell>
           <cell r="B80" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C80" t="str">
-            <v>contain</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="81">
           <cell r="A81" t="str">
-            <v>curry</v>
+            <v>hummus</v>
           </cell>
           <cell r="B81" t="str">
             <v>c</v>
           </cell>
           <cell r="C81" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="82">
           <cell r="A82" t="str">
-            <v>cutlery</v>
+            <v>hWashL</v>
           </cell>
           <cell r="B82" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C82" t="str">
-            <v>manipulate</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="83">
           <cell r="A83" t="str">
-            <v>dishTray</v>
+            <v>italianSpices</v>
           </cell>
           <cell r="B83" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C83" t="str">
-            <v>clean</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="84">
           <cell r="A84" t="str">
-            <v>dishWasher</v>
+            <v>jam</v>
           </cell>
           <cell r="B84" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C84" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="85">
           <cell r="A85" t="str">
-            <v>disposables</v>
+            <v>juice</v>
           </cell>
           <cell r="B85" t="str">
             <v>c</v>
           </cell>
           <cell r="C85" t="str">
-            <v>disposables</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="86">
           <cell r="A86" t="str">
-            <v>documents</v>
+            <v>kale</v>
           </cell>
           <cell r="B86" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C86" t="str">
-            <v>noCooking</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="87">
           <cell r="A87" t="str">
-            <v>dustBrush</v>
+            <v>kitchenRoll</v>
           </cell>
           <cell r="B87" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C87" t="str">
-            <v>clean</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="88">
           <cell r="A88" t="str">
-            <v>dustPan</v>
+            <v>kiwi</v>
           </cell>
           <cell r="B88" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C88" t="str">
-            <v>clean</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="89">
           <cell r="A89" t="str">
-            <v>dw</v>
+            <v>lard</v>
           </cell>
           <cell r="B89" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C89" t="str">
-            <v>toStore</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="90">
           <cell r="A90" t="str">
-            <v>dWashL</v>
+            <v>leeks</v>
           </cell>
           <cell r="B90" t="str">
             <v>c</v>
           </cell>
           <cell r="C90" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="91">
           <cell r="A91" t="str">
-            <v>eggs</v>
+            <v>lemon</v>
           </cell>
           <cell r="B91" t="str">
             <v>c</v>
           </cell>
           <cell r="C91" t="str">
-            <v>proteins</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="92">
           <cell r="A92" t="str">
-            <v>extractorFan</v>
+            <v>lettuce</v>
           </cell>
           <cell r="B92" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C92" t="str">
-            <v>toHeat</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="93">
           <cell r="A93" t="str">
-            <v>faucet</v>
+            <v>lighter</v>
           </cell>
           <cell r="B93" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C93" t="str">
-            <v>toDispose</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="94">
           <cell r="A94" t="str">
-            <v>fennel</v>
+            <v>lime</v>
           </cell>
           <cell r="B94" t="str">
             <v>c</v>
           </cell>
           <cell r="C94" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="95">
           <cell r="A95" t="str">
-            <v>fireAlarm</v>
+            <v>macarroni</v>
           </cell>
           <cell r="B95" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C95" t="str">
-            <v>toSet</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="96">
           <cell r="A96" t="str">
-            <v>fishSauce</v>
+            <v>mappleSyrup</v>
           </cell>
           <cell r="B96" t="str">
             <v>c</v>
@@ -3131,7 +3194,7 @@
         </row>
         <row r="97">
           <cell r="A97" t="str">
-            <v>fiveSpicesSeasoning</v>
+            <v>marjoran</v>
           </cell>
           <cell r="B97" t="str">
             <v>c</v>
@@ -3142,139 +3205,139 @@
         </row>
         <row r="98">
           <cell r="A98" t="str">
-            <v>flour</v>
+            <v>masalaSpices</v>
           </cell>
           <cell r="B98" t="str">
             <v>c</v>
           </cell>
           <cell r="C98" t="str">
-            <v>cereals</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="99">
           <cell r="A99" t="str">
-            <v>food</v>
+            <v>milk</v>
           </cell>
           <cell r="B99" t="str">
             <v>c</v>
           </cell>
           <cell r="C99" t="str">
-            <v>food</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="100">
           <cell r="A100" t="str">
-            <v>fork</v>
+            <v>mincedMeat</v>
           </cell>
           <cell r="B100" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C100" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="101">
           <cell r="A101" t="str">
-            <v>freezer</v>
+            <v>mint</v>
           </cell>
           <cell r="B101" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C101" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="102">
           <cell r="A102" t="str">
-            <v>fridge</v>
+            <v>mushrooms</v>
           </cell>
           <cell r="B102" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C102" t="str">
-            <v>toStore</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="103">
           <cell r="A103" t="str">
-            <v>frozenVegs</v>
+            <v>napkins</v>
           </cell>
           <cell r="B103" t="str">
             <v>c</v>
           </cell>
           <cell r="C103" t="str">
-            <v>produce</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="104">
           <cell r="A104" t="str">
-            <v>garlic</v>
+            <v>noodles</v>
           </cell>
           <cell r="B104" t="str">
             <v>c</v>
           </cell>
           <cell r="C104" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="105">
           <cell r="A105" t="str">
-            <v>garlicPwd</v>
+            <v>nuggets</v>
           </cell>
           <cell r="B105" t="str">
             <v>c</v>
           </cell>
           <cell r="C105" t="str">
-            <v>spice</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="106">
           <cell r="A106" t="str">
-            <v>ginger</v>
+            <v>nuts</v>
           </cell>
           <cell r="B106" t="str">
             <v>c</v>
           </cell>
           <cell r="C106" t="str">
-            <v>spice</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="107">
           <cell r="A107" t="str">
-            <v>glass</v>
+            <v>oil</v>
           </cell>
           <cell r="B107" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C107" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="108">
           <cell r="A108" t="str">
-            <v>glassWine</v>
+            <v>oilFlavoured</v>
           </cell>
           <cell r="B108" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C108" t="str">
-            <v>contain</v>
+            <v>oils&amp;fats</v>
           </cell>
         </row>
         <row r="109">
           <cell r="A109" t="str">
-            <v>gloves</v>
+            <v>onion</v>
           </cell>
           <cell r="B109" t="str">
             <v>c</v>
           </cell>
           <cell r="C109" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="110">
           <cell r="A110" t="str">
-            <v>goyaSeasoning</v>
+            <v>oregano</v>
           </cell>
           <cell r="B110" t="str">
             <v>c</v>
@@ -3285,128 +3348,128 @@
         </row>
         <row r="111">
           <cell r="A111" t="str">
-            <v>grater</v>
+            <v>oysterSauce</v>
           </cell>
           <cell r="B111" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C111" t="str">
-            <v>prepare</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="112">
           <cell r="A112" t="str">
-            <v>greenBeans</v>
+            <v>panko</v>
           </cell>
           <cell r="B112" t="str">
             <v>c</v>
           </cell>
           <cell r="C112" t="str">
-            <v>produce</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="113">
           <cell r="A113" t="str">
-            <v>greenPeas</v>
+            <v>paprika</v>
           </cell>
           <cell r="B113" t="str">
             <v>c</v>
           </cell>
           <cell r="C113" t="str">
-            <v>legumes</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="114">
           <cell r="A114" t="str">
-            <v>greenSnaps</v>
+            <v>pen</v>
           </cell>
           <cell r="B114" t="str">
             <v>c</v>
           </cell>
           <cell r="C114" t="str">
-            <v>produce</v>
+            <v>stationery</v>
           </cell>
         </row>
         <row r="115">
           <cell r="A115" t="str">
-            <v>ham</v>
+            <v>pizza</v>
           </cell>
           <cell r="B115" t="str">
             <v>c</v>
           </cell>
           <cell r="C115" t="str">
-            <v>proteins</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="116">
           <cell r="A116" t="str">
-            <v>hoisinSauce</v>
+            <v>potatoes</v>
           </cell>
           <cell r="B116" t="str">
             <v>c</v>
           </cell>
           <cell r="C116" t="str">
-            <v>condiment</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="117">
           <cell r="A117" t="str">
-            <v>holder</v>
+            <v>prawns</v>
           </cell>
           <cell r="B117" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C117" t="str">
-            <v>manipulate</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="118">
           <cell r="A118" t="str">
-            <v>hotSauce</v>
+            <v>quinoa&amp;rice</v>
           </cell>
           <cell r="B118" t="str">
             <v>c</v>
           </cell>
           <cell r="C118" t="str">
-            <v>condiment</v>
+            <v>readyToEat</v>
           </cell>
         </row>
         <row r="119">
           <cell r="A119" t="str">
-            <v>hummus</v>
+            <v>rice</v>
           </cell>
           <cell r="B119" t="str">
             <v>c</v>
           </cell>
           <cell r="C119" t="str">
-            <v>condiment</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="120">
           <cell r="A120" t="str">
-            <v>hWashL</v>
+            <v>rigatoni</v>
           </cell>
           <cell r="B120" t="str">
             <v>c</v>
           </cell>
           <cell r="C120" t="str">
-            <v>cleaning</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="121">
           <cell r="A121" t="str">
-            <v>iceRocks</v>
+            <v>rosemary</v>
           </cell>
           <cell r="B121" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C121" t="str">
-            <v>other</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="122">
           <cell r="A122" t="str">
-            <v>italianSpices</v>
+            <v>salt</v>
           </cell>
           <cell r="B122" t="str">
             <v>c</v>
@@ -3417,51 +3480,51 @@
         </row>
         <row r="123">
           <cell r="A123" t="str">
-            <v>jam</v>
+            <v>sausage</v>
           </cell>
           <cell r="B123" t="str">
             <v>c</v>
           </cell>
           <cell r="C123" t="str">
-            <v>condiment</v>
+            <v>proteins</v>
           </cell>
         </row>
         <row r="124">
           <cell r="A124" t="str">
-            <v>jar</v>
+            <v>seasoning</v>
           </cell>
           <cell r="B124" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C124" t="str">
-            <v>contain</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="125">
           <cell r="A125" t="str">
-            <v>jarBlender</v>
+            <v>seasoningChicken</v>
           </cell>
           <cell r="B125" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C125" t="str">
-            <v>prepare</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="126">
           <cell r="A126" t="str">
-            <v>jarLid</v>
+            <v>soap</v>
           </cell>
           <cell r="B126" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C126" t="str">
-            <v>contain</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="127">
           <cell r="A127" t="str">
-            <v>juice</v>
+            <v>soda</v>
           </cell>
           <cell r="B127" t="str">
             <v>c</v>
@@ -3472,95 +3535,95 @@
         </row>
         <row r="128">
           <cell r="A128" t="str">
-            <v>kale</v>
+            <v>soySauce</v>
           </cell>
           <cell r="B128" t="str">
             <v>c</v>
           </cell>
           <cell r="C128" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="129">
           <cell r="A129" t="str">
-            <v>kettle</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="B129" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C129" t="str">
-            <v>heat</v>
+            <v>cereals</v>
           </cell>
         </row>
         <row r="130">
           <cell r="A130" t="str">
-            <v>key</v>
+            <v>spice_ui</v>
           </cell>
           <cell r="B130" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C130" t="str">
-            <v>noCooking</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="131">
           <cell r="A131" t="str">
-            <v>kitchenRoll</v>
+            <v>spinach</v>
           </cell>
           <cell r="B131" t="str">
             <v>c</v>
           </cell>
           <cell r="C131" t="str">
-            <v>cleaning</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="132">
           <cell r="A132" t="str">
-            <v>kiwi</v>
+            <v>spirit</v>
           </cell>
           <cell r="B132" t="str">
             <v>c</v>
           </cell>
           <cell r="C132" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="133">
           <cell r="A133" t="str">
-            <v>knife</v>
+            <v>sponge</v>
           </cell>
           <cell r="B133" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C133" t="str">
-            <v>prepare</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="134">
           <cell r="A134" t="str">
-            <v>ladle</v>
+            <v>springOnion</v>
           </cell>
           <cell r="B134" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C134" t="str">
-            <v>manipulate</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="135">
           <cell r="A135" t="str">
-            <v>lard</v>
+            <v>sugar</v>
           </cell>
           <cell r="B135" t="str">
             <v>c</v>
           </cell>
           <cell r="C135" t="str">
-            <v>oils&amp;fats</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="136">
           <cell r="A136" t="str">
-            <v>leeks</v>
+            <v>sweetPotatoes</v>
           </cell>
           <cell r="B136" t="str">
             <v>c</v>
@@ -3571,744 +3634,744 @@
         </row>
         <row r="137">
           <cell r="A137" t="str">
-            <v>lemon</v>
+            <v>tahini</v>
           </cell>
           <cell r="B137" t="str">
             <v>c</v>
           </cell>
           <cell r="C137" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138" t="str">
-            <v>lettuce</v>
+            <v>tea</v>
           </cell>
           <cell r="B138" t="str">
             <v>c</v>
           </cell>
           <cell r="C138" t="str">
-            <v>produce</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139" t="str">
-            <v>lid</v>
+            <v>thyme</v>
           </cell>
           <cell r="B139" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C139" t="str">
-            <v>contain</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="140">
           <cell r="A140" t="str">
-            <v>lighter</v>
+            <v>toiletPaper</v>
           </cell>
           <cell r="B140" t="str">
             <v>c</v>
           </cell>
           <cell r="C140" t="str">
-            <v>stationery</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="141">
           <cell r="A141" t="str">
-            <v>lightSwitch</v>
+            <v>tomatoes</v>
           </cell>
           <cell r="B141" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C141" t="str">
-            <v>toSet</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="142">
           <cell r="A142" t="str">
-            <v>lime</v>
+            <v>tomatoesProcessed</v>
           </cell>
           <cell r="B142" t="str">
             <v>c</v>
           </cell>
           <cell r="C142" t="str">
-            <v>produce</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="143">
           <cell r="A143" t="str">
-            <v>lunchBag</v>
+            <v>tomatoesSauce</v>
           </cell>
           <cell r="B143" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C143" t="str">
-            <v>store</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="144">
           <cell r="A144" t="str">
-            <v>macarroni</v>
+            <v>tortillas</v>
           </cell>
           <cell r="B144" t="str">
             <v>c</v>
           </cell>
           <cell r="C144" t="str">
-            <v>cereals</v>
+            <v>breads</v>
           </cell>
         </row>
         <row r="145">
           <cell r="A145" t="str">
-            <v>mappleSyrup</v>
+            <v>turmeric</v>
           </cell>
           <cell r="B145" t="str">
             <v>c</v>
           </cell>
           <cell r="C145" t="str">
-            <v>condiment</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="146">
           <cell r="A146" t="str">
-            <v>marjoran</v>
+            <v>turnip</v>
           </cell>
           <cell r="B146" t="str">
             <v>c</v>
           </cell>
           <cell r="C146" t="str">
-            <v>spice</v>
+            <v>produce</v>
           </cell>
         </row>
         <row r="147">
           <cell r="A147" t="str">
-            <v>masalaSpices</v>
+            <v>vinegar</v>
           </cell>
           <cell r="B147" t="str">
             <v>c</v>
           </cell>
           <cell r="C147" t="str">
-            <v>spice</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="148">
           <cell r="A148" t="str">
-            <v>measuringJar</v>
+            <v>water</v>
           </cell>
           <cell r="B148" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C148" t="str">
-            <v>measure</v>
+            <v>water</v>
           </cell>
         </row>
         <row r="149">
           <cell r="A149" t="str">
-            <v>measuringSpoon</v>
+            <v>whitePepper</v>
           </cell>
           <cell r="B149" t="str">
-            <v>u</v>
+            <v>c</v>
           </cell>
           <cell r="C149" t="str">
-            <v>measure</v>
+            <v>spice</v>
           </cell>
         </row>
         <row r="150">
           <cell r="A150" t="str">
-            <v>microwave</v>
+            <v>wine</v>
           </cell>
           <cell r="B150" t="str">
-            <v>e</v>
+            <v>c</v>
           </cell>
           <cell r="C150" t="str">
-            <v>toHeat</v>
+            <v>drinks</v>
           </cell>
         </row>
         <row r="151">
           <cell r="A151" t="str">
-            <v>milk</v>
+            <v>wipes</v>
           </cell>
           <cell r="B151" t="str">
             <v>c</v>
           </cell>
           <cell r="C151" t="str">
-            <v>dairy</v>
+            <v>cleaning</v>
           </cell>
         </row>
         <row r="152">
           <cell r="A152" t="str">
-            <v>mincedMeat</v>
+            <v>worcestershireSauce</v>
           </cell>
           <cell r="B152" t="str">
             <v>c</v>
           </cell>
           <cell r="C152" t="str">
-            <v>proteins</v>
+            <v>condiment</v>
           </cell>
         </row>
         <row r="153">
           <cell r="A153" t="str">
-            <v>mint</v>
+            <v>yogurt</v>
           </cell>
           <cell r="B153" t="str">
             <v>c</v>
           </cell>
           <cell r="C153" t="str">
-            <v>produce</v>
+            <v>dairy</v>
           </cell>
         </row>
         <row r="154">
           <cell r="A154" t="str">
-            <v>mixingBowl</v>
+            <v>coffeeMachine</v>
           </cell>
           <cell r="B154" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C154" t="str">
-            <v>contain</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="155">
           <cell r="A155" t="str">
-            <v>mop</v>
+            <v>cpB</v>
           </cell>
           <cell r="B155" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C155" t="str">
-            <v>clean</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="156">
           <cell r="A156" t="str">
-            <v>mortar</v>
+            <v>dishWasher</v>
           </cell>
           <cell r="B156" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C156" t="str">
-            <v>prepare</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="157">
           <cell r="A157" t="str">
-            <v>mushrooms</v>
+            <v>dw</v>
           </cell>
           <cell r="B157" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C157" t="str">
-            <v>produce</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="158">
           <cell r="A158" t="str">
-            <v>napkins</v>
+            <v>extractorFan</v>
           </cell>
           <cell r="B158" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C158" t="str">
-            <v>cleaning</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="159">
           <cell r="A159" t="str">
-            <v>nBook</v>
+            <v>faucet</v>
           </cell>
           <cell r="B159" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C159" t="str">
-            <v>accessInfo</v>
+            <v>toDispose</v>
           </cell>
         </row>
         <row r="160">
           <cell r="A160" t="str">
-            <v>noodles</v>
+            <v>fireAlarm</v>
           </cell>
           <cell r="B160" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C160" t="str">
-            <v>cereals</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="161">
           <cell r="A161" t="str">
-            <v>nuggets</v>
+            <v>freezer</v>
           </cell>
           <cell r="B161" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C161" t="str">
-            <v>proteins</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="162">
           <cell r="A162" t="str">
-            <v>nuts</v>
+            <v>fridge</v>
           </cell>
           <cell r="B162" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C162" t="str">
-            <v>cereals</v>
+            <v>toStore</v>
           </cell>
         </row>
         <row r="163">
           <cell r="A163" t="str">
-            <v>oil</v>
+            <v>lightSwitch</v>
           </cell>
           <cell r="B163" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C163" t="str">
-            <v>oils&amp;fats</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="164">
           <cell r="A164" t="str">
-            <v>oilFlavoured</v>
+            <v>microwave</v>
           </cell>
           <cell r="B164" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C164" t="str">
-            <v>oils&amp;fats</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="165">
           <cell r="A165" t="str">
-            <v>onion</v>
+            <v>oven</v>
           </cell>
           <cell r="B165" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C165" t="str">
-            <v>produce</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="166">
           <cell r="A166" t="str">
-            <v>oregano</v>
+            <v>stove</v>
           </cell>
           <cell r="B166" t="str">
-            <v>c</v>
+            <v>e</v>
           </cell>
           <cell r="C166" t="str">
-            <v>spice</v>
+            <v>toHeat</v>
           </cell>
         </row>
         <row r="167">
           <cell r="A167" t="str">
-            <v>oven</v>
+            <v>washingMachine</v>
           </cell>
           <cell r="B167" t="str">
             <v>e</v>
           </cell>
           <cell r="C167" t="str">
-            <v>toHeat</v>
+            <v xml:space="preserve">toClean </v>
           </cell>
         </row>
         <row r="168">
           <cell r="A168" t="str">
-            <v>ovenDish</v>
+            <v>window</v>
           </cell>
           <cell r="B168" t="str">
-            <v>u</v>
+            <v>e</v>
           </cell>
           <cell r="C168" t="str">
-            <v>heat</v>
+            <v>toSet</v>
           </cell>
         </row>
         <row r="169">
           <cell r="A169" t="str">
-            <v>ovenGloves</v>
+            <v>apron</v>
           </cell>
           <cell r="B169" t="str">
             <v>u</v>
           </cell>
           <cell r="C169" t="str">
-            <v>manipulate</v>
+            <v>protect</v>
           </cell>
         </row>
         <row r="170">
           <cell r="A170" t="str">
-            <v>oysterSauce</v>
+            <v>blender</v>
           </cell>
           <cell r="B170" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C170" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="171">
           <cell r="A171" t="str">
-            <v>pan</v>
+            <v>bottle</v>
           </cell>
           <cell r="B171" t="str">
             <v>u</v>
           </cell>
           <cell r="C171" t="str">
-            <v>heat</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="172">
           <cell r="A172" t="str">
-            <v>panko</v>
+            <v>bowl</v>
           </cell>
           <cell r="B172" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C172" t="str">
-            <v>cereals</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="173">
           <cell r="A173" t="str">
-            <v>paprika</v>
+            <v>boxCondiments</v>
           </cell>
           <cell r="B173" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C173" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="174">
           <cell r="A174" t="str">
-            <v>pastaServer</v>
+            <v>brush</v>
           </cell>
           <cell r="B174" t="str">
             <v>u</v>
           </cell>
           <cell r="C174" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="175">
           <cell r="A175" t="str">
-            <v>peeler</v>
+            <v>bucket</v>
           </cell>
           <cell r="B175" t="str">
             <v>u</v>
           </cell>
           <cell r="C175" t="str">
-            <v>prepare</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="176">
           <cell r="A176" t="str">
-            <v>pen</v>
+            <v>canOpener</v>
           </cell>
           <cell r="B176" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C176" t="str">
-            <v>stationery</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="177">
           <cell r="A177" t="str">
-            <v>phone</v>
+            <v>case</v>
           </cell>
           <cell r="B177" t="str">
             <v>u</v>
           </cell>
           <cell r="C177" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="178">
           <cell r="A178" t="str">
-            <v>pizza</v>
+            <v>charger</v>
           </cell>
           <cell r="B178" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C178" t="str">
-            <v>readyToEat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="179">
           <cell r="A179" t="str">
-            <v>plantPot</v>
+            <v>chopB</v>
           </cell>
           <cell r="B179" t="str">
             <v>u</v>
           </cell>
           <cell r="C179" t="str">
-            <v>noCooking</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="180">
           <cell r="A180" t="str">
-            <v>plate</v>
+            <v>chopSticks</v>
           </cell>
           <cell r="B180" t="str">
             <v>u</v>
           </cell>
           <cell r="C180" t="str">
-            <v>contain</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="181">
           <cell r="A181" t="str">
-            <v>pot</v>
+            <v>clothes</v>
           </cell>
           <cell r="B181" t="str">
             <v>u</v>
           </cell>
           <cell r="C181" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="182">
           <cell r="A182" t="str">
-            <v>potatoes</v>
+            <v>colander</v>
           </cell>
           <cell r="B182" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C182" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="183">
           <cell r="A183" t="str">
-            <v>prawns</v>
+            <v>computer</v>
           </cell>
           <cell r="B183" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C183" t="str">
-            <v>proteins</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="184">
           <cell r="A184" t="str">
-            <v>processor</v>
+            <v>container</v>
           </cell>
           <cell r="B184" t="str">
             <v>u</v>
           </cell>
           <cell r="C184" t="str">
-            <v>prepare</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="185">
           <cell r="A185" t="str">
-            <v>quinoa&amp;rice</v>
+            <v>cookingSpoon</v>
           </cell>
           <cell r="B185" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C185" t="str">
-            <v>readyToEat</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="186">
           <cell r="A186" t="str">
-            <v>radio</v>
+            <v>crusher</v>
           </cell>
           <cell r="B186" t="str">
             <v>u</v>
           </cell>
           <cell r="C186" t="str">
-            <v>tech</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="187">
           <cell r="A187" t="str">
-            <v>rBook</v>
+            <v>cup</v>
           </cell>
           <cell r="B187" t="str">
             <v>u</v>
           </cell>
           <cell r="C187" t="str">
-            <v>accessInfo</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="188">
           <cell r="A188" t="str">
-            <v>remoteControl</v>
+            <v>cutlery</v>
           </cell>
           <cell r="B188" t="str">
             <v>u</v>
           </cell>
           <cell r="C188" t="str">
-            <v>noCooking</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="189">
           <cell r="A189" t="str">
-            <v>rice</v>
+            <v>dishTray</v>
           </cell>
           <cell r="B189" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C189" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="190">
           <cell r="A190" t="str">
-            <v>riceCooker</v>
+            <v>documents</v>
           </cell>
           <cell r="B190" t="str">
             <v>u</v>
           </cell>
           <cell r="C190" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="191">
           <cell r="A191" t="str">
-            <v>rigatoni</v>
+            <v>dustBrush</v>
           </cell>
           <cell r="B191" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C191" t="str">
-            <v>cereals</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="192">
           <cell r="A192" t="str">
-            <v>rosemary</v>
+            <v>dustPan</v>
           </cell>
           <cell r="B192" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C192" t="str">
-            <v>spice</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="193">
           <cell r="A193" t="str">
-            <v>rSheet</v>
+            <v>fork</v>
           </cell>
           <cell r="B193" t="str">
             <v>u</v>
           </cell>
           <cell r="C193" t="str">
-            <v>accessInfo</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="194">
           <cell r="A194" t="str">
-            <v>salt</v>
+            <v>glass</v>
           </cell>
           <cell r="B194" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C194" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="195">
           <cell r="A195" t="str">
-            <v>sausage</v>
+            <v>glassWine</v>
           </cell>
           <cell r="B195" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C195" t="str">
-            <v>proteins</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="196">
           <cell r="A196" t="str">
-            <v>scale</v>
+            <v>grater</v>
           </cell>
           <cell r="B196" t="str">
             <v>u</v>
           </cell>
           <cell r="C196" t="str">
-            <v>measure</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="197">
           <cell r="A197" t="str">
-            <v>scissors</v>
+            <v>holder</v>
           </cell>
           <cell r="B197" t="str">
             <v>u</v>
           </cell>
           <cell r="C197" t="str">
-            <v>prepare</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="198">
           <cell r="A198" t="str">
-            <v>sealingClips</v>
+            <v>iceRocks</v>
           </cell>
           <cell r="B198" t="str">
             <v>u</v>
           </cell>
           <cell r="C198" t="str">
-            <v>store</v>
+            <v>other</v>
           </cell>
         </row>
         <row r="199">
           <cell r="A199" t="str">
-            <v>seasoning</v>
+            <v>jar</v>
           </cell>
           <cell r="B199" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C199" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="200">
           <cell r="A200" t="str">
-            <v>seasoningChicken</v>
+            <v>jarBlender</v>
           </cell>
           <cell r="B200" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C200" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="201">
           <cell r="A201" t="str">
-            <v>sinkDrainer</v>
+            <v>jarLid</v>
           </cell>
           <cell r="B201" t="str">
             <v>u</v>
           </cell>
           <cell r="C201" t="str">
-            <v>manipulate</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="202">
           <cell r="A202" t="str">
-            <v>smartAssistant</v>
+            <v>kettle</v>
           </cell>
           <cell r="B202" t="str">
             <v>u</v>
           </cell>
           <cell r="C202" t="str">
-            <v>tech</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="203">
           <cell r="A203" t="str">
-            <v>smartWatch</v>
+            <v>key</v>
           </cell>
           <cell r="B203" t="str">
             <v>u</v>
           </cell>
           <cell r="C203" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="204">
           <cell r="A204" t="str">
-            <v>smasher</v>
+            <v>knife</v>
           </cell>
           <cell r="B204" t="str">
             <v>u</v>
@@ -4319,139 +4382,139 @@
         </row>
         <row r="205">
           <cell r="A205" t="str">
-            <v>soap</v>
+            <v>ladle</v>
           </cell>
           <cell r="B205" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C205" t="str">
-            <v>cleaning</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="206">
           <cell r="A206" t="str">
-            <v>soda</v>
+            <v>lid</v>
           </cell>
           <cell r="B206" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C206" t="str">
-            <v>drinks</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="207">
           <cell r="A207" t="str">
-            <v>soySauce</v>
+            <v>lunchBag</v>
           </cell>
           <cell r="B207" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C207" t="str">
-            <v>condiment</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="208">
           <cell r="A208" t="str">
-            <v>spaghetti</v>
+            <v>measuringJar</v>
           </cell>
           <cell r="B208" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C208" t="str">
-            <v>cereals</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="209">
           <cell r="A209" t="str">
-            <v>speaker</v>
+            <v>measuringSpoon</v>
           </cell>
           <cell r="B209" t="str">
             <v>u</v>
           </cell>
           <cell r="C209" t="str">
-            <v>tech</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="210">
           <cell r="A210" t="str">
-            <v>spice_ui</v>
+            <v>mixingBowl</v>
           </cell>
           <cell r="B210" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C210" t="str">
-            <v>spice</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="211">
           <cell r="A211" t="str">
-            <v>spinach</v>
+            <v>mop</v>
           </cell>
           <cell r="B211" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C211" t="str">
-            <v>produce</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="212">
           <cell r="A212" t="str">
-            <v>spirit</v>
+            <v>mortar</v>
           </cell>
           <cell r="B212" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C212" t="str">
-            <v>drinks</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="213">
           <cell r="A213" t="str">
-            <v>sponge</v>
+            <v>nBook</v>
           </cell>
           <cell r="B213" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C213" t="str">
-            <v>cleaning</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="214">
           <cell r="A214" t="str">
-            <v>spoon</v>
+            <v>ovenDish</v>
           </cell>
           <cell r="B214" t="str">
             <v>u</v>
           </cell>
           <cell r="C214" t="str">
-            <v>manipulate</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="215">
           <cell r="A215" t="str">
-            <v>springOnion</v>
+            <v>ovenGloves</v>
           </cell>
           <cell r="B215" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C215" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="216">
           <cell r="A216" t="str">
-            <v>stove</v>
+            <v>pan</v>
           </cell>
           <cell r="B216" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C216" t="str">
-            <v>toHeat</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="217">
           <cell r="A217" t="str">
-            <v>strainer</v>
+            <v>pastaServer</v>
           </cell>
           <cell r="B217" t="str">
             <v>u</v>
@@ -4462,387 +4525,387 @@
         </row>
         <row r="218">
           <cell r="A218" t="str">
-            <v>sugar</v>
+            <v>peeler</v>
           </cell>
           <cell r="B218" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C218" t="str">
-            <v>spice</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="219">
           <cell r="A219" t="str">
-            <v>sweetPotatoes</v>
+            <v>phone</v>
           </cell>
           <cell r="B219" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C219" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="220">
           <cell r="A220" t="str">
-            <v>tablet</v>
+            <v>plantPot</v>
           </cell>
           <cell r="B220" t="str">
             <v>u</v>
           </cell>
           <cell r="C220" t="str">
-            <v>tech</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="221">
           <cell r="A221" t="str">
-            <v>tahini</v>
+            <v>plate</v>
           </cell>
           <cell r="B221" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C221" t="str">
-            <v>condiment</v>
+            <v>contain</v>
           </cell>
         </row>
         <row r="222">
           <cell r="A222" t="str">
-            <v>tea</v>
+            <v>pot</v>
           </cell>
           <cell r="B222" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C222" t="str">
-            <v>drinks</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="223">
           <cell r="A223" t="str">
-            <v>teaPot</v>
+            <v>processor</v>
           </cell>
           <cell r="B223" t="str">
             <v>u</v>
           </cell>
           <cell r="C223" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="224">
           <cell r="A224" t="str">
-            <v>thyme</v>
+            <v>radio</v>
           </cell>
           <cell r="B224" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C224" t="str">
-            <v>produce</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="225">
           <cell r="A225" t="str">
-            <v>timer</v>
+            <v>rBook</v>
           </cell>
           <cell r="B225" t="str">
             <v>u</v>
           </cell>
           <cell r="C225" t="str">
-            <v>measure</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="226">
           <cell r="A226" t="str">
-            <v>toaster</v>
+            <v>remoteControl</v>
           </cell>
           <cell r="B226" t="str">
             <v>u</v>
           </cell>
           <cell r="C226" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="227">
           <cell r="A227" t="str">
-            <v>toiletPaper</v>
+            <v>riceCooker</v>
           </cell>
           <cell r="B227" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C227" t="str">
-            <v>cleaning</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="228">
           <cell r="A228" t="str">
-            <v>tomatoes</v>
+            <v>rSheet</v>
           </cell>
           <cell r="B228" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C228" t="str">
-            <v>produce</v>
+            <v>accessInfo</v>
           </cell>
         </row>
         <row r="229">
           <cell r="A229" t="str">
-            <v>tomatoesProcessed</v>
+            <v>scale</v>
           </cell>
           <cell r="B229" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C229" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="230">
           <cell r="A230" t="str">
-            <v>tomatoesSauce</v>
+            <v>scissors</v>
           </cell>
           <cell r="B230" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C230" t="str">
-            <v>condiment</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="231">
           <cell r="A231" t="str">
-            <v>tongs</v>
+            <v>sealingClips</v>
           </cell>
           <cell r="B231" t="str">
             <v>u</v>
           </cell>
           <cell r="C231" t="str">
-            <v>manipulate</v>
+            <v>store</v>
           </cell>
         </row>
         <row r="232">
           <cell r="A232" t="str">
-            <v>tortillas</v>
+            <v>sinkDrainer</v>
           </cell>
           <cell r="B232" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C232" t="str">
-            <v>breads</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="233">
           <cell r="A233" t="str">
-            <v>towel</v>
+            <v>smartAssistant</v>
           </cell>
           <cell r="B233" t="str">
             <v>u</v>
           </cell>
           <cell r="C233" t="str">
-            <v>clean</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="234">
           <cell r="A234" t="str">
-            <v>trashB</v>
+            <v>smartWatch</v>
           </cell>
           <cell r="B234" t="str">
             <v>u</v>
           </cell>
           <cell r="C234" t="str">
-            <v>dispose</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="235">
           <cell r="A235" t="str">
-            <v>tray</v>
+            <v>smasher</v>
           </cell>
           <cell r="B235" t="str">
             <v>u</v>
           </cell>
           <cell r="C235" t="str">
-            <v>heat</v>
+            <v>prepare</v>
           </cell>
         </row>
         <row r="236">
           <cell r="A236" t="str">
-            <v>turmeric</v>
+            <v>speaker</v>
           </cell>
           <cell r="B236" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C236" t="str">
-            <v>spice</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="237">
           <cell r="A237" t="str">
-            <v>turnip</v>
+            <v>spoon</v>
           </cell>
           <cell r="B237" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C237" t="str">
-            <v>produce</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="238">
           <cell r="A238" t="str">
-            <v>vacuum</v>
+            <v>strainer</v>
           </cell>
           <cell r="B238" t="str">
             <v>u</v>
           </cell>
           <cell r="C238" t="str">
-            <v>clean</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="239">
           <cell r="A239" t="str">
-            <v>vaper</v>
+            <v>tablet</v>
           </cell>
           <cell r="B239" t="str">
             <v>u</v>
           </cell>
           <cell r="C239" t="str">
-            <v>noCooking</v>
+            <v>tech</v>
           </cell>
         </row>
         <row r="240">
           <cell r="A240" t="str">
-            <v>vessel</v>
+            <v>teaPot</v>
           </cell>
           <cell r="B240" t="str">
             <v>u</v>
           </cell>
           <cell r="C240" t="str">
-            <v>noCooking</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="241">
           <cell r="A241" t="str">
-            <v>vinegar</v>
+            <v>timer</v>
           </cell>
           <cell r="B241" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C241" t="str">
-            <v>condiment</v>
+            <v>measure</v>
           </cell>
         </row>
         <row r="242">
           <cell r="A242" t="str">
-            <v>washingMachine</v>
+            <v>toaster</v>
           </cell>
           <cell r="B242" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C242" t="str">
-            <v xml:space="preserve">toClean </v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="243">
           <cell r="A243" t="str">
-            <v>water</v>
+            <v>tongs</v>
           </cell>
           <cell r="B243" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C243" t="str">
-            <v>water</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="244">
           <cell r="A244" t="str">
-            <v>whisk</v>
+            <v>towel</v>
           </cell>
           <cell r="B244" t="str">
             <v>u</v>
           </cell>
           <cell r="C244" t="str">
-            <v>manipulate</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="245">
           <cell r="A245" t="str">
-            <v>whitePepper</v>
+            <v>trashB</v>
           </cell>
           <cell r="B245" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C245" t="str">
-            <v>spice</v>
+            <v>dispose</v>
           </cell>
         </row>
         <row r="246">
           <cell r="A246" t="str">
-            <v>window</v>
+            <v>tray</v>
           </cell>
           <cell r="B246" t="str">
-            <v>e</v>
+            <v>u</v>
           </cell>
           <cell r="C246" t="str">
-            <v>toSet</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="247">
           <cell r="A247" t="str">
-            <v>wine</v>
+            <v>vacuum</v>
           </cell>
           <cell r="B247" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C247" t="str">
-            <v>drinks</v>
+            <v>clean</v>
           </cell>
         </row>
         <row r="248">
           <cell r="A248" t="str">
-            <v>wipes</v>
+            <v>vaper</v>
           </cell>
           <cell r="B248" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C248" t="str">
-            <v>cleaning</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="249">
           <cell r="A249" t="str">
-            <v>wok</v>
+            <v>vessel</v>
           </cell>
           <cell r="B249" t="str">
             <v>u</v>
           </cell>
           <cell r="C249" t="str">
-            <v>heat</v>
+            <v>noCooking</v>
           </cell>
         </row>
         <row r="250">
           <cell r="A250" t="str">
-            <v>worcestershireSauce</v>
+            <v>whisk</v>
           </cell>
           <cell r="B250" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C250" t="str">
-            <v>condiment</v>
+            <v>manipulate</v>
           </cell>
         </row>
         <row r="251">
           <cell r="A251" t="str">
-            <v>wristWatch</v>
+            <v>wok</v>
           </cell>
           <cell r="B251" t="str">
             <v>u</v>
           </cell>
           <cell r="C251" t="str">
-            <v>measure</v>
+            <v>heat</v>
           </cell>
         </row>
         <row r="252">
           <cell r="A252" t="str">
-            <v>yogurt</v>
+            <v>wristWatch</v>
           </cell>
           <cell r="B252" t="str">
-            <v>c</v>
+            <v>u</v>
           </cell>
           <cell r="C252" t="str">
-            <v>dairy</v>
+            <v>measure</v>
           </cell>
         </row>
       </sheetData>
@@ -4851,6 +4914,9 @@
       <sheetData sheetId="23"/>
       <sheetData sheetId="24"/>
       <sheetData sheetId="25"/>
+      <sheetData sheetId="26"/>
+      <sheetData sheetId="27"/>
+      <sheetData sheetId="28"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>

--- a/files/p05.xlsx
+++ b/files/p05.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="p05-reg" sheetId="26" r:id="rId1"/>
@@ -729,7 +729,8 @@
       <sheetName val="participants"/>
       <sheetName val="inventory"/>
       <sheetName val="places"/>
-      <sheetName val="type"/>
+      <sheetName val="forms"/>
+      <sheetName val="activities"/>
       <sheetName val="all-items-raw"/>
       <sheetName val="places_copy"/>
       <sheetName val="participants_raw"/>
@@ -869,11 +870,9 @@
           <cell r="A9" t="str">
             <v>choppingBoard</v>
           </cell>
-          <cell r="B9"/>
           <cell r="C9" t="str">
             <v>chopB</v>
           </cell>
-          <cell r="D9"/>
           <cell r="F9" t="str">
             <v>container</v>
           </cell>
@@ -923,13 +922,13 @@
         </row>
         <row r="12">
           <cell r="A12" t="str">
-            <v>wine</v>
+            <v>cpB_a_4</v>
           </cell>
           <cell r="C12" t="str">
-            <v>cookingSpoon</v>
+            <v>cpB</v>
           </cell>
           <cell r="D12" t="str">
-            <v>w_1</v>
+            <v>a_co_4</v>
           </cell>
           <cell r="F12" t="str">
             <v>cpB_a_2</v>
@@ -949,7 +948,7 @@
             <v>cpB</v>
           </cell>
           <cell r="D13" t="str">
-            <v>a_co_4</v>
+            <v>a_co_1</v>
           </cell>
           <cell r="F13" t="str">
             <v>cpB_a_4</v>
@@ -965,11 +964,14 @@
           <cell r="A14" t="str">
             <v>cpB_a_prep_2</v>
           </cell>
+          <cell r="B14" t="str">
+            <v>pastaServer</v>
+          </cell>
           <cell r="C14" t="str">
             <v>cpB</v>
           </cell>
           <cell r="D14" t="str">
-            <v>a_co_1</v>
+            <v>a_co_2</v>
           </cell>
           <cell r="F14" t="str">
             <v>cpB_b_1</v>
@@ -989,7 +991,7 @@
             <v>cpB</v>
           </cell>
           <cell r="D15" t="str">
-            <v>a_co_2</v>
+            <v>a_co_4</v>
           </cell>
           <cell r="F15" t="str">
             <v>cpB_b_2</v>
@@ -1009,7 +1011,7 @@
             <v>cpB</v>
           </cell>
           <cell r="D16" t="str">
-            <v>a_co_4</v>
+            <v>a_sk_1</v>
           </cell>
           <cell r="F16" t="str">
             <v>cup</v>
@@ -1026,7 +1028,7 @@
             <v>cpB</v>
           </cell>
           <cell r="D17" t="str">
-            <v>a_sk_1</v>
+            <v>b_co_1</v>
           </cell>
           <cell r="F17" t="str">
             <v>dishwasher</v>
@@ -1040,10 +1042,10 @@
             <v>dw_1</v>
           </cell>
           <cell r="C18" t="str">
-            <v>cpB</v>
-          </cell>
-          <cell r="D18" t="str">
-            <v>b_co_1</v>
+            <v>dw</v>
+          </cell>
+          <cell r="D18">
+            <v>1</v>
           </cell>
           <cell r="F18" t="str">
             <v>dw_1</v>
@@ -1063,7 +1065,7 @@
             <v>dw</v>
           </cell>
           <cell r="D19">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="F19" t="str">
             <v>dw_2</v>
@@ -1080,10 +1082,7 @@
             <v>faucet</v>
           </cell>
           <cell r="C20" t="str">
-            <v>dw</v>
-          </cell>
-          <cell r="D20">
-            <v>2</v>
+            <v>faucet</v>
           </cell>
           <cell r="F20" t="str">
             <v>dishWashingL</v>
@@ -1103,7 +1102,10 @@
             <v>food_meat</v>
           </cell>
           <cell r="C21" t="str">
-            <v>faucet</v>
+            <v>food</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>meat</v>
           </cell>
           <cell r="F21" t="str">
             <v>faucet</v>
@@ -1120,7 +1122,7 @@
             <v>food</v>
           </cell>
           <cell r="D22" t="str">
-            <v>meat</v>
+            <v>pasta</v>
           </cell>
           <cell r="F22" t="str">
             <v>food_chilli</v>
@@ -1137,10 +1139,7 @@
             <v>fridge</v>
           </cell>
           <cell r="C23" t="str">
-            <v>food</v>
-          </cell>
-          <cell r="D23" t="str">
-            <v>pasta</v>
+            <v>fridge</v>
           </cell>
           <cell r="F23" t="str">
             <v>fork</v>
@@ -1156,11 +1155,9 @@
           <cell r="A24" t="str">
             <v>garlic_powder</v>
           </cell>
-          <cell r="B24"/>
           <cell r="C24" t="str">
-            <v>fridge</v>
-          </cell>
-          <cell r="D24"/>
+            <v>garlicPwd</v>
+          </cell>
           <cell r="F24" t="str">
             <v>fork_2</v>
           </cell>
@@ -1176,7 +1173,7 @@
             <v>grater_cheese</v>
           </cell>
           <cell r="C25" t="str">
-            <v>garlicPwd</v>
+            <v>grater</v>
           </cell>
           <cell r="F25" t="str">
             <v>fork_3</v>
@@ -1193,7 +1190,10 @@
             <v>jarLid_bouillon</v>
           </cell>
           <cell r="C26" t="str">
-            <v>grater</v>
+            <v>jarLid</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>jar</v>
           </cell>
           <cell r="F26" t="str">
             <v>fork_4</v>
@@ -1210,10 +1210,7 @@
             <v>kettle</v>
           </cell>
           <cell r="C27" t="str">
-            <v>jarLid</v>
-          </cell>
-          <cell r="D27" t="str">
-            <v>jar</v>
+            <v>kettle</v>
           </cell>
           <cell r="F27" t="str">
             <v>fridge</v>
@@ -1227,7 +1224,7 @@
             <v>kitchenRoll</v>
           </cell>
           <cell r="C28" t="str">
-            <v>kettle</v>
+            <v>kitchenRoll</v>
           </cell>
           <cell r="F28" t="str">
             <v>garlic</v>
@@ -1241,7 +1238,10 @@
             <v>knife_large</v>
           </cell>
           <cell r="C29" t="str">
-            <v>kitchenRoll</v>
+            <v>knife</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>large</v>
           </cell>
           <cell r="F29" t="str">
             <v>garlic_paste</v>
@@ -1257,11 +1257,9 @@
           <cell r="A30" t="str">
             <v>meat_minced</v>
           </cell>
-          <cell r="B30"/>
           <cell r="C30" t="str">
-            <v>knife</v>
-          </cell>
-          <cell r="D30"/>
+            <v>mincedMeat</v>
+          </cell>
           <cell r="F30" t="str">
             <v>kettle</v>
           </cell>
@@ -1274,7 +1272,7 @@
             <v>oregano</v>
           </cell>
           <cell r="C31" t="str">
-            <v>mincedMeat</v>
+            <v>oregano</v>
           </cell>
           <cell r="F31" t="str">
             <v>kitchenRoll</v>
@@ -1285,10 +1283,10 @@
         </row>
         <row r="32">
           <cell r="A32" t="str">
-            <v>pasta</v>
+            <v>pan</v>
           </cell>
           <cell r="C32" t="str">
-            <v>oregano</v>
+            <v>pan</v>
           </cell>
           <cell r="F32" t="str">
             <v>knife_large</v>
@@ -1302,10 +1300,10 @@
         </row>
         <row r="33">
           <cell r="A33" t="str">
-            <v>plate</v>
+            <v>pasta</v>
           </cell>
           <cell r="C33" t="str">
-            <v>pan</v>
+            <v>spaghetti</v>
           </cell>
           <cell r="F33" t="str">
             <v>knife_long</v>
@@ -1319,10 +1317,10 @@
         </row>
         <row r="34">
           <cell r="A34" t="str">
-            <v>cpB_a_4</v>
+            <v>plate</v>
           </cell>
           <cell r="C34" t="str">
-            <v>pastaServer</v>
+            <v>plate</v>
           </cell>
           <cell r="F34" t="str">
             <v>knife_table</v>
@@ -1336,10 +1334,10 @@
         </row>
         <row r="35">
           <cell r="A35" t="str">
-            <v>recipeNotebook</v>
+            <v>pot_large</v>
           </cell>
           <cell r="C35" t="str">
-            <v>plate</v>
+            <v>pot</v>
           </cell>
           <cell r="F35" t="str">
             <v>oil</v>
@@ -1350,13 +1348,14 @@
         </row>
         <row r="36">
           <cell r="A36" t="str">
-            <v>recipeSheets</v>
-          </cell>
-          <cell r="B36"/>
+            <v>recipeNotebook</v>
+          </cell>
           <cell r="C36" t="str">
-            <v>pot</v>
-          </cell>
-          <cell r="D36"/>
+            <v>rBook</v>
+          </cell>
+          <cell r="D36" t="str">
+            <v>nBook</v>
+          </cell>
           <cell r="F36" t="str">
             <v>onion</v>
           </cell>
@@ -1366,13 +1365,13 @@
         </row>
         <row r="37">
           <cell r="A37" t="str">
-            <v>pan</v>
+            <v>recipeSheets</v>
           </cell>
           <cell r="C37" t="str">
-            <v>rBook</v>
-          </cell>
-          <cell r="D37" t="str">
-            <v>nBook</v>
+            <v>rSheet</v>
+          </cell>
+          <cell r="D37">
+            <v>1</v>
           </cell>
           <cell r="F37" t="str">
             <v>palette_wood</v>
@@ -1392,7 +1391,7 @@
             <v>rSheet</v>
           </cell>
           <cell r="D38">
-            <v>1</v>
+            <v>2</v>
           </cell>
           <cell r="F38" t="str">
             <v>pan</v>
@@ -1409,10 +1408,7 @@
             <v>scissors</v>
           </cell>
           <cell r="C39" t="str">
-            <v>rSheet</v>
-          </cell>
-          <cell r="D39">
-            <v>2</v>
+            <v>scissors</v>
           </cell>
           <cell r="F39" t="str">
             <v>pan_2</v>
@@ -1429,7 +1425,10 @@
             <v>spatula_wood</v>
           </cell>
           <cell r="C40" t="str">
-            <v>scissors</v>
+            <v>cookingSpoon</v>
+          </cell>
+          <cell r="D40" t="str">
+            <v>w_1</v>
           </cell>
           <cell r="F40" t="str">
             <v>pan_3</v>
@@ -1443,10 +1442,13 @@
         </row>
         <row r="41">
           <cell r="A41" t="str">
-            <v>pot_large</v>
+            <v>spoon_pasta_plastic</v>
           </cell>
           <cell r="C41" t="str">
-            <v>spaghetti</v>
+            <v>cookingSpoon</v>
+          </cell>
+          <cell r="D41" t="str">
+            <v>p_1</v>
           </cell>
           <cell r="F41" t="str">
             <v>phone</v>
@@ -1457,7 +1459,7 @@
         </row>
         <row r="42">
           <cell r="A42" t="str">
-            <v>spoon_pasta_plastic</v>
+            <v>stove</v>
           </cell>
           <cell r="C42" t="str">
             <v>stove</v>
@@ -1471,7 +1473,10 @@
         </row>
         <row r="43">
           <cell r="A43" t="str">
-            <v>stove</v>
+            <v>strainer</v>
+          </cell>
+          <cell r="B43" t="str">
+            <v>tomatoesCanned</v>
           </cell>
           <cell r="C43" t="str">
             <v>strainer</v>
@@ -1488,10 +1493,10 @@
         </row>
         <row r="44">
           <cell r="A44" t="str">
-            <v>strainer</v>
+            <v>tomatoes_can</v>
           </cell>
           <cell r="B44" t="str">
-            <v>tomatoesCanned</v>
+            <v>tomatoesPaste</v>
           </cell>
           <cell r="C44" t="str">
             <v>tomatoesProcessed</v>
@@ -1508,10 +1513,7 @@
         </row>
         <row r="45">
           <cell r="A45" t="str">
-            <v>tomatoes_can</v>
-          </cell>
-          <cell r="B45" t="str">
-            <v>tomatoesPaste</v>
+            <v>tomatoes_paste</v>
           </cell>
           <cell r="C45" t="str">
             <v>tomatoesProcessed</v>
@@ -1528,7 +1530,10 @@
         </row>
         <row r="46">
           <cell r="A46" t="str">
-            <v>tomatoes_paste</v>
+            <v>towel_red</v>
+          </cell>
+          <cell r="B46" t="str">
+            <v>trashB</v>
           </cell>
           <cell r="C46" t="str">
             <v>towel</v>
@@ -1545,10 +1550,10 @@
         </row>
         <row r="47">
           <cell r="A47" t="str">
-            <v>towel_red</v>
+            <v>trashBin</v>
           </cell>
           <cell r="B47" t="str">
-            <v>trashB</v>
+            <v>trashB_r</v>
           </cell>
           <cell r="C47" t="str">
             <v>trashB</v>
@@ -1562,10 +1567,7 @@
         </row>
         <row r="48">
           <cell r="A48" t="str">
-            <v>trashBin</v>
-          </cell>
-          <cell r="B48" t="str">
-            <v>trashB_r</v>
+            <v>trashBin_recycling</v>
           </cell>
           <cell r="C48" t="str">
             <v>trashB</v>
@@ -1582,7 +1584,7 @@
         </row>
         <row r="49">
           <cell r="A49" t="str">
-            <v>trashBin_recycling</v>
+            <v>water</v>
           </cell>
           <cell r="C49" t="str">
             <v>water</v>
@@ -1599,7 +1601,7 @@
         </row>
         <row r="50">
           <cell r="A50" t="str">
-            <v>water</v>
+            <v>wine</v>
           </cell>
           <cell r="C50" t="str">
             <v>wine</v>
@@ -1989,7 +1991,6 @@
           <cell r="F85" t="str">
             <v>cup_3</v>
           </cell>
-          <cell r="G85"/>
           <cell r="H85" t="str">
             <v>cup</v>
           </cell>
@@ -2012,7 +2013,6 @@
           <cell r="F87" t="str">
             <v>plate_small</v>
           </cell>
-          <cell r="G87"/>
           <cell r="H87" t="str">
             <v>plate</v>
           </cell>
@@ -2024,17 +2024,14 @@
           <cell r="F88" t="str">
             <v>milk</v>
           </cell>
-          <cell r="G88"/>
           <cell r="H88" t="str">
             <v>milk</v>
           </cell>
-          <cell r="I88"/>
         </row>
         <row r="89">
           <cell r="F89" t="str">
             <v>towel</v>
           </cell>
-          <cell r="G89"/>
           <cell r="H89" t="str">
             <v>towel</v>
           </cell>
@@ -2046,17 +2043,14 @@
           <cell r="F90" t="str">
             <v>glass</v>
           </cell>
-          <cell r="G90"/>
           <cell r="H90" t="str">
             <v>glass</v>
           </cell>
-          <cell r="I90"/>
         </row>
         <row r="91">
           <cell r="F91" t="str">
             <v>knife_clutery</v>
           </cell>
-          <cell r="G91"/>
           <cell r="H91" t="str">
             <v>knife</v>
           </cell>
@@ -2068,7 +2062,6 @@
           <cell r="F92" t="str">
             <v>fork_clutery</v>
           </cell>
-          <cell r="G92"/>
           <cell r="H92" t="str">
             <v>fork</v>
           </cell>
@@ -2080,55 +2073,12 @@
           <cell r="F93" t="str">
             <v>spoon_cutlery</v>
           </cell>
-          <cell r="G93"/>
           <cell r="H93" t="str">
             <v>spoon</v>
           </cell>
           <cell r="I93" t="str">
             <v>clutery</v>
           </cell>
-        </row>
-        <row r="94">
-          <cell r="F94"/>
-          <cell r="G94"/>
-          <cell r="H94"/>
-          <cell r="I94"/>
-        </row>
-        <row r="95">
-          <cell r="F95"/>
-          <cell r="G95"/>
-          <cell r="H95"/>
-          <cell r="I95"/>
-        </row>
-        <row r="96">
-          <cell r="F96"/>
-          <cell r="G96"/>
-          <cell r="H96"/>
-          <cell r="I96"/>
-        </row>
-        <row r="97">
-          <cell r="F97"/>
-          <cell r="G97"/>
-          <cell r="H97"/>
-          <cell r="I97"/>
-        </row>
-        <row r="98">
-          <cell r="F98"/>
-          <cell r="G98"/>
-          <cell r="H98"/>
-          <cell r="I98"/>
-        </row>
-        <row r="99">
-          <cell r="F99"/>
-          <cell r="G99"/>
-          <cell r="H99"/>
-          <cell r="I99"/>
-        </row>
-        <row r="100">
-          <cell r="F100"/>
-          <cell r="G100"/>
-          <cell r="H100"/>
-          <cell r="I100"/>
         </row>
       </sheetData>
       <sheetData sheetId="5"/>
@@ -4917,6 +4867,7 @@
       <sheetData sheetId="26"/>
       <sheetData sheetId="27"/>
       <sheetData sheetId="28"/>
+      <sheetData sheetId="29"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5187,10 +5138,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI138"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="L58" sqref="L58"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="B116:J118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,46 +5225,48 @@
     </row>
     <row r="2" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="3">
-        <v>1.2499999999999999E-2</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1.2569444444444446E-2</v>
+        <v>3.2407407407407406E-4</v>
+      </c>
+      <c r="D2" s="3">
+        <v>3.4722222222222224E-4</v>
       </c>
       <c r="E2" s="3">
-        <f t="shared" ref="E2:E33" si="0">D2-C2</f>
-        <v>6.9444444444446626E-5</v>
+        <f>D2-C2</f>
+        <v>2.3148148148148171E-5</v>
       </c>
       <c r="F2" s="6">
-        <f t="shared" ref="F2:F33" si="1">HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
-        <v>6</v>
+        <f>HOUR(E2) *3600 + MINUTE(E2) * 60 + SECOND(E2)</f>
+        <v>2</v>
       </c>
       <c r="G2" s="6">
-        <f t="shared" ref="G2:G33" si="2">HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
-        <v>1080</v>
+        <f>HOUR(C2) *3600 + MINUTE(C2) * 60 + SECOND(C2)</f>
+        <v>28</v>
       </c>
       <c r="H2" s="6">
-        <f t="shared" ref="H2:H33" si="3">HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
-        <v>1086</v>
+        <f>HOUR(D2) *3600 + MINUTE(D2) * 60 + SECOND(D2)</f>
+        <v>30</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>VLOOKUP(J2,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>VLOOKUP(B2,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>basilPwd</v>
+        <v>fridge</v>
       </c>
       <c r="K2" s="2">
         <f>VLOOKUP(B2,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L2" s="1"/>
+      <c r="L2" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="M2" s="2">
         <v>1</v>
       </c>
@@ -5324,44 +5277,44 @@
     </row>
     <row r="3" spans="1:35" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="3">
-        <v>1.2268518518518519E-2</v>
+        <v>1.0879629629629629E-3</v>
       </c>
       <c r="D3" s="4">
-        <v>1.2337962962962962E-2</v>
+        <v>1.1111111111111111E-3</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9444444444443157E-5</v>
+        <f>D3-C3</f>
+        <v>2.3148148148148225E-5</v>
       </c>
       <c r="F3" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>HOUR(E3) *3600 + MINUTE(E3) * 60 + SECOND(E3)</f>
+        <v>2</v>
       </c>
       <c r="G3" s="6">
-        <f t="shared" si="2"/>
-        <v>1060</v>
+        <f>HOUR(C3) *3600 + MINUTE(C3) * 60 + SECOND(C3)</f>
+        <v>94</v>
       </c>
       <c r="H3" s="6">
-        <f t="shared" si="3"/>
-        <v>1066</v>
+        <f>HOUR(D3) *3600 + MINUTE(D3) * 60 + SECOND(D3)</f>
+        <v>96</v>
       </c>
       <c r="I3" s="2" t="str">
         <f>VLOOKUP(J3,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J3" s="2" t="str">
         <f>VLOOKUP(B3,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>blackPepper</v>
-      </c>
-      <c r="K3" s="2">
+        <v>container</v>
+      </c>
+      <c r="K3" s="2" t="str">
         <f>VLOOKUP(B3,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>spaghetti</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="2">
@@ -5374,44 +5327,44 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3">
-        <v>8.5879629629629622E-3</v>
+        <v>2.1990740740740742E-3</v>
       </c>
       <c r="D4" s="4">
-        <v>9.0046296296296298E-3</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="E4" s="3">
-        <f t="shared" si="0"/>
-        <v>4.1666666666666761E-4</v>
+        <f>D4-C4</f>
+        <v>2.3148148148148008E-5</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>HOUR(E4) *3600 + MINUTE(E4) * 60 + SECOND(E4)</f>
+        <v>2</v>
       </c>
       <c r="G4" s="6">
-        <f t="shared" si="2"/>
-        <v>742</v>
+        <f>HOUR(C4) *3600 + MINUTE(C4) * 60 + SECOND(C4)</f>
+        <v>190</v>
       </c>
       <c r="H4" s="6">
-        <f t="shared" si="3"/>
-        <v>778</v>
+        <f>HOUR(D4) *3600 + MINUTE(D4) * 60 + SECOND(D4)</f>
+        <v>192</v>
       </c>
       <c r="I4" s="2" t="str">
         <f>VLOOKUP(J4,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J4" s="2" t="str">
         <f>VLOOKUP(B4,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bouillon</v>
+        <v>dw</v>
       </c>
       <c r="K4" s="2">
         <f>VLOOKUP(B4,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <v>1</v>
@@ -5423,32 +5376,32 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
-        <v>2.0486111111111111E-2</v>
+        <v>2.4768518518518516E-3</v>
       </c>
       <c r="D5" s="4">
-        <v>2.0532407407407405E-2</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E5" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296294281E-5</v>
+        <f>D5-C5</f>
+        <v>2.3148148148148442E-5</v>
       </c>
       <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>HOUR(E5) *3600 + MINUTE(E5) * 60 + SECOND(E5)</f>
+        <v>2</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" si="2"/>
-        <v>1770</v>
+        <f>HOUR(C5) *3600 + MINUTE(C5) * 60 + SECOND(C5)</f>
+        <v>214</v>
       </c>
       <c r="H5" s="6">
-        <f t="shared" si="3"/>
-        <v>1774</v>
+        <f>HOUR(D5) *3600 + MINUTE(D5) * 60 + SECOND(D5)</f>
+        <v>216</v>
       </c>
       <c r="I5" s="2" t="str">
         <f>VLOOKUP(J5,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5456,11 +5409,11 @@
       </c>
       <c r="J5" s="2" t="str">
         <f>VLOOKUP(B5,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
-      </c>
-      <c r="K5" s="2" t="str">
+        <v>trashB</v>
+      </c>
+      <c r="K5" s="2">
         <f>VLOOKUP(B5,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="2">
         <v>1</v>
@@ -5472,32 +5425,32 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>127</v>
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3">
-        <v>2.7268518518518515E-2</v>
+        <v>8.6574074074074071E-3</v>
       </c>
       <c r="D6" s="4">
-        <v>2.7708333333333331E-2</v>
+        <v>8.6805555555555559E-3</v>
       </c>
       <c r="E6" s="3">
-        <f t="shared" si="0"/>
-        <v>4.3981481481481649E-4</v>
+        <f>D6-C6</f>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>38</v>
+        <f>HOUR(E6) *3600 + MINUTE(E6) * 60 + SECOND(E6)</f>
+        <v>2</v>
       </c>
       <c r="G6" s="6">
-        <f t="shared" si="2"/>
-        <v>2356</v>
+        <f>HOUR(C6) *3600 + MINUTE(C6) * 60 + SECOND(C6)</f>
+        <v>748</v>
       </c>
       <c r="H6" s="6">
-        <f t="shared" si="3"/>
-        <v>2394</v>
+        <f>HOUR(D6) *3600 + MINUTE(D6) * 60 + SECOND(D6)</f>
+        <v>750</v>
       </c>
       <c r="I6" s="2" t="str">
         <f>VLOOKUP(J6,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5505,11 +5458,11 @@
       </c>
       <c r="J6" s="2" t="str">
         <f>VLOOKUP(B6,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
+        <v>rBook</v>
       </c>
       <c r="K6" s="2" t="str">
         <f>VLOOKUP(B6,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_1</v>
+        <v>nBook</v>
       </c>
       <c r="M6" s="2">
         <v>1</v>
@@ -5521,32 +5474,32 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>132</v>
+        <v>33</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="C7" s="3">
-        <v>2.837962962962963E-2</v>
+        <v>9.0046296296296298E-3</v>
       </c>
       <c r="D7" s="4">
-        <v>2.8587962962962964E-2</v>
+        <v>9.0277777777777787E-3</v>
       </c>
       <c r="E7" s="3">
-        <f t="shared" si="0"/>
-        <v>2.0833333333333467E-4</v>
+        <f>D7-C7</f>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>HOUR(E7) *3600 + MINUTE(E7) * 60 + SECOND(E7)</f>
+        <v>2</v>
       </c>
       <c r="G7" s="6">
-        <f t="shared" si="2"/>
-        <v>2452</v>
+        <f>HOUR(C7) *3600 + MINUTE(C7) * 60 + SECOND(C7)</f>
+        <v>778</v>
       </c>
       <c r="H7" s="6">
-        <f t="shared" si="3"/>
-        <v>2470</v>
+        <f>HOUR(D7) *3600 + MINUTE(D7) * 60 + SECOND(D7)</f>
+        <v>780</v>
       </c>
       <c r="I7" s="2" t="str">
         <f>VLOOKUP(J7,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5554,11 +5507,11 @@
       </c>
       <c r="J7" s="2" t="str">
         <f>VLOOKUP(B7,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
+        <v>rBook</v>
       </c>
       <c r="K7" s="2" t="str">
         <f>VLOOKUP(B7,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_1</v>
+        <v>nBook</v>
       </c>
       <c r="M7" s="2">
         <v>1</v>
@@ -5570,32 +5523,32 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C8" s="3">
-        <v>2.0995370370370373E-2</v>
+        <v>1.1388888888888888E-2</v>
       </c>
       <c r="D8" s="4">
-        <v>2.1064814814814814E-2</v>
+        <v>1.1412037037037038E-2</v>
       </c>
       <c r="E8" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9444444444441422E-5</v>
+        <f>D8-C8</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>HOUR(E8) *3600 + MINUTE(E8) * 60 + SECOND(E8)</f>
+        <v>2</v>
       </c>
       <c r="G8" s="6">
-        <f t="shared" si="2"/>
-        <v>1814</v>
+        <f>HOUR(C8) *3600 + MINUTE(C8) * 60 + SECOND(C8)</f>
+        <v>984</v>
       </c>
       <c r="H8" s="6">
-        <f t="shared" si="3"/>
-        <v>1820</v>
+        <f>HOUR(D8) *3600 + MINUTE(D8) * 60 + SECOND(D8)</f>
+        <v>986</v>
       </c>
       <c r="I8" s="2" t="str">
         <f>VLOOKUP(J8,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5603,11 +5556,11 @@
       </c>
       <c r="J8" s="2" t="str">
         <f>VLOOKUP(B8,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
-      </c>
-      <c r="K8" s="2" t="str">
+        <v>strainer</v>
+      </c>
+      <c r="K8" s="2">
         <f>VLOOKUP(B8,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="2">
         <v>1</v>
@@ -5619,32 +5572,32 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C9" s="3">
-        <v>2.7731481481481478E-2</v>
+        <v>1.1527777777777777E-2</v>
       </c>
       <c r="D9" s="4">
-        <v>2.8032407407407409E-2</v>
+        <v>1.1550925925925925E-2</v>
       </c>
       <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>3.0092592592593018E-4</v>
+        <f>D9-C9</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" si="1"/>
-        <v>26</v>
+        <f>HOUR(E9) *3600 + MINUTE(E9) * 60 + SECOND(E9)</f>
+        <v>2</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" si="2"/>
-        <v>2396</v>
+        <f>HOUR(C9) *3600 + MINUTE(C9) * 60 + SECOND(C9)</f>
+        <v>996</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" si="3"/>
-        <v>2422</v>
+        <f>HOUR(D9) *3600 + MINUTE(D9) * 60 + SECOND(D9)</f>
+        <v>998</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>VLOOKUP(J9,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5652,11 +5605,11 @@
       </c>
       <c r="J9" s="2" t="str">
         <f>VLOOKUP(B9,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
+        <v>trashB</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>VLOOKUP(B9,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_2</v>
+        <v>recycling</v>
       </c>
       <c r="M9" s="2">
         <v>1</v>
@@ -5664,44 +5617,47 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>135</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3">
-        <v>2.8587962962962964E-2</v>
+        <v>1.4027777777777778E-2</v>
       </c>
       <c r="D10" s="4">
-        <v>2.8819444444444443E-2</v>
+        <v>1.4050925925925927E-2</v>
       </c>
       <c r="E10" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3148148148147835E-4</v>
+        <f>D10-C10</f>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="F10" s="6">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>HOUR(E10) *3600 + MINUTE(E10) * 60 + SECOND(E10)</f>
+        <v>2</v>
       </c>
       <c r="G10" s="6">
-        <f t="shared" si="2"/>
-        <v>2470</v>
+        <f>HOUR(C10) *3600 + MINUTE(C10) * 60 + SECOND(C10)</f>
+        <v>1212</v>
       </c>
       <c r="H10" s="6">
-        <f t="shared" si="3"/>
-        <v>2490</v>
+        <f>HOUR(D10) *3600 + MINUTE(D10) * 60 + SECOND(D10)</f>
+        <v>1214</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>VLOOKUP(J10,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>VLOOKUP(B10,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>bowl</v>
-      </c>
-      <c r="K10" s="2" t="str">
+        <v>stove</v>
+      </c>
+      <c r="K10" s="2">
         <f>VLOOKUP(B10,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>small_2</v>
+        <v>0</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>105</v>
       </c>
       <c r="M10" s="2">
         <v>1</v>
@@ -5710,40 +5666,40 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3">
-        <v>1.2361111111111113E-2</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1.247685185185185E-2</v>
+        <v>1.4027777777777778E-2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1.4050925925925927E-2</v>
       </c>
       <c r="E11" s="3">
-        <f t="shared" si="0"/>
-        <v>1.1574074074073744E-4</v>
+        <f>D11-C11</f>
+        <v>2.3148148148148875E-5</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>HOUR(E11) *3600 + MINUTE(E11) * 60 + SECOND(E11)</f>
+        <v>2</v>
       </c>
       <c r="G11" s="6">
-        <f t="shared" si="2"/>
-        <v>1068</v>
+        <f>HOUR(C11) *3600 + MINUTE(C11) * 60 + SECOND(C11)</f>
+        <v>1212</v>
       </c>
       <c r="H11" s="6">
-        <f t="shared" si="3"/>
-        <v>1078</v>
+        <f>HOUR(D11) *3600 + MINUTE(D11) * 60 + SECOND(D11)</f>
+        <v>1214</v>
       </c>
       <c r="I11" s="2" t="str">
         <f>VLOOKUP(J11,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J11" s="2" t="str">
         <f>VLOOKUP(B11,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cayenne</v>
+        <v>pot</v>
       </c>
       <c r="K11" s="2">
         <f>VLOOKUP(B11,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -5758,32 +5714,32 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C12" s="3">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1.7013888888888887E-2</v>
+        <v>1.4490740740740742E-2</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1.4513888888888889E-2</v>
       </c>
       <c r="E12" s="3">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222099E-4</v>
+        <f>D12-C12</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F12" s="6">
-        <f t="shared" si="1"/>
-        <v>30</v>
+        <f>HOUR(E12) *3600 + MINUTE(E12) * 60 + SECOND(E12)</f>
+        <v>2</v>
       </c>
       <c r="G12" s="6">
-        <f t="shared" si="2"/>
-        <v>1440</v>
+        <f>HOUR(C12) *3600 + MINUTE(C12) * 60 + SECOND(C12)</f>
+        <v>1252</v>
       </c>
       <c r="H12" s="6">
-        <f t="shared" si="3"/>
-        <v>1470</v>
+        <f>HOUR(D12) *3600 + MINUTE(D12) * 60 + SECOND(D12)</f>
+        <v>1254</v>
       </c>
       <c r="I12" s="2" t="str">
         <f>VLOOKUP(J12,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5791,11 +5747,11 @@
       </c>
       <c r="J12" s="2" t="str">
         <f>VLOOKUP(B12,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cheese</v>
+        <v>food</v>
       </c>
       <c r="K12" s="2" t="str">
         <f>VLOOKUP(B12,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>cheedar</v>
+        <v>pasta</v>
       </c>
       <c r="M12" s="2">
         <v>1</v>
@@ -5806,47 +5762,47 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="C13" s="3">
-        <v>1.7199074074074071E-2</v>
+        <v>1.6759259259259258E-2</v>
       </c>
       <c r="D13" s="4">
-        <v>1.9074074074074073E-2</v>
+        <v>1.6782407407407409E-2</v>
       </c>
       <c r="E13" s="3">
-        <f t="shared" si="0"/>
-        <v>1.8750000000000017E-3</v>
+        <f>D13-C13</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>162</v>
+        <f>HOUR(E13) *3600 + MINUTE(E13) * 60 + SECOND(E13)</f>
+        <v>2</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="2"/>
-        <v>1486</v>
+        <f>HOUR(C13) *3600 + MINUTE(C13) * 60 + SECOND(C13)</f>
+        <v>1448</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="3"/>
-        <v>1648</v>
+        <f>HOUR(D13) *3600 + MINUTE(D13) * 60 + SECOND(D13)</f>
+        <v>1450</v>
       </c>
       <c r="I13" s="2" t="str">
         <f>VLOOKUP(J13,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J13" s="2" t="str">
         <f>VLOOKUP(B13,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cheese</v>
-      </c>
-      <c r="K13" s="2" t="str">
+        <v>dw</v>
+      </c>
+      <c r="K13" s="2">
         <f>VLOOKUP(B13,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>cheedar</v>
+        <v>2</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="M13" s="2">
         <v>1</v>
@@ -5857,32 +5813,32 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C14" s="3">
-        <v>1.0972222222222223E-2</v>
+        <v>1.7013888888888887E-2</v>
       </c>
       <c r="D14" s="4">
-        <v>1.1018518518518518E-2</v>
+        <v>1.7037037037037038E-2</v>
       </c>
       <c r="E14" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296294281E-5</v>
+        <f>D14-C14</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F14" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>HOUR(E14) *3600 + MINUTE(E14) * 60 + SECOND(E14)</f>
+        <v>2</v>
       </c>
       <c r="G14" s="6">
-        <f t="shared" si="2"/>
-        <v>948</v>
+        <f>HOUR(C14) *3600 + MINUTE(C14) * 60 + SECOND(C14)</f>
+        <v>1470</v>
       </c>
       <c r="H14" s="6">
-        <f t="shared" si="3"/>
-        <v>952</v>
+        <f>HOUR(D14) *3600 + MINUTE(D14) * 60 + SECOND(D14)</f>
+        <v>1472</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>VLOOKUP(J14,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -5890,14 +5846,11 @@
       </c>
       <c r="J14" s="2" t="str">
         <f>VLOOKUP(B14,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>container</v>
+        <v>trashB</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>VLOOKUP(B14,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>chocolates</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>102</v>
+        <v>recycling</v>
       </c>
       <c r="M14" s="2">
         <v>1</v>
@@ -5908,44 +5861,44 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <v>9</v>
+        <v>85</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="C15" s="3">
-        <v>1.0879629629629629E-3</v>
+        <v>1.7060185185185185E-2</v>
       </c>
       <c r="D15" s="4">
-        <v>1.1111111111111111E-3</v>
+        <v>1.7083333333333336E-2</v>
       </c>
       <c r="E15" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3148148148148225E-5</v>
+        <f>D15-C15</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="1"/>
+        <f>HOUR(E15) *3600 + MINUTE(E15) * 60 + SECOND(E15)</f>
         <v>2</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" si="2"/>
-        <v>94</v>
+        <f>HOUR(C15) *3600 + MINUTE(C15) * 60 + SECOND(C15)</f>
+        <v>1474</v>
       </c>
       <c r="H15" s="6">
-        <f t="shared" si="3"/>
-        <v>96</v>
+        <f>HOUR(D15) *3600 + MINUTE(D15) * 60 + SECOND(D15)</f>
+        <v>1476</v>
       </c>
       <c r="I15" s="2" t="str">
         <f>VLOOKUP(J15,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J15" s="2" t="str">
         <f>VLOOKUP(B15,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>container</v>
+        <v>cpB</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>VLOOKUP(B15,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>spaghetti</v>
+        <v>a_co_4</v>
       </c>
       <c r="M15" s="2">
         <v>1</v>
@@ -5956,44 +5909,44 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="C16" s="3">
-        <v>1.4421296296296295E-2</v>
+        <v>1.9050925925925926E-2</v>
       </c>
       <c r="D16" s="4">
-        <v>1.4467592592592593E-2</v>
+        <v>1.9074074074074073E-2</v>
       </c>
       <c r="E16" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296297751E-5</v>
+        <f>D16-C16</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F16" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>HOUR(E16) *3600 + MINUTE(E16) * 60 + SECOND(E16)</f>
+        <v>2</v>
       </c>
       <c r="G16" s="6">
-        <f t="shared" si="2"/>
-        <v>1246</v>
+        <f>HOUR(C16) *3600 + MINUTE(C16) * 60 + SECOND(C16)</f>
+        <v>1646</v>
       </c>
       <c r="H16" s="6">
-        <f t="shared" si="3"/>
-        <v>1250</v>
+        <f>HOUR(D16) *3600 + MINUTE(D16) * 60 + SECOND(D16)</f>
+        <v>1648</v>
       </c>
       <c r="I16" s="2" t="str">
         <f>VLOOKUP(J16,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J16" s="2" t="str">
         <f>VLOOKUP(B16,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>container</v>
-      </c>
-      <c r="K16" s="2" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="K16" s="2">
         <f>VLOOKUP(B16,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>spaghetti</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
         <v>1</v>
@@ -6004,45 +5957,48 @@
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="C17" s="3">
-        <v>1.7060185185185185E-2</v>
+        <v>1.9212962962962963E-2</v>
       </c>
       <c r="D17" s="4">
-        <v>1.7083333333333336E-2</v>
+        <v>1.923611111111111E-2</v>
       </c>
       <c r="E17" s="3">
-        <f t="shared" si="0"/>
-        <v>2.314814814815061E-5</v>
+        <f>D17-C17</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="1"/>
+        <f>HOUR(E17) *3600 + MINUTE(E17) * 60 + SECOND(E17)</f>
         <v>2</v>
       </c>
       <c r="G17" s="6">
-        <f t="shared" si="2"/>
-        <v>1474</v>
+        <f>HOUR(C17) *3600 + MINUTE(C17) * 60 + SECOND(C17)</f>
+        <v>1660</v>
       </c>
       <c r="H17" s="6">
-        <f t="shared" si="3"/>
-        <v>1476</v>
+        <f>HOUR(D17) *3600 + MINUTE(D17) * 60 + SECOND(D17)</f>
+        <v>1662</v>
       </c>
       <c r="I17" s="2" t="str">
         <f>VLOOKUP(J17,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J17" s="2" t="str">
         <f>VLOOKUP(B17,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pastaServer</v>
+        <v>mincedMeat</v>
       </c>
       <c r="K17" s="2">
         <f>VLOOKUP(B17,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L17" s="1" t="s">
+        <v>97</v>
+      </c>
       <c r="M17" s="2">
         <v>1</v>
       </c>
@@ -6052,44 +6008,44 @@
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <v>7</v>
+        <v>93</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
-        <v>9.4907407407407408E-4</v>
+        <v>1.923611111111111E-2</v>
       </c>
       <c r="D18" s="4">
-        <v>9.9537037037037042E-4</v>
+        <v>1.9259259259259261E-2</v>
       </c>
       <c r="E18" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296296341E-5</v>
+        <f>D18-C18</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F18" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>HOUR(E18) *3600 + MINUTE(E18) * 60 + SECOND(E18)</f>
+        <v>2</v>
       </c>
       <c r="G18" s="6">
-        <f t="shared" si="2"/>
-        <v>82</v>
+        <f>HOUR(C18) *3600 + MINUTE(C18) * 60 + SECOND(C18)</f>
+        <v>1662</v>
       </c>
       <c r="H18" s="6">
-        <f t="shared" si="3"/>
-        <v>86</v>
+        <f>HOUR(D18) *3600 + MINUTE(D18) * 60 + SECOND(D18)</f>
+        <v>1664</v>
       </c>
       <c r="I18" s="2" t="str">
         <f>VLOOKUP(J18,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>VLOOKUP(B18,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K18" s="2" t="str">
+        <v>trashB</v>
+      </c>
+      <c r="K18" s="2">
         <f>VLOOKUP(B18,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_4</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
         <v>1</v>
@@ -6098,32 +6054,32 @@
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3">
-        <v>1.0162037037037037E-2</v>
+        <v>2.0393518518518519E-2</v>
       </c>
       <c r="D19" s="4">
-        <v>1.0439814814814813E-2</v>
+        <v>2.0416666666666666E-2</v>
       </c>
       <c r="E19" s="3">
-        <f t="shared" si="0"/>
-        <v>2.777777777777761E-4</v>
+        <f>D19-C19</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>HOUR(E19) *3600 + MINUTE(E19) * 60 + SECOND(E19)</f>
+        <v>2</v>
       </c>
       <c r="G19" s="6">
-        <f t="shared" si="2"/>
-        <v>878</v>
+        <f>HOUR(C19) *3600 + MINUTE(C19) * 60 + SECOND(C19)</f>
+        <v>1762</v>
       </c>
       <c r="H19" s="6">
-        <f t="shared" si="3"/>
-        <v>902</v>
+        <f>HOUR(D19) *3600 + MINUTE(D19) * 60 + SECOND(D19)</f>
+        <v>1764</v>
       </c>
       <c r="I19" s="2" t="str">
         <f>VLOOKUP(J19,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6138,7 +6094,7 @@
         <v>a_co_4</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M19" s="2">
         <v>1</v>
@@ -6146,32 +6102,32 @@
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
+        <v>99</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="C20" s="3">
-        <v>1.087962962962963E-2</v>
+        <v>2.0462962962962964E-2</v>
       </c>
       <c r="D20" s="4">
-        <v>1.1041666666666667E-2</v>
+        <v>2.0486111111111111E-2</v>
       </c>
       <c r="E20" s="3">
-        <f t="shared" si="0"/>
-        <v>1.6203703703703692E-4</v>
+        <f>D20-C20</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F20" s="6">
-        <f t="shared" si="1"/>
-        <v>14</v>
+        <f>HOUR(E20) *3600 + MINUTE(E20) * 60 + SECOND(E20)</f>
+        <v>2</v>
       </c>
       <c r="G20" s="6">
-        <f t="shared" si="2"/>
-        <v>940</v>
+        <f>HOUR(C20) *3600 + MINUTE(C20) * 60 + SECOND(C20)</f>
+        <v>1768</v>
       </c>
       <c r="H20" s="6">
-        <f t="shared" si="3"/>
-        <v>954</v>
+        <f>HOUR(D20) *3600 + MINUTE(D20) * 60 + SECOND(D20)</f>
+        <v>1770</v>
       </c>
       <c r="I20" s="2" t="str">
         <f>VLOOKUP(J20,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6191,44 +6147,44 @@
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C21" s="3">
-        <v>2.1226851851851854E-2</v>
+        <v>2.3356481481481482E-2</v>
       </c>
       <c r="D21" s="4">
-        <v>2.1990740740740741E-2</v>
+        <v>2.3379629629629629E-2</v>
       </c>
       <c r="E21" s="3">
-        <f t="shared" si="0"/>
-        <v>7.6388888888888687E-4</v>
+        <f>D21-C21</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F21" s="6">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f>HOUR(E21) *3600 + MINUTE(E21) * 60 + SECOND(E21)</f>
+        <v>2</v>
       </c>
       <c r="G21" s="6">
-        <f t="shared" si="2"/>
-        <v>1834</v>
+        <f>HOUR(C21) *3600 + MINUTE(C21) * 60 + SECOND(C21)</f>
+        <v>2018</v>
       </c>
       <c r="H21" s="6">
-        <f t="shared" si="3"/>
-        <v>1900</v>
+        <f>HOUR(D21) *3600 + MINUTE(D21) * 60 + SECOND(D21)</f>
+        <v>2020</v>
       </c>
       <c r="I21" s="2" t="str">
         <f>VLOOKUP(J21,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J21" s="2" t="str">
         <f>VLOOKUP(B21,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K21" s="2" t="str">
         <f>VLOOKUP(B21,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_4</v>
+        <v>w_1</v>
       </c>
       <c r="M21" s="2">
         <v>1</v>
@@ -6236,44 +6192,44 @@
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C22" s="3">
-        <v>1.1967592592592592E-2</v>
+        <v>2.6296296296296293E-2</v>
       </c>
       <c r="D22" s="4">
-        <v>1.2731481481481481E-2</v>
+        <v>2.631944444444444E-2</v>
       </c>
       <c r="E22" s="3">
-        <f t="shared" si="0"/>
-        <v>7.638888888888886E-4</v>
+        <f>D22-C22</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F22" s="6">
-        <f t="shared" si="1"/>
-        <v>66</v>
+        <f>HOUR(E22) *3600 + MINUTE(E22) * 60 + SECOND(E22)</f>
+        <v>2</v>
       </c>
       <c r="G22" s="6">
-        <f t="shared" si="2"/>
-        <v>1034</v>
+        <f>HOUR(C22) *3600 + MINUTE(C22) * 60 + SECOND(C22)</f>
+        <v>2272</v>
       </c>
       <c r="H22" s="6">
-        <f t="shared" si="3"/>
-        <v>1100</v>
+        <f>HOUR(D22) *3600 + MINUTE(D22) * 60 + SECOND(D22)</f>
+        <v>2274</v>
       </c>
       <c r="I22" s="2" t="str">
         <f>VLOOKUP(J22,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J22" s="2" t="str">
         <f>VLOOKUP(B22,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K22" s="2" t="str">
         <f>VLOOKUP(B22,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_1</v>
+        <v>w_1</v>
       </c>
       <c r="M22" s="2">
         <v>1</v>
@@ -6281,47 +6237,44 @@
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>98</v>
+        <v>124</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3">
-        <v>2.0393518518518519E-2</v>
+        <v>2.7106481481481481E-2</v>
       </c>
       <c r="D23" s="4">
-        <v>2.0416666666666666E-2</v>
+        <v>2.7129629629629632E-2</v>
       </c>
       <c r="E23" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D23-C23</f>
+        <v>2.314814814815061E-5</v>
       </c>
       <c r="F23" s="6">
-        <f t="shared" si="1"/>
+        <f>HOUR(E23) *3600 + MINUTE(E23) * 60 + SECOND(E23)</f>
         <v>2</v>
       </c>
       <c r="G23" s="6">
-        <f t="shared" si="2"/>
-        <v>1762</v>
+        <f>HOUR(C23) *3600 + MINUTE(C23) * 60 + SECOND(C23)</f>
+        <v>2342</v>
       </c>
       <c r="H23" s="6">
-        <f t="shared" si="3"/>
-        <v>1764</v>
+        <f>HOUR(D23) *3600 + MINUTE(D23) * 60 + SECOND(D23)</f>
+        <v>2344</v>
       </c>
       <c r="I23" s="2" t="str">
         <f>VLOOKUP(J23,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J23" s="2" t="str">
         <f>VLOOKUP(B23,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K23" s="2" t="str">
+        <v>strainer</v>
+      </c>
+      <c r="K23" s="2">
         <f>VLOOKUP(B23,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_2</v>
-      </c>
-      <c r="L23" s="1" t="s">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="M23" s="2">
         <v>1</v>
@@ -6329,32 +6282,32 @@
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" s="3">
-        <v>2.0462962962962964E-2</v>
+        <v>2.7175925925925926E-2</v>
       </c>
       <c r="D24" s="4">
-        <v>2.0486111111111111E-2</v>
+        <v>2.7199074074074073E-2</v>
       </c>
       <c r="E24" s="3">
-        <f t="shared" si="0"/>
+        <f>D24-C24</f>
         <v>2.3148148148147141E-5</v>
       </c>
       <c r="F24" s="6">
-        <f t="shared" si="1"/>
+        <f>HOUR(E24) *3600 + MINUTE(E24) * 60 + SECOND(E24)</f>
         <v>2</v>
       </c>
       <c r="G24" s="6">
-        <f t="shared" si="2"/>
-        <v>1768</v>
+        <f>HOUR(C24) *3600 + MINUTE(C24) * 60 + SECOND(C24)</f>
+        <v>2348</v>
       </c>
       <c r="H24" s="6">
-        <f t="shared" si="3"/>
-        <v>1770</v>
+        <f>HOUR(D24) *3600 + MINUTE(D24) * 60 + SECOND(D24)</f>
+        <v>2350</v>
       </c>
       <c r="I24" s="2" t="str">
         <f>VLOOKUP(J24,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6362,11 +6315,11 @@
       </c>
       <c r="J24" s="2" t="str">
         <f>VLOOKUP(B24,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K24" s="2" t="str">
+        <v>dw</v>
+      </c>
+      <c r="K24" s="2">
         <f>VLOOKUP(B24,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_2</v>
+        <v>2</v>
       </c>
       <c r="M24" s="2">
         <v>1</v>
@@ -6374,44 +6327,44 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>101</v>
+        <v>128</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="C25" s="3">
-        <v>2.0625000000000001E-2</v>
+        <v>2.7615740740740743E-2</v>
       </c>
       <c r="D25" s="4">
-        <v>2.0671296296296295E-2</v>
+        <v>2.763888888888889E-2</v>
       </c>
       <c r="E25" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296294281E-5</v>
+        <f>D25-C25</f>
+        <v>2.3148148148147141E-5</v>
       </c>
       <c r="F25" s="6">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f>HOUR(E25) *3600 + MINUTE(E25) * 60 + SECOND(E25)</f>
+        <v>2</v>
       </c>
       <c r="G25" s="6">
-        <f t="shared" si="2"/>
-        <v>1782</v>
+        <f>HOUR(C25) *3600 + MINUTE(C25) * 60 + SECOND(C25)</f>
+        <v>2386</v>
       </c>
       <c r="H25" s="6">
-        <f t="shared" si="3"/>
-        <v>1786</v>
+        <f>HOUR(D25) *3600 + MINUTE(D25) * 60 + SECOND(D25)</f>
+        <v>2388</v>
       </c>
       <c r="I25" s="2" t="str">
         <f>VLOOKUP(J25,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J25" s="2" t="str">
         <f>VLOOKUP(B25,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
+        <v>food</v>
       </c>
       <c r="K25" s="2" t="str">
         <f>VLOOKUP(B25,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_2</v>
+        <v>pasta</v>
       </c>
       <c r="M25" s="2">
         <v>1</v>
@@ -6419,32 +6372,32 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>103</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>43</v>
+        <v>2</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C26" s="3">
-        <v>2.0972222222222222E-2</v>
-      </c>
-      <c r="D26" s="4">
-        <v>2.101851851851852E-2</v>
+        <v>3.9351851851851852E-4</v>
+      </c>
+      <c r="D26" s="3">
+        <v>4.3981481481481481E-4</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="0"/>
-        <v>4.6296296296297751E-5</v>
+        <f>D26-C26</f>
+        <v>4.6296296296296287E-5</v>
       </c>
       <c r="F26" s="6">
-        <f t="shared" si="1"/>
+        <f>HOUR(E26) *3600 + MINUTE(E26) * 60 + SECOND(E26)</f>
         <v>4</v>
       </c>
       <c r="G26" s="6">
-        <f t="shared" si="2"/>
-        <v>1812</v>
+        <f>HOUR(C26) *3600 + MINUTE(C26) * 60 + SECOND(C26)</f>
+        <v>34</v>
       </c>
       <c r="H26" s="6">
-        <f t="shared" si="3"/>
-        <v>1816</v>
+        <f>HOUR(D26) *3600 + MINUTE(D26) * 60 + SECOND(D26)</f>
+        <v>38</v>
       </c>
       <c r="I26" s="2" t="str">
         <f>VLOOKUP(J26,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6452,11 +6405,14 @@
       </c>
       <c r="J26" s="2" t="str">
         <f>VLOOKUP(B26,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
-      </c>
-      <c r="K26" s="2" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="K26" s="2">
         <f>VLOOKUP(B26,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_2</v>
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="M26" s="2">
         <v>1</v>
@@ -6464,32 +6420,32 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>108</v>
+        <v>7</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3">
-        <v>2.2060185185185183E-2</v>
+        <v>9.4907407407407408E-4</v>
       </c>
       <c r="D27" s="4">
-        <v>2.4583333333333332E-2</v>
+        <v>9.9537037037037042E-4</v>
       </c>
       <c r="E27" s="3">
-        <f t="shared" si="0"/>
-        <v>2.5231481481481494E-3</v>
+        <f>D27-C27</f>
+        <v>4.6296296296296341E-5</v>
       </c>
       <c r="F27" s="6">
-        <f t="shared" si="1"/>
-        <v>218</v>
+        <f>HOUR(E27) *3600 + MINUTE(E27) * 60 + SECOND(E27)</f>
+        <v>4</v>
       </c>
       <c r="G27" s="6">
-        <f t="shared" si="2"/>
-        <v>1906</v>
+        <f>HOUR(C27) *3600 + MINUTE(C27) * 60 + SECOND(C27)</f>
+        <v>82</v>
       </c>
       <c r="H27" s="6">
-        <f t="shared" si="3"/>
-        <v>2124</v>
+        <f>HOUR(D27) *3600 + MINUTE(D27) * 60 + SECOND(D27)</f>
+        <v>86</v>
       </c>
       <c r="I27" s="2" t="str">
         <f>VLOOKUP(J27,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6501,7 +6457,7 @@
       </c>
       <c r="K27" s="2" t="str">
         <f>VLOOKUP(B27,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_co_4</v>
+        <v>a_co_1</v>
       </c>
       <c r="M27" s="2">
         <v>1</v>
@@ -6509,44 +6465,44 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>78</v>
+        <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="C28" s="3">
-        <v>1.6481481481481482E-2</v>
+        <v>9.7222222222222209E-4</v>
       </c>
       <c r="D28" s="4">
-        <v>1.6550925925925924E-2</v>
+        <v>1.0185185185185186E-3</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9444444444441422E-5</v>
+        <f>D28-C28</f>
+        <v>4.6296296296296558E-5</v>
       </c>
       <c r="F28" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>HOUR(E28) *3600 + MINUTE(E28) * 60 + SECOND(E28)</f>
+        <v>4</v>
       </c>
       <c r="G28" s="6">
-        <f t="shared" si="2"/>
-        <v>1424</v>
+        <f>HOUR(C28) *3600 + MINUTE(C28) * 60 + SECOND(C28)</f>
+        <v>84</v>
       </c>
       <c r="H28" s="6">
-        <f t="shared" si="3"/>
-        <v>1430</v>
+        <f>HOUR(D28) *3600 + MINUTE(D28) * 60 + SECOND(D28)</f>
+        <v>88</v>
       </c>
       <c r="I28" s="2" t="str">
         <f>VLOOKUP(J28,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J28" s="2" t="str">
         <f>VLOOKUP(B28,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
+        <v>tomatoesProcessed</v>
       </c>
       <c r="K28" s="2" t="str">
         <f>VLOOKUP(B28,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>a_sk_1</v>
+        <v>tomatoesCanned</v>
       </c>
       <c r="M28" s="2">
         <v>1</v>
@@ -6554,44 +6510,44 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="3">
-        <v>2.1990740740740742E-3</v>
+        <v>87</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="D29" s="4">
-        <v>2.2222222222222222E-3</v>
+        <v>1.9444444444444442E-3</v>
       </c>
       <c r="E29" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3148148148148008E-5</v>
+        <f>D29-C29</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="F29" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>HOUR(E29) *3600 + MINUTE(E29) * 60 + SECOND(E29)</f>
+        <v>4</v>
       </c>
       <c r="G29" s="6">
-        <f t="shared" si="2"/>
-        <v>190</v>
+        <f>HOUR(C29) *3600 + MINUTE(C29) * 60 + SECOND(C29)</f>
+        <v>164</v>
       </c>
       <c r="H29" s="6">
-        <f t="shared" si="3"/>
-        <v>192</v>
+        <f>HOUR(D29) *3600 + MINUTE(D29) * 60 + SECOND(D29)</f>
+        <v>168</v>
       </c>
       <c r="I29" s="2" t="str">
         <f>VLOOKUP(J29,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J29" s="2" t="str">
         <f>VLOOKUP(B29,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>cpB</v>
+        <v>food</v>
       </c>
       <c r="K29" s="2" t="str">
         <f>VLOOKUP(B29,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>b_co_1</v>
+        <v>meat</v>
       </c>
       <c r="M29" s="2">
         <v>1</v>
@@ -6599,47 +6555,44 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3">
-        <v>1.6759259259259258E-2</v>
+        <v>1.9907407407407408E-3</v>
       </c>
       <c r="D30" s="4">
-        <v>1.6782407407407409E-2</v>
+        <v>2.0370370370370373E-3</v>
       </c>
       <c r="E30" s="3">
-        <f t="shared" si="0"/>
-        <v>2.314814814815061E-5</v>
+        <f>D30-C30</f>
+        <v>4.629629629629645E-5</v>
       </c>
       <c r="F30" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>HOUR(E30) *3600 + MINUTE(E30) * 60 + SECOND(E30)</f>
+        <v>4</v>
       </c>
       <c r="G30" s="6">
-        <f t="shared" si="2"/>
-        <v>1448</v>
+        <f>HOUR(C30) *3600 + MINUTE(C30) * 60 + SECOND(C30)</f>
+        <v>172</v>
       </c>
       <c r="H30" s="6">
-        <f t="shared" si="3"/>
-        <v>1450</v>
+        <f>HOUR(D30) *3600 + MINUTE(D30) * 60 + SECOND(D30)</f>
+        <v>176</v>
       </c>
       <c r="I30" s="2" t="str">
         <f>VLOOKUP(J30,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J30" s="2" t="str">
         <f>VLOOKUP(B30,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>dw</v>
+        <v>water</v>
       </c>
       <c r="K30" s="2">
         <f>VLOOKUP(B30,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>1</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="M30" s="2">
         <v>1</v>
@@ -6647,44 +6600,44 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="C31" s="3">
-        <v>2.7175925925925926E-2</v>
+        <v>1.0462962962962964E-2</v>
       </c>
       <c r="D31" s="4">
-        <v>2.7199074074074073E-2</v>
+        <v>1.050925925925926E-2</v>
       </c>
       <c r="E31" s="3">
-        <f t="shared" si="0"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D31-C31</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="F31" s="6">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f>HOUR(E31) *3600 + MINUTE(E31) * 60 + SECOND(E31)</f>
+        <v>4</v>
       </c>
       <c r="G31" s="6">
-        <f t="shared" si="2"/>
-        <v>2348</v>
+        <f>HOUR(C31) *3600 + MINUTE(C31) * 60 + SECOND(C31)</f>
+        <v>904</v>
       </c>
       <c r="H31" s="6">
-        <f t="shared" si="3"/>
-        <v>2350</v>
+        <f>HOUR(D31) *3600 + MINUTE(D31) * 60 + SECOND(D31)</f>
+        <v>908</v>
       </c>
       <c r="I31" s="2" t="str">
         <f>VLOOKUP(J31,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J31" s="2" t="str">
         <f>VLOOKUP(B31,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>dw</v>
-      </c>
-      <c r="K31" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K31" s="2" t="str">
         <f>VLOOKUP(B31,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>1</v>
+        <v>nBook</v>
       </c>
       <c r="M31" s="2">
         <v>1</v>
@@ -6692,44 +6645,47 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C32" s="3">
-        <v>1.2731481481481483E-3</v>
+        <v>1.0972222222222223E-2</v>
       </c>
       <c r="D32" s="4">
-        <v>1.3657407407407409E-3</v>
+        <v>1.1018518518518518E-2</v>
       </c>
       <c r="E32" s="3">
-        <f t="shared" si="0"/>
-        <v>9.2592592592592683E-5</v>
+        <f>D32-C32</f>
+        <v>4.6296296296294281E-5</v>
       </c>
       <c r="F32" s="6">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f>HOUR(E32) *3600 + MINUTE(E32) * 60 + SECOND(E32)</f>
+        <v>4</v>
       </c>
       <c r="G32" s="6">
-        <f t="shared" si="2"/>
-        <v>110</v>
+        <f>HOUR(C32) *3600 + MINUTE(C32) * 60 + SECOND(C32)</f>
+        <v>948</v>
       </c>
       <c r="H32" s="6">
-        <f t="shared" si="3"/>
-        <v>118</v>
+        <f>HOUR(D32) *3600 + MINUTE(D32) * 60 + SECOND(D32)</f>
+        <v>952</v>
       </c>
       <c r="I32" s="2" t="str">
         <f>VLOOKUP(J32,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J32" s="2" t="str">
         <f>VLOOKUP(B32,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>dw</v>
-      </c>
-      <c r="K32" s="2">
+        <v>container</v>
+      </c>
+      <c r="K32" s="2" t="str">
         <f>VLOOKUP(B32,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>2</v>
+        <v>chocolates</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>102</v>
       </c>
       <c r="M32" s="2">
         <v>1</v>
@@ -6737,32 +6693,32 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C33" s="3">
-        <v>1.9675925925925928E-3</v>
+        <v>1.1342592592592592E-2</v>
       </c>
       <c r="D33" s="4">
-        <v>2.0370370370370373E-3</v>
+        <v>1.1388888888888888E-2</v>
       </c>
       <c r="E33" s="3">
-        <f t="shared" si="0"/>
-        <v>6.9444444444444458E-5</v>
+        <f>D33-C33</f>
+        <v>4.6296296296296016E-5</v>
       </c>
       <c r="F33" s="6">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f>HOUR(E33) *3600 + MINUTE(E33) * 60 + SECOND(E33)</f>
+        <v>4</v>
       </c>
       <c r="G33" s="6">
-        <f t="shared" si="2"/>
-        <v>170</v>
+        <f>HOUR(C33) *3600 + MINUTE(C33) * 60 + SECOND(C33)</f>
+        <v>980</v>
       </c>
       <c r="H33" s="6">
-        <f t="shared" si="3"/>
-        <v>176</v>
+        <f>HOUR(D33) *3600 + MINUTE(D33) * 60 + SECOND(D33)</f>
+        <v>984</v>
       </c>
       <c r="I33" s="2" t="str">
         <f>VLOOKUP(J33,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6770,11 +6726,11 @@
       </c>
       <c r="J33" s="2" t="str">
         <f>VLOOKUP(B33,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>dw</v>
+        <v>faucet</v>
       </c>
       <c r="K33" s="2">
         <f>VLOOKUP(B33,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
         <v>1</v>
@@ -6782,10 +6738,10 @@
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C34" s="3">
         <v>1.1342592592592592E-2</v>
@@ -6794,32 +6750,32 @@
         <v>1.1388888888888888E-2</v>
       </c>
       <c r="E34" s="3">
-        <f t="shared" ref="E34:E65" si="4">D34-C34</f>
+        <f>D34-C34</f>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F34" s="6">
-        <f t="shared" ref="F34:F65" si="5">HOUR(E34) *3600 + MINUTE(E34) * 60 + SECOND(E34)</f>
+        <f>HOUR(E34) *3600 + MINUTE(E34) * 60 + SECOND(E34)</f>
         <v>4</v>
       </c>
       <c r="G34" s="6">
-        <f t="shared" ref="G34:G65" si="6">HOUR(C34) *3600 + MINUTE(C34) * 60 + SECOND(C34)</f>
+        <f>HOUR(C34) *3600 + MINUTE(C34) * 60 + SECOND(C34)</f>
         <v>980</v>
       </c>
       <c r="H34" s="6">
-        <f t="shared" ref="H34:H65" si="7">HOUR(D34) *3600 + MINUTE(D34) * 60 + SECOND(D34)</f>
+        <f>HOUR(D34) *3600 + MINUTE(D34) * 60 + SECOND(D34)</f>
         <v>984</v>
       </c>
       <c r="I34" s="2" t="str">
         <f>VLOOKUP(J34,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J34" s="2" t="str">
         <f>VLOOKUP(B34,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>dw</v>
+        <v>water</v>
       </c>
       <c r="K34" s="2">
         <f>VLOOKUP(B34,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
         <v>1</v>
@@ -6827,32 +6783,32 @@
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="4">
-        <v>1.8981481481481482E-3</v>
+        <v>11</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.3495370370370371E-2</v>
       </c>
       <c r="D35" s="4">
-        <v>1.9444444444444442E-3</v>
+        <v>1.3541666666666667E-2</v>
       </c>
       <c r="E35" s="3">
-        <f t="shared" si="4"/>
+        <f>D35-C35</f>
         <v>4.6296296296296016E-5</v>
       </c>
       <c r="F35" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E35) *3600 + MINUTE(E35) * 60 + SECOND(E35)</f>
         <v>4</v>
       </c>
       <c r="G35" s="6">
-        <f t="shared" si="6"/>
-        <v>164</v>
+        <f>HOUR(C35) *3600 + MINUTE(C35) * 60 + SECOND(C35)</f>
+        <v>1166</v>
       </c>
       <c r="H35" s="6">
-        <f t="shared" si="7"/>
-        <v>168</v>
+        <f>HOUR(D35) *3600 + MINUTE(D35) * 60 + SECOND(D35)</f>
+        <v>1170</v>
       </c>
       <c r="I35" s="2" t="str">
         <f>VLOOKUP(J35,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -6860,7 +6816,7 @@
       </c>
       <c r="J35" s="2" t="str">
         <f>VLOOKUP(B35,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>faucet</v>
+        <v>fridge</v>
       </c>
       <c r="K35" s="2">
         <f>VLOOKUP(B35,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -6872,44 +6828,44 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>87</v>
+        <v>31</v>
       </c>
       <c r="C36" s="3">
-        <v>2.4074074074074076E-3</v>
+        <v>1.4421296296296295E-2</v>
       </c>
       <c r="D36" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>1.4467592592592593E-2</v>
       </c>
       <c r="E36" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2592592592592466E-5</v>
+        <f>D36-C36</f>
+        <v>4.6296296296297751E-5</v>
       </c>
       <c r="F36" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>HOUR(E36) *3600 + MINUTE(E36) * 60 + SECOND(E36)</f>
+        <v>4</v>
       </c>
       <c r="G36" s="6">
-        <f t="shared" si="6"/>
-        <v>208</v>
+        <f>HOUR(C36) *3600 + MINUTE(C36) * 60 + SECOND(C36)</f>
+        <v>1246</v>
       </c>
       <c r="H36" s="6">
-        <f t="shared" si="7"/>
-        <v>216</v>
+        <f>HOUR(D36) *3600 + MINUTE(D36) * 60 + SECOND(D36)</f>
+        <v>1250</v>
       </c>
       <c r="I36" s="2" t="str">
         <f>VLOOKUP(J36,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J36" s="2" t="str">
         <f>VLOOKUP(B36,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>faucet</v>
-      </c>
-      <c r="K36" s="2">
+        <v>container</v>
+      </c>
+      <c r="K36" s="2" t="str">
         <f>VLOOKUP(B36,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>spaghetti</v>
       </c>
       <c r="M36" s="2">
         <v>1</v>
@@ -6917,40 +6873,40 @@
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <v>134</v>
+        <v>71</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>87</v>
+        <v>3</v>
       </c>
       <c r="C37" s="3">
-        <v>2.8472222222222222E-2</v>
+        <v>1.4537037037037038E-2</v>
       </c>
       <c r="D37" s="4">
-        <v>2.8564814814814817E-2</v>
+        <v>1.4583333333333332E-2</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2592592592595502E-5</v>
+        <f>D37-C37</f>
+        <v>4.6296296296294281E-5</v>
       </c>
       <c r="F37" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>HOUR(E37) *3600 + MINUTE(E37) * 60 + SECOND(E37)</f>
+        <v>4</v>
       </c>
       <c r="G37" s="6">
-        <f t="shared" si="6"/>
-        <v>2460</v>
+        <f>HOUR(C37) *3600 + MINUTE(C37) * 60 + SECOND(C37)</f>
+        <v>1256</v>
       </c>
       <c r="H37" s="6">
-        <f t="shared" si="7"/>
-        <v>2468</v>
+        <f>HOUR(D37) *3600 + MINUTE(D37) * 60 + SECOND(D37)</f>
+        <v>1260</v>
       </c>
       <c r="I37" s="2" t="str">
         <f>VLOOKUP(J37,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>c</v>
       </c>
       <c r="J37" s="2" t="str">
         <f>VLOOKUP(B37,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>faucet</v>
+        <v>water</v>
       </c>
       <c r="K37" s="2">
         <f>VLOOKUP(B37,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -6962,44 +6918,44 @@
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C38" s="3">
-        <v>1.4490740740740742E-2</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1.4513888888888889E-2</v>
+        <v>1.6643518518518519E-2</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1.6689814814814817E-2</v>
       </c>
       <c r="E38" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D38-C38</f>
+        <v>4.6296296296297751E-5</v>
       </c>
       <c r="F38" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>HOUR(E38) *3600 + MINUTE(E38) * 60 + SECOND(E38)</f>
+        <v>4</v>
       </c>
       <c r="G38" s="6">
-        <f t="shared" si="6"/>
-        <v>1252</v>
+        <f>HOUR(C38) *3600 + MINUTE(C38) * 60 + SECOND(C38)</f>
+        <v>1438</v>
       </c>
       <c r="H38" s="6">
-        <f t="shared" si="7"/>
-        <v>1254</v>
+        <f>HOUR(D38) *3600 + MINUTE(D38) * 60 + SECOND(D38)</f>
+        <v>1442</v>
       </c>
       <c r="I38" s="2" t="str">
         <f>VLOOKUP(J38,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J38" s="2" t="str">
         <f>VLOOKUP(B38,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K38" s="2" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="K38" s="2">
         <f>VLOOKUP(B38,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>0</v>
       </c>
       <c r="M38" s="2">
         <v>1</v>
@@ -7007,44 +6963,44 @@
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="C39" s="3">
-        <v>1.4513888888888889E-2</v>
+        <v>2.0486111111111111E-2</v>
       </c>
       <c r="D39" s="4">
-        <v>1.4791666666666668E-2</v>
+        <v>2.0532407407407405E-2</v>
       </c>
       <c r="E39" s="3">
-        <f t="shared" si="4"/>
-        <v>2.7777777777777957E-4</v>
+        <f>D39-C39</f>
+        <v>4.6296296296294281E-5</v>
       </c>
       <c r="F39" s="6">
-        <f t="shared" si="5"/>
-        <v>24</v>
+        <f>HOUR(E39) *3600 + MINUTE(E39) * 60 + SECOND(E39)</f>
+        <v>4</v>
       </c>
       <c r="G39" s="6">
-        <f t="shared" si="6"/>
-        <v>1254</v>
+        <f>HOUR(C39) *3600 + MINUTE(C39) * 60 + SECOND(C39)</f>
+        <v>1770</v>
       </c>
       <c r="H39" s="6">
-        <f t="shared" si="7"/>
-        <v>1278</v>
+        <f>HOUR(D39) *3600 + MINUTE(D39) * 60 + SECOND(D39)</f>
+        <v>1774</v>
       </c>
       <c r="I39" s="2" t="str">
         <f>VLOOKUP(J39,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J39" s="2" t="str">
         <f>VLOOKUP(B39,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>bowl</v>
       </c>
       <c r="K39" s="2" t="str">
         <f>VLOOKUP(B39,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>small_1</v>
       </c>
       <c r="M39" s="2">
         <v>1</v>
@@ -7052,44 +7008,44 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C40" s="3">
-        <v>1.5162037037037036E-2</v>
+        <v>2.0625000000000001E-2</v>
       </c>
       <c r="D40" s="4">
-        <v>1.5300925925925926E-2</v>
+        <v>2.0671296296296295E-2</v>
       </c>
       <c r="E40" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3888888888888978E-4</v>
+        <f>D40-C40</f>
+        <v>4.6296296296294281E-5</v>
       </c>
       <c r="F40" s="6">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>HOUR(E40) *3600 + MINUTE(E40) * 60 + SECOND(E40)</f>
+        <v>4</v>
       </c>
       <c r="G40" s="6">
-        <f t="shared" si="6"/>
-        <v>1310</v>
+        <f>HOUR(C40) *3600 + MINUTE(C40) * 60 + SECOND(C40)</f>
+        <v>1782</v>
       </c>
       <c r="H40" s="6">
-        <f t="shared" si="7"/>
-        <v>1322</v>
+        <f>HOUR(D40) *3600 + MINUTE(D40) * 60 + SECOND(D40)</f>
+        <v>1786</v>
       </c>
       <c r="I40" s="2" t="str">
         <f>VLOOKUP(J40,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J40" s="2" t="str">
         <f>VLOOKUP(B40,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>cpB</v>
       </c>
       <c r="K40" s="2" t="str">
         <f>VLOOKUP(B40,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>a_co_4</v>
       </c>
       <c r="M40" s="2">
         <v>1</v>
@@ -7097,47 +7053,44 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>88</v>
+        <v>43</v>
       </c>
       <c r="C41" s="3">
-        <v>1.9884259259259258E-2</v>
+        <v>2.0972222222222222E-2</v>
       </c>
       <c r="D41" s="4">
-        <v>0.02</v>
+        <v>2.101851851851852E-2</v>
       </c>
       <c r="E41" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1574074074074264E-4</v>
+        <f>D41-C41</f>
+        <v>4.6296296296297751E-5</v>
       </c>
       <c r="F41" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>HOUR(E41) *3600 + MINUTE(E41) * 60 + SECOND(E41)</f>
+        <v>4</v>
       </c>
       <c r="G41" s="6">
-        <f t="shared" si="6"/>
-        <v>1718</v>
+        <f>HOUR(C41) *3600 + MINUTE(C41) * 60 + SECOND(C41)</f>
+        <v>1812</v>
       </c>
       <c r="H41" s="6">
-        <f t="shared" si="7"/>
-        <v>1728</v>
+        <f>HOUR(D41) *3600 + MINUTE(D41) * 60 + SECOND(D41)</f>
+        <v>1816</v>
       </c>
       <c r="I41" s="2" t="str">
         <f>VLOOKUP(J41,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J41" s="2" t="str">
         <f>VLOOKUP(B41,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>cpB</v>
       </c>
       <c r="K41" s="2" t="str">
         <f>VLOOKUP(B41,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>108</v>
+        <v>a_co_4</v>
       </c>
       <c r="M41" s="2">
         <v>1</v>
@@ -7145,44 +7098,44 @@
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C42" s="3">
-        <v>2.3587962962962963E-2</v>
+        <v>2.1180555555555553E-2</v>
       </c>
       <c r="D42" s="4">
-        <v>2.3842592592592596E-2</v>
+        <v>2.1226851851851854E-2</v>
       </c>
       <c r="E42" s="3">
-        <f t="shared" si="4"/>
-        <v>2.5462962962963243E-4</v>
+        <f>D42-C42</f>
+        <v>4.629629629630122E-5</v>
       </c>
       <c r="F42" s="6">
-        <f t="shared" si="5"/>
-        <v>22</v>
+        <f>HOUR(E42) *3600 + MINUTE(E42) * 60 + SECOND(E42)</f>
+        <v>4</v>
       </c>
       <c r="G42" s="6">
-        <f t="shared" si="6"/>
-        <v>2038</v>
+        <f>HOUR(C42) *3600 + MINUTE(C42) * 60 + SECOND(C42)</f>
+        <v>1830</v>
       </c>
       <c r="H42" s="6">
-        <f t="shared" si="7"/>
-        <v>2060</v>
+        <f>HOUR(D42) *3600 + MINUTE(D42) * 60 + SECOND(D42)</f>
+        <v>1834</v>
       </c>
       <c r="I42" s="2" t="str">
         <f>VLOOKUP(J42,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J42" s="2" t="str">
         <f>VLOOKUP(B42,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>rBook</v>
       </c>
       <c r="K42" s="2" t="str">
         <f>VLOOKUP(B42,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>nBook</v>
       </c>
       <c r="M42" s="2">
         <v>1</v>
@@ -7190,47 +7143,47 @@
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C43" s="3">
-        <v>2.6898148148148147E-2</v>
+        <v>2.3356481481481482E-2</v>
       </c>
       <c r="D43" s="4">
-        <v>2.6990740740740742E-2</v>
+        <v>2.3402777777777783E-2</v>
       </c>
       <c r="E43" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2592592592595502E-5</v>
+        <f>D43-C43</f>
+        <v>4.629629629630122E-5</v>
       </c>
       <c r="F43" s="6">
-        <f t="shared" si="5"/>
-        <v>8</v>
+        <f>HOUR(E43) *3600 + MINUTE(E43) * 60 + SECOND(E43)</f>
+        <v>4</v>
       </c>
       <c r="G43" s="6">
-        <f t="shared" si="6"/>
-        <v>2324</v>
+        <f>HOUR(C43) *3600 + MINUTE(C43) * 60 + SECOND(C43)</f>
+        <v>2018</v>
       </c>
       <c r="H43" s="6">
-        <f t="shared" si="7"/>
-        <v>2332</v>
+        <f>HOUR(D43) *3600 + MINUTE(D43) * 60 + SECOND(D43)</f>
+        <v>2022</v>
       </c>
       <c r="I43" s="2" t="str">
         <f>VLOOKUP(J43,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J43" s="2" t="str">
         <f>VLOOKUP(B43,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>rBook</v>
       </c>
       <c r="K43" s="2" t="str">
         <f>VLOOKUP(B43,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>nBook</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="M43" s="2">
         <v>1</v>
@@ -7238,44 +7191,44 @@
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3">
-        <v>2.7615740740740743E-2</v>
+        <v>2.5555555555555554E-2</v>
       </c>
       <c r="D44" s="4">
-        <v>2.763888888888889E-2</v>
+        <v>2.5601851851851851E-2</v>
       </c>
       <c r="E44" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D44-C44</f>
+        <v>4.6296296296297751E-5</v>
       </c>
       <c r="F44" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>HOUR(E44) *3600 + MINUTE(E44) * 60 + SECOND(E44)</f>
+        <v>4</v>
       </c>
       <c r="G44" s="6">
-        <f t="shared" si="6"/>
-        <v>2386</v>
+        <f>HOUR(C44) *3600 + MINUTE(C44) * 60 + SECOND(C44)</f>
+        <v>2208</v>
       </c>
       <c r="H44" s="6">
-        <f t="shared" si="7"/>
-        <v>2388</v>
+        <f>HOUR(D44) *3600 + MINUTE(D44) * 60 + SECOND(D44)</f>
+        <v>2212</v>
       </c>
       <c r="I44" s="2" t="str">
         <f>VLOOKUP(J44,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J44" s="2" t="str">
         <f>VLOOKUP(B44,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K44" s="2" t="str">
         <f>VLOOKUP(B44,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>w_1</v>
       </c>
       <c r="M44" s="2">
         <v>1</v>
@@ -7283,32 +7236,32 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3">
-        <v>2.7800925925925923E-2</v>
+        <v>7.8703703703703705E-4</v>
       </c>
       <c r="D45" s="4">
-        <v>2.8009259259259262E-2</v>
+        <v>8.564814814814815E-4</v>
       </c>
       <c r="E45" s="3">
-        <f t="shared" si="4"/>
-        <v>2.0833333333333814E-4</v>
+        <f>D45-C45</f>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="F45" s="6">
-        <f t="shared" si="5"/>
-        <v>18</v>
+        <f>HOUR(E45) *3600 + MINUTE(E45) * 60 + SECOND(E45)</f>
+        <v>6</v>
       </c>
       <c r="G45" s="6">
-        <f t="shared" si="6"/>
-        <v>2402</v>
+        <f>HOUR(C45) *3600 + MINUTE(C45) * 60 + SECOND(C45)</f>
+        <v>68</v>
       </c>
       <c r="H45" s="6">
-        <f t="shared" si="7"/>
-        <v>2420</v>
+        <f>HOUR(D45) *3600 + MINUTE(D45) * 60 + SECOND(D45)</f>
+        <v>74</v>
       </c>
       <c r="I45" s="2" t="str">
         <f>VLOOKUP(J45,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -7316,11 +7269,11 @@
       </c>
       <c r="J45" s="2" t="str">
         <f>VLOOKUP(B45,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K45" s="2" t="str">
+        <v>mincedMeat</v>
+      </c>
+      <c r="K45" s="2">
         <f>VLOOKUP(B45,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>meat</v>
+        <v>0</v>
       </c>
       <c r="M45" s="2">
         <v>1</v>
@@ -7328,47 +7281,44 @@
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="C46" s="3">
-        <v>3.2407407407407406E-4</v>
-      </c>
-      <c r="D46" s="3">
-        <v>3.4722222222222224E-4</v>
+        <v>8.564814814814815E-4</v>
+      </c>
+      <c r="D46" s="4">
+        <v>9.2592592592592585E-4</v>
       </c>
       <c r="E46" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3148148148148171E-5</v>
+        <f>D46-C46</f>
+        <v>6.944444444444435E-5</v>
       </c>
       <c r="F46" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>HOUR(E46) *3600 + MINUTE(E46) * 60 + SECOND(E46)</f>
+        <v>6</v>
       </c>
       <c r="G46" s="6">
-        <f t="shared" si="6"/>
-        <v>28</v>
+        <f>HOUR(C46) *3600 + MINUTE(C46) * 60 + SECOND(C46)</f>
+        <v>74</v>
       </c>
       <c r="H46" s="6">
-        <f t="shared" si="7"/>
-        <v>30</v>
+        <f>HOUR(D46) *3600 + MINUTE(D46) * 60 + SECOND(D46)</f>
+        <v>80</v>
       </c>
       <c r="I46" s="2" t="str">
         <f>VLOOKUP(J46,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J46" s="2" t="str">
         <f>VLOOKUP(B46,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>rBook</v>
       </c>
       <c r="K46" s="2" t="str">
         <f>VLOOKUP(B46,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
-      </c>
-      <c r="L46" s="2" t="s">
-        <v>139</v>
+        <v>nBook</v>
       </c>
       <c r="M46" s="2">
         <v>1</v>
@@ -7376,32 +7326,32 @@
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>2</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C47" s="3">
-        <v>3.9351851851851852E-4</v>
-      </c>
-      <c r="D47" s="3">
-        <v>4.3981481481481481E-4</v>
+        <v>1.1111111111111111E-3</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1.1805555555555556E-3</v>
       </c>
       <c r="E47" s="3">
-        <f t="shared" si="4"/>
-        <v>4.6296296296296287E-5</v>
+        <f>D47-C47</f>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="F47" s="6">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>HOUR(E47) *3600 + MINUTE(E47) * 60 + SECOND(E47)</f>
+        <v>6</v>
       </c>
       <c r="G47" s="6">
-        <f t="shared" si="6"/>
-        <v>34</v>
+        <f>HOUR(C47) *3600 + MINUTE(C47) * 60 + SECOND(C47)</f>
+        <v>96</v>
       </c>
       <c r="H47" s="6">
-        <f t="shared" si="7"/>
-        <v>38</v>
+        <f>HOUR(D47) *3600 + MINUTE(D47) * 60 + SECOND(D47)</f>
+        <v>102</v>
       </c>
       <c r="I47" s="2" t="str">
         <f>VLOOKUP(J47,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -7409,14 +7359,11 @@
       </c>
       <c r="J47" s="2" t="str">
         <f>VLOOKUP(B47,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K47" s="2" t="str">
+        <v>spaghetti</v>
+      </c>
+      <c r="K47" s="2">
         <f>VLOOKUP(B47,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M47" s="2">
         <v>1</v>
@@ -7424,32 +7371,32 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3">
-        <v>1.3495370370370371E-2</v>
+        <v>1.2962962962962963E-3</v>
       </c>
       <c r="D48" s="4">
-        <v>1.3541666666666667E-2</v>
+        <v>1.3657407407407409E-3</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="4"/>
-        <v>4.6296296296296016E-5</v>
+        <f>D48-C48</f>
+        <v>6.9444444444444675E-5</v>
       </c>
       <c r="F48" s="6">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>HOUR(E48) *3600 + MINUTE(E48) * 60 + SECOND(E48)</f>
+        <v>6</v>
       </c>
       <c r="G48" s="6">
-        <f t="shared" si="6"/>
-        <v>1166</v>
+        <f>HOUR(C48) *3600 + MINUTE(C48) * 60 + SECOND(C48)</f>
+        <v>112</v>
       </c>
       <c r="H48" s="6">
-        <f t="shared" si="7"/>
-        <v>1170</v>
+        <f>HOUR(D48) *3600 + MINUTE(D48) * 60 + SECOND(D48)</f>
+        <v>118</v>
       </c>
       <c r="I48" s="2" t="str">
         <f>VLOOKUP(J48,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -7457,11 +7404,11 @@
       </c>
       <c r="J48" s="2" t="str">
         <f>VLOOKUP(B48,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K48" s="2" t="str">
+        <v>water</v>
+      </c>
+      <c r="K48" s="2">
         <f>VLOOKUP(B48,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
+        <v>0</v>
       </c>
       <c r="M48" s="2">
         <v>1</v>
@@ -7469,44 +7416,44 @@
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C49" s="3">
-        <v>1.3819444444444445E-2</v>
+        <v>1.6666666666666668E-3</v>
       </c>
       <c r="D49" s="4">
-        <v>1.3888888888888888E-2</v>
+        <v>1.736111111111111E-3</v>
       </c>
       <c r="E49" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444443157E-5</v>
+        <f>D49-C49</f>
+        <v>6.9444444444444241E-5</v>
       </c>
       <c r="F49" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E49) *3600 + MINUTE(E49) * 60 + SECOND(E49)</f>
         <v>6</v>
       </c>
       <c r="G49" s="6">
-        <f t="shared" si="6"/>
-        <v>1194</v>
+        <f>HOUR(C49) *3600 + MINUTE(C49) * 60 + SECOND(C49)</f>
+        <v>144</v>
       </c>
       <c r="H49" s="6">
-        <f t="shared" si="7"/>
-        <v>1200</v>
+        <f>HOUR(D49) *3600 + MINUTE(D49) * 60 + SECOND(D49)</f>
+        <v>150</v>
       </c>
       <c r="I49" s="2" t="str">
         <f>VLOOKUP(J49,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J49" s="2" t="str">
         <f>VLOOKUP(B49,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
+        <v>knife</v>
       </c>
       <c r="K49" s="2" t="str">
         <f>VLOOKUP(B49,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
+        <v>large</v>
       </c>
       <c r="M49" s="2">
         <v>1</v>
@@ -7514,44 +7461,44 @@
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C50" s="3">
-        <v>1.6643518518518519E-2</v>
+        <v>1.9675925925925928E-3</v>
       </c>
       <c r="D50" s="4">
-        <v>1.6689814814814817E-2</v>
+        <v>2.0370370370370373E-3</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="4"/>
-        <v>4.6296296296297751E-5</v>
+        <f>D50-C50</f>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="F50" s="6">
-        <f t="shared" si="5"/>
-        <v>4</v>
+        <f>HOUR(E50) *3600 + MINUTE(E50) * 60 + SECOND(E50)</f>
+        <v>6</v>
       </c>
       <c r="G50" s="6">
-        <f t="shared" si="6"/>
-        <v>1438</v>
+        <f>HOUR(C50) *3600 + MINUTE(C50) * 60 + SECOND(C50)</f>
+        <v>170</v>
       </c>
       <c r="H50" s="6">
-        <f t="shared" si="7"/>
-        <v>1442</v>
+        <f>HOUR(D50) *3600 + MINUTE(D50) * 60 + SECOND(D50)</f>
+        <v>176</v>
       </c>
       <c r="I50" s="2" t="str">
         <f>VLOOKUP(J50,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J50" s="2" t="str">
         <f>VLOOKUP(B50,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K50" s="2" t="str">
+        <v>faucet</v>
+      </c>
+      <c r="K50" s="2">
         <f>VLOOKUP(B50,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
+        <v>0</v>
       </c>
       <c r="M50" s="2">
         <v>1</v>
@@ -7559,44 +7506,44 @@
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C51" s="3">
-        <v>1.9050925925925926E-2</v>
+        <v>2.0833333333333333E-3</v>
       </c>
       <c r="D51" s="4">
-        <v>1.9074074074074073E-2</v>
+        <v>2.1527777777777778E-3</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D51-C51</f>
+        <v>6.9444444444444458E-5</v>
       </c>
       <c r="F51" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>HOUR(E51) *3600 + MINUTE(E51) * 60 + SECOND(E51)</f>
+        <v>6</v>
       </c>
       <c r="G51" s="6">
-        <f t="shared" si="6"/>
-        <v>1646</v>
+        <f>HOUR(C51) *3600 + MINUTE(C51) * 60 + SECOND(C51)</f>
+        <v>180</v>
       </c>
       <c r="H51" s="6">
-        <f t="shared" si="7"/>
-        <v>1648</v>
+        <f>HOUR(D51) *3600 + MINUTE(D51) * 60 + SECOND(D51)</f>
+        <v>186</v>
       </c>
       <c r="I51" s="2" t="str">
         <f>VLOOKUP(J51,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J51" s="2" t="str">
         <f>VLOOKUP(B51,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>food</v>
-      </c>
-      <c r="K51" s="2" t="str">
+        <v>towel</v>
+      </c>
+      <c r="K51" s="2">
         <f>VLOOKUP(B51,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>pasta</v>
+        <v>0</v>
       </c>
       <c r="M51" s="2">
         <v>1</v>
@@ -7604,47 +7551,47 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>29</v>
+        <v>82</v>
       </c>
       <c r="C52" s="3">
-        <v>1.1990740740740739E-2</v>
+        <v>8.564814814814815E-3</v>
       </c>
       <c r="D52" s="4">
-        <v>1.2106481481481482E-2</v>
+        <v>8.6342592592592599E-3</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1574074074074264E-4</v>
+        <f>D52-C52</f>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>HOUR(E52) *3600 + MINUTE(E52) * 60 + SECOND(E52)</f>
+        <v>6</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="6"/>
-        <v>1036</v>
+        <f>HOUR(C52) *3600 + MINUTE(C52) * 60 + SECOND(C52)</f>
+        <v>740</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="7"/>
-        <v>1046</v>
+        <f>HOUR(D52) *3600 + MINUTE(D52) * 60 + SECOND(D52)</f>
+        <v>746</v>
       </c>
       <c r="I52" s="2" t="str">
         <f>VLOOKUP(J52,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J52" s="2" t="str">
         <f>VLOOKUP(B52,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>fridge</v>
-      </c>
-      <c r="K52" s="2">
+        <v>jarLid</v>
+      </c>
+      <c r="K52" s="2" t="str">
         <f>VLOOKUP(B52,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L52" s="1" t="s">
-        <v>103</v>
+        <v>jar</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="M52" s="2">
         <v>1</v>
@@ -7652,44 +7599,44 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C53" s="3">
-        <v>1.650462962962963E-2</v>
+        <v>1.0833333333333334E-2</v>
       </c>
       <c r="D53" s="4">
-        <v>1.6574074074074074E-2</v>
+        <v>1.0902777777777777E-2</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444444892E-5</v>
+        <f>D53-C53</f>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F53" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E53) *3600 + MINUTE(E53) * 60 + SECOND(E53)</f>
         <v>6</v>
       </c>
       <c r="G53" s="6">
-        <f t="shared" si="6"/>
-        <v>1426</v>
+        <f>HOUR(C53) *3600 + MINUTE(C53) * 60 + SECOND(C53)</f>
+        <v>936</v>
       </c>
       <c r="H53" s="6">
-        <f t="shared" si="7"/>
-        <v>1432</v>
+        <f>HOUR(D53) *3600 + MINUTE(D53) * 60 + SECOND(D53)</f>
+        <v>942</v>
       </c>
       <c r="I53" s="2" t="str">
         <f>VLOOKUP(J53,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J53" s="2" t="str">
         <f>VLOOKUP(B53,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>garlicPwd</v>
-      </c>
-      <c r="K53" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K53" s="2" t="str">
         <f>VLOOKUP(B53,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
       </c>
       <c r="M53" s="2">
         <v>1</v>
@@ -7697,32 +7644,32 @@
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="C54" s="3">
-        <v>1.7546296296296296E-2</v>
+        <v>1.2268518518518519E-2</v>
       </c>
       <c r="D54" s="4">
-        <v>1.8888888888888889E-2</v>
+        <v>1.2337962962962962E-2</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3425925925925931E-3</v>
+        <f>D54-C54</f>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F54" s="6">
-        <f t="shared" si="5"/>
-        <v>116</v>
+        <f>HOUR(E54) *3600 + MINUTE(E54) * 60 + SECOND(E54)</f>
+        <v>6</v>
       </c>
       <c r="G54" s="6">
-        <f t="shared" si="6"/>
-        <v>1516</v>
+        <f>HOUR(C54) *3600 + MINUTE(C54) * 60 + SECOND(C54)</f>
+        <v>1060</v>
       </c>
       <c r="H54" s="6">
-        <f t="shared" si="7"/>
-        <v>1632</v>
+        <f>HOUR(D54) *3600 + MINUTE(D54) * 60 + SECOND(D54)</f>
+        <v>1066</v>
       </c>
       <c r="I54" s="2" t="str">
         <f>VLOOKUP(J54,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -7730,7 +7677,7 @@
       </c>
       <c r="J54" s="2" t="str">
         <f>VLOOKUP(B54,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>garlicPwd</v>
+        <v>blackPepper</v>
       </c>
       <c r="K54" s="2">
         <f>VLOOKUP(B54,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -7742,95 +7689,89 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>82</v>
+        <v>42</v>
       </c>
       <c r="C55" s="3">
-        <v>8.564814814814815E-3</v>
+        <v>1.2499999999999999E-2</v>
       </c>
       <c r="D55" s="4">
-        <v>8.6342592592592599E-3</v>
+        <v>1.2569444444444446E-2</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444444892E-5</v>
+        <f>D55-C55</f>
+        <v>6.9444444444446626E-5</v>
       </c>
       <c r="F55" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E55) *3600 + MINUTE(E55) * 60 + SECOND(E55)</f>
         <v>6</v>
       </c>
       <c r="G55" s="6">
-        <f t="shared" si="6"/>
-        <v>740</v>
+        <f>HOUR(C55) *3600 + MINUTE(C55) * 60 + SECOND(C55)</f>
+        <v>1080</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="7"/>
-        <v>746</v>
+        <f>HOUR(D55) *3600 + MINUTE(D55) * 60 + SECOND(D55)</f>
+        <v>1086</v>
       </c>
       <c r="I55" s="2" t="str">
         <f>VLOOKUP(J55,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J55" s="2" t="str">
         <f>VLOOKUP(B55,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>grater</v>
+        <v>basilPwd</v>
       </c>
       <c r="K55" s="2">
         <f>VLOOKUP(B55,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L55" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="M55" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3">
-        <v>1.2268518518518518E-3</v>
+        <v>1.2615740740740742E-2</v>
       </c>
       <c r="D56" s="4">
-        <v>1.3888888888888889E-3</v>
+        <v>1.2685185185185183E-2</v>
       </c>
       <c r="E56" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6203703703703714E-4</v>
+        <f>D56-C56</f>
+        <v>6.9444444444441422E-5</v>
       </c>
       <c r="F56" s="6">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>HOUR(E56) *3600 + MINUTE(E56) * 60 + SECOND(E56)</f>
+        <v>6</v>
       </c>
       <c r="G56" s="6">
-        <f t="shared" si="6"/>
-        <v>106</v>
+        <f>HOUR(C56) *3600 + MINUTE(C56) * 60 + SECOND(C56)</f>
+        <v>1090</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="7"/>
-        <v>120</v>
+        <f>HOUR(D56) *3600 + MINUTE(D56) * 60 + SECOND(D56)</f>
+        <v>1096</v>
       </c>
       <c r="I56" s="2" t="str">
         <f>VLOOKUP(J56,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J56" s="2" t="str">
         <f>VLOOKUP(B56,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>jarLid</v>
-      </c>
-      <c r="K56" s="2" t="str">
+        <v>oregano</v>
+      </c>
+      <c r="K56" s="2">
         <f>VLOOKUP(B56,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>jar</v>
-      </c>
-      <c r="L56" s="1" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="M56" s="2">
         <v>1</v>
@@ -7838,47 +7779,44 @@
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C57" s="3">
-        <v>1.4490740740740742E-2</v>
+        <v>1.3819444444444445E-2</v>
       </c>
       <c r="D57" s="4">
-        <v>1.4652777777777778E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
       <c r="E57" s="3">
-        <f t="shared" si="4"/>
-        <v>1.6203703703703692E-4</v>
+        <f>D57-C57</f>
+        <v>6.9444444444443157E-5</v>
       </c>
       <c r="F57" s="6">
-        <f t="shared" si="5"/>
-        <v>14</v>
+        <f>HOUR(E57) *3600 + MINUTE(E57) * 60 + SECOND(E57)</f>
+        <v>6</v>
       </c>
       <c r="G57" s="6">
-        <f t="shared" si="6"/>
-        <v>1252</v>
+        <f>HOUR(C57) *3600 + MINUTE(C57) * 60 + SECOND(C57)</f>
+        <v>1194</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="7"/>
-        <v>1266</v>
+        <f>HOUR(D57) *3600 + MINUTE(D57) * 60 + SECOND(D57)</f>
+        <v>1200</v>
       </c>
       <c r="I57" s="2" t="str">
         <f>VLOOKUP(J57,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J57" s="2" t="str">
         <f>VLOOKUP(B57,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>jarLid</v>
-      </c>
-      <c r="K57" s="2" t="str">
+        <v>fridge</v>
+      </c>
+      <c r="K57" s="2">
         <f>VLOOKUP(B57,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>jar</v>
-      </c>
-      <c r="L57" s="1" t="s">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="M57" s="2">
         <v>1</v>
@@ -7886,32 +7824,32 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="C58" s="3">
-        <v>9.5370370370370366E-3</v>
+        <v>1.5000000000000001E-2</v>
       </c>
       <c r="D58" s="4">
-        <v>9.9768518518518531E-3</v>
+        <v>1.5069444444444443E-2</v>
       </c>
       <c r="E58" s="3">
-        <f t="shared" si="4"/>
-        <v>4.3981481481481649E-4</v>
+        <f>D58-C58</f>
+        <v>6.9444444444441422E-5</v>
       </c>
       <c r="F58" s="6">
-        <f t="shared" si="5"/>
-        <v>38</v>
+        <f>HOUR(E58) *3600 + MINUTE(E58) * 60 + SECOND(E58)</f>
+        <v>6</v>
       </c>
       <c r="G58" s="6">
-        <f t="shared" si="6"/>
-        <v>824</v>
+        <f>HOUR(C58) *3600 + MINUTE(C58) * 60 + SECOND(C58)</f>
+        <v>1296</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="7"/>
-        <v>862</v>
+        <f>HOUR(D58) *3600 + MINUTE(D58) * 60 + SECOND(D58)</f>
+        <v>1302</v>
       </c>
       <c r="I58" s="2" t="str">
         <f>VLOOKUP(J58,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -7919,11 +7857,11 @@
       </c>
       <c r="J58" s="2" t="str">
         <f>VLOOKUP(B58,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>kettle</v>
-      </c>
-      <c r="K58" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K58" s="2" t="str">
         <f>VLOOKUP(B58,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
       </c>
       <c r="M58" s="2">
         <v>1</v>
@@ -7931,44 +7869,44 @@
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C59" s="3">
-        <v>1.6666666666666668E-3</v>
+        <v>1.6481481481481482E-2</v>
       </c>
       <c r="D59" s="4">
-        <v>1.736111111111111E-3</v>
+        <v>1.6550925925925924E-2</v>
       </c>
       <c r="E59" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444444241E-5</v>
+        <f>D59-C59</f>
+        <v>6.9444444444441422E-5</v>
       </c>
       <c r="F59" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E59) *3600 + MINUTE(E59) * 60 + SECOND(E59)</f>
         <v>6</v>
       </c>
       <c r="G59" s="6">
-        <f t="shared" si="6"/>
-        <v>144</v>
+        <f>HOUR(C59) *3600 + MINUTE(C59) * 60 + SECOND(C59)</f>
+        <v>1424</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" si="7"/>
-        <v>150</v>
+        <f>HOUR(D59) *3600 + MINUTE(D59) * 60 + SECOND(D59)</f>
+        <v>1430</v>
       </c>
       <c r="I59" s="2" t="str">
         <f>VLOOKUP(J59,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J59" s="2" t="str">
         <f>VLOOKUP(B59,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>kitchenRoll</v>
-      </c>
-      <c r="K59" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K59" s="2" t="str">
         <f>VLOOKUP(B59,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>b_co_1</v>
       </c>
       <c r="M59" s="2">
         <v>1</v>
@@ -7976,32 +7914,32 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C60" s="3">
-        <v>4.1666666666666669E-4</v>
+        <v>1.650462962962963E-2</v>
       </c>
       <c r="D60" s="4">
-        <v>5.3240740740740744E-4</v>
+        <v>1.6574074074074074E-2</v>
       </c>
       <c r="E60" s="3">
-        <f t="shared" si="4"/>
-        <v>1.1574074074074075E-4</v>
+        <f>D60-C60</f>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="F60" s="6">
-        <f t="shared" si="5"/>
-        <v>10</v>
+        <f>HOUR(E60) *3600 + MINUTE(E60) * 60 + SECOND(E60)</f>
+        <v>6</v>
       </c>
       <c r="G60" s="6">
-        <f t="shared" si="6"/>
-        <v>36</v>
+        <f>HOUR(C60) *3600 + MINUTE(C60) * 60 + SECOND(C60)</f>
+        <v>1426</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="7"/>
-        <v>46</v>
+        <f>HOUR(D60) *3600 + MINUTE(D60) * 60 + SECOND(D60)</f>
+        <v>1432</v>
       </c>
       <c r="I60" s="2" t="str">
         <f>VLOOKUP(J60,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8009,7 +7947,7 @@
       </c>
       <c r="J60" s="2" t="str">
         <f>VLOOKUP(B60,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>knife</v>
+        <v>grater</v>
       </c>
       <c r="K60" s="2">
         <f>VLOOKUP(B60,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -8021,32 +7959,32 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
-        <v>5</v>
+        <v>91</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C61" s="3">
-        <v>7.8703703703703705E-4</v>
+        <v>1.9120370370370371E-2</v>
       </c>
       <c r="D61" s="4">
-        <v>8.564814814814815E-4</v>
+        <v>1.9189814814814816E-2</v>
       </c>
       <c r="E61" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444444458E-5</v>
+        <f>D61-C61</f>
+        <v>6.9444444444444892E-5</v>
       </c>
       <c r="F61" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E61) *3600 + MINUTE(E61) * 60 + SECOND(E61)</f>
         <v>6</v>
       </c>
       <c r="G61" s="6">
-        <f t="shared" si="6"/>
-        <v>68</v>
+        <f>HOUR(C61) *3600 + MINUTE(C61) * 60 + SECOND(C61)</f>
+        <v>1652</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="7"/>
-        <v>74</v>
+        <f>HOUR(D61) *3600 + MINUTE(D61) * 60 + SECOND(D61)</f>
+        <v>1658</v>
       </c>
       <c r="I61" s="2" t="str">
         <f>VLOOKUP(J61,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8054,11 +7992,11 @@
       </c>
       <c r="J61" s="2" t="str">
         <f>VLOOKUP(B61,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>knife</v>
-      </c>
-      <c r="K61" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K61" s="2" t="str">
         <f>VLOOKUP(B61,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M61" s="2">
         <v>1</v>
@@ -8066,32 +8004,32 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
-        <v>15</v>
+        <v>104</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>83</v>
+        <v>32</v>
       </c>
       <c r="C62" s="3">
-        <v>1.7592592592592592E-3</v>
+        <v>2.0995370370370373E-2</v>
       </c>
       <c r="D62" s="4">
-        <v>1.8981481481481482E-3</v>
+        <v>2.1064814814814814E-2</v>
       </c>
       <c r="E62" s="3">
-        <f t="shared" si="4"/>
-        <v>1.3888888888888892E-4</v>
+        <f>D62-C62</f>
+        <v>6.9444444444441422E-5</v>
       </c>
       <c r="F62" s="6">
-        <f t="shared" si="5"/>
-        <v>12</v>
+        <f>HOUR(E62) *3600 + MINUTE(E62) * 60 + SECOND(E62)</f>
+        <v>6</v>
       </c>
       <c r="G62" s="6">
-        <f t="shared" si="6"/>
-        <v>152</v>
+        <f>HOUR(C62) *3600 + MINUTE(C62) * 60 + SECOND(C62)</f>
+        <v>1814</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="7"/>
-        <v>164</v>
+        <f>HOUR(D62) *3600 + MINUTE(D62) * 60 + SECOND(D62)</f>
+        <v>1820</v>
       </c>
       <c r="I62" s="2" t="str">
         <f>VLOOKUP(J62,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8099,11 +8037,11 @@
       </c>
       <c r="J62" s="2" t="str">
         <f>VLOOKUP(B62,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>knife</v>
-      </c>
-      <c r="K62" s="2">
+        <v>bowl</v>
+      </c>
+      <c r="K62" s="2" t="str">
         <f>VLOOKUP(B62,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>small_2</v>
       </c>
       <c r="M62" s="2">
         <v>1</v>
@@ -8111,32 +8049,32 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>83</v>
+        <v>48</v>
       </c>
       <c r="C63" s="3">
-        <v>1.9212962962962963E-2</v>
+        <v>2.314814814814815E-2</v>
       </c>
       <c r="D63" s="4">
-        <v>1.923611111111111E-2</v>
+        <v>2.3217592592592592E-2</v>
       </c>
       <c r="E63" s="3">
-        <f t="shared" si="4"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D63-C63</f>
+        <v>6.9444444444441422E-5</v>
       </c>
       <c r="F63" s="6">
-        <f t="shared" si="5"/>
-        <v>2</v>
+        <f>HOUR(E63) *3600 + MINUTE(E63) * 60 + SECOND(E63)</f>
+        <v>6</v>
       </c>
       <c r="G63" s="6">
-        <f t="shared" si="6"/>
-        <v>1660</v>
+        <f>HOUR(C63) *3600 + MINUTE(C63) * 60 + SECOND(C63)</f>
+        <v>2000</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="7"/>
-        <v>1662</v>
+        <f>HOUR(D63) *3600 + MINUTE(D63) * 60 + SECOND(D63)</f>
+        <v>2006</v>
       </c>
       <c r="I63" s="2" t="str">
         <f>VLOOKUP(J63,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8144,14 +8082,11 @@
       </c>
       <c r="J63" s="2" t="str">
         <f>VLOOKUP(B63,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>knife</v>
-      </c>
-      <c r="K63" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K63" s="2" t="str">
         <f>VLOOKUP(B63,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="1" t="s">
-        <v>97</v>
+        <v>w_1</v>
       </c>
       <c r="M63" s="2">
         <v>1</v>
@@ -8159,44 +8094,47 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C64" s="3">
-        <v>1.2615740740740742E-2</v>
+        <v>6.2500000000000001E-4</v>
       </c>
       <c r="D64" s="4">
-        <v>1.2685185185185183E-2</v>
+        <v>7.175925925925927E-4</v>
       </c>
       <c r="E64" s="3">
-        <f t="shared" si="4"/>
-        <v>6.9444444444441422E-5</v>
+        <f>D64-C64</f>
+        <v>9.2592592592592683E-5</v>
       </c>
       <c r="F64" s="6">
-        <f t="shared" si="5"/>
-        <v>6</v>
+        <f>HOUR(E64) *3600 + MINUTE(E64) * 60 + SECOND(E64)</f>
+        <v>8</v>
       </c>
       <c r="G64" s="6">
-        <f t="shared" si="6"/>
-        <v>1090</v>
+        <f>HOUR(C64) *3600 + MINUTE(C64) * 60 + SECOND(C64)</f>
+        <v>54</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="7"/>
-        <v>1096</v>
+        <f>HOUR(D64) *3600 + MINUTE(D64) * 60 + SECOND(D64)</f>
+        <v>62</v>
       </c>
       <c r="I64" s="2" t="str">
         <f>VLOOKUP(J64,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J64" s="2" t="str">
         <f>VLOOKUP(B64,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>mincedMeat</v>
-      </c>
-      <c r="K64" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K64" s="2" t="str">
         <f>VLOOKUP(B64,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="M64" s="2">
         <v>1</v>
@@ -8204,44 +8142,44 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C65" s="3">
-        <v>1.8518518518518517E-3</v>
+        <v>1.2731481481481483E-3</v>
       </c>
       <c r="D65" s="4">
-        <v>1.9444444444444442E-3</v>
+        <v>1.3657407407407409E-3</v>
       </c>
       <c r="E65" s="3">
-        <f t="shared" si="4"/>
-        <v>9.2592592592592466E-5</v>
+        <f>D65-C65</f>
+        <v>9.2592592592592683E-5</v>
       </c>
       <c r="F65" s="6">
-        <f t="shared" si="5"/>
+        <f>HOUR(E65) *3600 + MINUTE(E65) * 60 + SECOND(E65)</f>
         <v>8</v>
       </c>
       <c r="G65" s="6">
-        <f t="shared" si="6"/>
-        <v>160</v>
+        <f>HOUR(C65) *3600 + MINUTE(C65) * 60 + SECOND(C65)</f>
+        <v>110</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="7"/>
-        <v>168</v>
+        <f>HOUR(D65) *3600 + MINUTE(D65) * 60 + SECOND(D65)</f>
+        <v>118</v>
       </c>
       <c r="I65" s="2" t="str">
         <f>VLOOKUP(J65,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J65" s="2" t="str">
         <f>VLOOKUP(B65,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>rBook</v>
-      </c>
-      <c r="K65" s="2" t="str">
+        <v>faucet</v>
+      </c>
+      <c r="K65" s="2">
         <f>VLOOKUP(B65,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>nBook</v>
+        <v>0</v>
       </c>
       <c r="M65" s="2">
         <v>1</v>
@@ -8249,32 +8187,32 @@
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="4">
-        <v>4.8842592592592592E-3</v>
+      <c r="C66" s="3">
+        <v>1.8518518518518517E-3</v>
       </c>
       <c r="D66" s="4">
-        <v>8.4027777777777781E-3</v>
+        <v>1.9444444444444442E-3</v>
       </c>
       <c r="E66" s="3">
-        <f t="shared" ref="E66:E97" si="8">D66-C66</f>
-        <v>3.5185185185185189E-3</v>
+        <f>D66-C66</f>
+        <v>9.2592592592592466E-5</v>
       </c>
       <c r="F66" s="6">
-        <f t="shared" ref="F66:F97" si="9">HOUR(E66) *3600 + MINUTE(E66) * 60 + SECOND(E66)</f>
-        <v>304</v>
+        <f>HOUR(E66) *3600 + MINUTE(E66) * 60 + SECOND(E66)</f>
+        <v>8</v>
       </c>
       <c r="G66" s="6">
-        <f t="shared" ref="G66:G97" si="10">HOUR(C66) *3600 + MINUTE(C66) * 60 + SECOND(C66)</f>
-        <v>422</v>
+        <f>HOUR(C66) *3600 + MINUTE(C66) * 60 + SECOND(C66)</f>
+        <v>160</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" ref="H66:H97" si="11">HOUR(D66) *3600 + MINUTE(D66) * 60 + SECOND(D66)</f>
-        <v>726</v>
+        <f>HOUR(D66) *3600 + MINUTE(D66) * 60 + SECOND(D66)</f>
+        <v>168</v>
       </c>
       <c r="I66" s="2" t="str">
         <f>VLOOKUP(J66,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8282,11 +8220,11 @@
       </c>
       <c r="J66" s="2" t="str">
         <f>VLOOKUP(B66,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>rBook</v>
-      </c>
-      <c r="K66" s="2" t="str">
+        <v>pan</v>
+      </c>
+      <c r="K66" s="2">
         <f>VLOOKUP(B66,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>nBook</v>
+        <v>0</v>
       </c>
       <c r="M66" s="2">
         <v>1</v>
@@ -8294,32 +8232,32 @@
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="C67" s="3">
-        <v>1.1111111111111111E-3</v>
+        <v>2.4074074074074076E-3</v>
       </c>
       <c r="D67" s="4">
-        <v>1.1805555555555556E-3</v>
+        <v>2.5000000000000001E-3</v>
       </c>
       <c r="E67" s="3">
-        <f t="shared" si="8"/>
-        <v>6.9444444444444458E-5</v>
+        <f>D67-C67</f>
+        <v>9.2592592592592466E-5</v>
       </c>
       <c r="F67" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>HOUR(E67) *3600 + MINUTE(E67) * 60 + SECOND(E67)</f>
+        <v>8</v>
       </c>
       <c r="G67" s="6">
-        <f t="shared" si="10"/>
-        <v>96</v>
+        <f>HOUR(C67) *3600 + MINUTE(C67) * 60 + SECOND(C67)</f>
+        <v>208</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="11"/>
-        <v>102</v>
+        <f>HOUR(D67) *3600 + MINUTE(D67) * 60 + SECOND(D67)</f>
+        <v>216</v>
       </c>
       <c r="I67" s="2" t="str">
         <f>VLOOKUP(J67,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8327,11 +8265,11 @@
       </c>
       <c r="J67" s="2" t="str">
         <f>VLOOKUP(B67,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>oregano</v>
-      </c>
-      <c r="K67" s="2">
+        <v>food</v>
+      </c>
+      <c r="K67" s="2" t="str">
         <f>VLOOKUP(B67,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>meat</v>
       </c>
       <c r="M67" s="2">
         <v>1</v>
@@ -8339,44 +8277,44 @@
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="C68" s="3">
-        <v>1.4050925925925927E-2</v>
+        <v>8.4259259259259253E-3</v>
       </c>
       <c r="D68" s="4">
-        <v>1.4467592592592593E-2</v>
+        <v>8.518518518518519E-3</v>
       </c>
       <c r="E68" s="3">
-        <f t="shared" si="8"/>
-        <v>4.1666666666666588E-4</v>
+        <f>D68-C68</f>
+        <v>9.2592592592593767E-5</v>
       </c>
       <c r="F68" s="6">
-        <f t="shared" si="9"/>
-        <v>36</v>
+        <f>HOUR(E68) *3600 + MINUTE(E68) * 60 + SECOND(E68)</f>
+        <v>8</v>
       </c>
       <c r="G68" s="6">
-        <f t="shared" si="10"/>
-        <v>1214</v>
+        <f>HOUR(C68) *3600 + MINUTE(C68) * 60 + SECOND(C68)</f>
+        <v>728</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="11"/>
-        <v>1250</v>
+        <f>HOUR(D68) *3600 + MINUTE(D68) * 60 + SECOND(D68)</f>
+        <v>736</v>
       </c>
       <c r="I68" s="2" t="str">
         <f>VLOOKUP(J68,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J68" s="2" t="str">
         <f>VLOOKUP(B68,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>oregano</v>
-      </c>
-      <c r="K68" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K68" s="2" t="str">
         <f>VLOOKUP(B68,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
       </c>
       <c r="M68" s="2">
         <v>1</v>
@@ -8384,32 +8322,32 @@
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>89</v>
       </c>
       <c r="C69" s="3">
-        <v>1.7083333333333336E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="D69" s="4">
-        <v>1.7199074074074071E-2</v>
+        <v>2.0925925925925928E-2</v>
       </c>
       <c r="E69" s="3">
-        <f t="shared" si="8"/>
-        <v>1.157407407407357E-4</v>
+        <f>D69-C69</f>
+        <v>9.2592592592595502E-5</v>
       </c>
       <c r="F69" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f>HOUR(E69) *3600 + MINUTE(E69) * 60 + SECOND(E69)</f>
+        <v>8</v>
       </c>
       <c r="G69" s="6">
-        <f t="shared" si="10"/>
-        <v>1476</v>
+        <f>HOUR(C69) *3600 + MINUTE(C69) * 60 + SECOND(C69)</f>
+        <v>1800</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="11"/>
-        <v>1486</v>
+        <f>HOUR(D69) *3600 + MINUTE(D69) * 60 + SECOND(D69)</f>
+        <v>1808</v>
       </c>
       <c r="I69" s="2" t="str">
         <f>VLOOKUP(J69,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8417,11 +8355,11 @@
       </c>
       <c r="J69" s="2" t="str">
         <f>VLOOKUP(B69,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K69" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K69" s="2" t="str">
         <f>VLOOKUP(B69,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
       </c>
       <c r="M69" s="2">
         <v>1</v>
@@ -8429,32 +8367,32 @@
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C70" s="3">
-        <v>2.0324074074074074E-2</v>
+        <v>2.2708333333333334E-2</v>
       </c>
       <c r="D70" s="4">
-        <v>2.0532407407407405E-2</v>
+        <v>2.2800925925925929E-2</v>
       </c>
       <c r="E70" s="3">
-        <f t="shared" si="8"/>
-        <v>2.0833333333333121E-4</v>
+        <f>D70-C70</f>
+        <v>9.2592592592595502E-5</v>
       </c>
       <c r="F70" s="6">
-        <f t="shared" si="9"/>
-        <v>18</v>
+        <f>HOUR(E70) *3600 + MINUTE(E70) * 60 + SECOND(E70)</f>
+        <v>8</v>
       </c>
       <c r="G70" s="6">
-        <f t="shared" si="10"/>
-        <v>1756</v>
+        <f>HOUR(C70) *3600 + MINUTE(C70) * 60 + SECOND(C70)</f>
+        <v>1962</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="11"/>
-        <v>1774</v>
+        <f>HOUR(D70) *3600 + MINUTE(D70) * 60 + SECOND(D70)</f>
+        <v>1970</v>
       </c>
       <c r="I70" s="2" t="str">
         <f>VLOOKUP(J70,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8462,11 +8400,11 @@
       </c>
       <c r="J70" s="2" t="str">
         <f>VLOOKUP(B70,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K70" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K70" s="2" t="str">
         <f>VLOOKUP(B70,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M70" s="2">
         <v>1</v>
@@ -8474,32 +8412,32 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C71" s="3">
-        <v>2.8912037037037038E-2</v>
+        <v>2.479166666666667E-2</v>
       </c>
       <c r="D71" s="4">
-        <v>2.900462962962963E-2</v>
+        <v>2.4884259259259259E-2</v>
       </c>
       <c r="E71" s="3">
-        <f t="shared" si="8"/>
-        <v>9.2592592592592032E-5</v>
+        <f>D71-C71</f>
+        <v>9.2592592592588563E-5</v>
       </c>
       <c r="F71" s="6">
-        <f t="shared" si="9"/>
+        <f>HOUR(E71) *3600 + MINUTE(E71) * 60 + SECOND(E71)</f>
         <v>8</v>
       </c>
       <c r="G71" s="6">
-        <f t="shared" si="10"/>
-        <v>2498</v>
+        <f>HOUR(C71) *3600 + MINUTE(C71) * 60 + SECOND(C71)</f>
+        <v>2142</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="11"/>
-        <v>2506</v>
+        <f>HOUR(D71) *3600 + MINUTE(D71) * 60 + SECOND(D71)</f>
+        <v>2150</v>
       </c>
       <c r="I71" s="2" t="str">
         <f>VLOOKUP(J71,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8507,11 +8445,11 @@
       </c>
       <c r="J71" s="2" t="str">
         <f>VLOOKUP(B71,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pan</v>
-      </c>
-      <c r="K71" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K71" s="2" t="str">
         <f>VLOOKUP(B71,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M71" s="2">
         <v>1</v>
@@ -8519,32 +8457,32 @@
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>18</v>
+        <v>88</v>
       </c>
       <c r="C72" s="3">
-        <v>1.4027777777777778E-2</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1.4050925925925927E-2</v>
+        <v>2.6898148148148147E-2</v>
+      </c>
+      <c r="D72" s="4">
+        <v>2.6990740740740742E-2</v>
       </c>
       <c r="E72" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
+        <f>D72-C72</f>
+        <v>9.2592592592595502E-5</v>
       </c>
       <c r="F72" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>HOUR(E72) *3600 + MINUTE(E72) * 60 + SECOND(E72)</f>
+        <v>8</v>
       </c>
       <c r="G72" s="6">
-        <f t="shared" si="10"/>
-        <v>1212</v>
+        <f>HOUR(C72) *3600 + MINUTE(C72) * 60 + SECOND(C72)</f>
+        <v>2324</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="11"/>
-        <v>1214</v>
+        <f>HOUR(D72) *3600 + MINUTE(D72) * 60 + SECOND(D72)</f>
+        <v>2332</v>
       </c>
       <c r="I72" s="2" t="str">
         <f>VLOOKUP(J72,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8552,11 +8490,14 @@
       </c>
       <c r="J72" s="2" t="str">
         <f>VLOOKUP(B72,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>spaghetti</v>
-      </c>
-      <c r="K72" s="2">
+        <v>food</v>
+      </c>
+      <c r="K72" s="2" t="str">
         <f>VLOOKUP(B72,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>pasta</v>
+      </c>
+      <c r="L72" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="M72" s="2">
         <v>1</v>
@@ -8564,32 +8505,32 @@
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <v>77</v>
+        <v>134</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>18</v>
+        <v>87</v>
       </c>
       <c r="C73" s="3">
-        <v>1.5347222222222222E-2</v>
+        <v>2.8472222222222222E-2</v>
       </c>
       <c r="D73" s="4">
-        <v>1.5462962962962963E-2</v>
+        <v>2.8564814814814817E-2</v>
       </c>
       <c r="E73" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1574074074074091E-4</v>
+        <f>D73-C73</f>
+        <v>9.2592592592595502E-5</v>
       </c>
       <c r="F73" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f>HOUR(E73) *3600 + MINUTE(E73) * 60 + SECOND(E73)</f>
+        <v>8</v>
       </c>
       <c r="G73" s="6">
-        <f t="shared" si="10"/>
-        <v>1326</v>
+        <f>HOUR(C73) *3600 + MINUTE(C73) * 60 + SECOND(C73)</f>
+        <v>2460</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="11"/>
-        <v>1336</v>
+        <f>HOUR(D73) *3600 + MINUTE(D73) * 60 + SECOND(D73)</f>
+        <v>2468</v>
       </c>
       <c r="I73" s="2" t="str">
         <f>VLOOKUP(J73,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8597,11 +8538,11 @@
       </c>
       <c r="J73" s="2" t="str">
         <f>VLOOKUP(B73,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>spaghetti</v>
-      </c>
-      <c r="K73" s="2">
+        <v>food</v>
+      </c>
+      <c r="K73" s="2" t="str">
         <f>VLOOKUP(B73,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>meat</v>
       </c>
       <c r="M73" s="2">
         <v>1</v>
@@ -8609,40 +8550,40 @@
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C74" s="3">
-        <v>2.8055555555555556E-2</v>
+        <v>2.8912037037037038E-2</v>
       </c>
       <c r="D74" s="4">
-        <v>2.8287037037037038E-2</v>
+        <v>2.900462962962963E-2</v>
       </c>
       <c r="E74" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148182E-4</v>
+        <f>D74-C74</f>
+        <v>9.2592592592592032E-5</v>
       </c>
       <c r="F74" s="6">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f>HOUR(E74) *3600 + MINUTE(E74) * 60 + SECOND(E74)</f>
+        <v>8</v>
       </c>
       <c r="G74" s="6">
-        <f t="shared" si="10"/>
-        <v>2424</v>
+        <f>HOUR(C74) *3600 + MINUTE(C74) * 60 + SECOND(C74)</f>
+        <v>2498</v>
       </c>
       <c r="H74" s="6">
-        <f t="shared" si="11"/>
-        <v>2444</v>
+        <f>HOUR(D74) *3600 + MINUTE(D74) * 60 + SECOND(D74)</f>
+        <v>2506</v>
       </c>
       <c r="I74" s="2" t="str">
         <f>VLOOKUP(J74,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J74" s="2" t="str">
         <f>VLOOKUP(B74,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>spaghetti</v>
+        <v>plate</v>
       </c>
       <c r="K74" s="2">
         <f>VLOOKUP(B74,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -8654,80 +8595,77 @@
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C75" s="3">
-        <v>6.2500000000000001E-4</v>
+        <v>4.1666666666666669E-4</v>
       </c>
       <c r="D75" s="4">
-        <v>7.175925925925927E-4</v>
+        <v>5.3240740740740744E-4</v>
       </c>
       <c r="E75" s="3">
-        <f t="shared" si="8"/>
-        <v>9.2592592592592683E-5</v>
+        <f>D75-C75</f>
+        <v>1.1574074074074075E-4</v>
       </c>
       <c r="F75" s="6">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>HOUR(E75) *3600 + MINUTE(E75) * 60 + SECOND(E75)</f>
+        <v>10</v>
       </c>
       <c r="G75" s="6">
-        <f t="shared" si="10"/>
-        <v>54</v>
+        <f>HOUR(C75) *3600 + MINUTE(C75) * 60 + SECOND(C75)</f>
+        <v>36</v>
       </c>
       <c r="H75" s="6">
-        <f t="shared" si="11"/>
-        <v>62</v>
+        <f>HOUR(D75) *3600 + MINUTE(D75) * 60 + SECOND(D75)</f>
+        <v>46</v>
       </c>
       <c r="I75" s="2" t="str">
         <f>VLOOKUP(J75,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J75" s="2" t="str">
         <f>VLOOKUP(B75,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>mincedMeat</v>
       </c>
       <c r="K75" s="2">
         <f>VLOOKUP(B75,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="M75" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C76" s="3">
-        <v>8.564814814814815E-4</v>
+        <v>8.8657407407407417E-3</v>
       </c>
       <c r="D76" s="4">
-        <v>9.2592592592592585E-4</v>
+        <v>8.9814814814814809E-3</v>
       </c>
       <c r="E76" s="3">
-        <f t="shared" si="8"/>
-        <v>6.944444444444435E-5</v>
+        <f>D76-C76</f>
+        <v>1.1574074074073917E-4</v>
       </c>
       <c r="F76" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>HOUR(E76) *3600 + MINUTE(E76) * 60 + SECOND(E76)</f>
+        <v>10</v>
       </c>
       <c r="G76" s="6">
-        <f t="shared" si="10"/>
-        <v>74</v>
+        <f>HOUR(C76) *3600 + MINUTE(C76) * 60 + SECOND(C76)</f>
+        <v>766</v>
       </c>
       <c r="H76" s="6">
-        <f t="shared" si="11"/>
-        <v>80</v>
+        <f>HOUR(D76) *3600 + MINUTE(D76) * 60 + SECOND(D76)</f>
+        <v>776</v>
       </c>
       <c r="I76" s="2" t="str">
         <f>VLOOKUP(J76,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8735,11 +8673,11 @@
       </c>
       <c r="J76" s="2" t="str">
         <f>VLOOKUP(B76,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K76" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K76" s="2" t="str">
         <f>VLOOKUP(B76,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M76" s="2">
         <v>1</v>
@@ -8747,85 +8685,88 @@
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>89</v>
+        <v>29</v>
       </c>
       <c r="C77" s="3">
-        <v>8.4259259259259253E-3</v>
+        <v>1.1990740740740739E-2</v>
       </c>
       <c r="D77" s="4">
-        <v>8.518518518518519E-3</v>
+        <v>1.2106481481481482E-2</v>
       </c>
       <c r="E77" s="3">
-        <f t="shared" si="8"/>
-        <v>9.2592592592593767E-5</v>
+        <f>D77-C77</f>
+        <v>1.1574074074074264E-4</v>
       </c>
       <c r="F77" s="6">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>HOUR(E77) *3600 + MINUTE(E77) * 60 + SECOND(E77)</f>
+        <v>10</v>
       </c>
       <c r="G77" s="6">
-        <f t="shared" si="10"/>
-        <v>728</v>
+        <f>HOUR(C77) *3600 + MINUTE(C77) * 60 + SECOND(C77)</f>
+        <v>1036</v>
       </c>
       <c r="H77" s="6">
-        <f t="shared" si="11"/>
-        <v>736</v>
+        <f>HOUR(D77) *3600 + MINUTE(D77) * 60 + SECOND(D77)</f>
+        <v>1046</v>
       </c>
       <c r="I77" s="2" t="str">
         <f>VLOOKUP(J77,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J77" s="2" t="str">
         <f>VLOOKUP(B77,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>garlicPwd</v>
       </c>
       <c r="K77" s="2">
         <f>VLOOKUP(B77,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L77" s="1" t="s">
+        <v>103</v>
+      </c>
       <c r="M77" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="C78" s="3">
-        <v>8.6574074074074071E-3</v>
+        <v>1.2361111111111113E-2</v>
       </c>
       <c r="D78" s="4">
-        <v>8.6805555555555559E-3</v>
+        <v>1.247685185185185E-2</v>
       </c>
       <c r="E78" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
+        <f>D78-C78</f>
+        <v>1.1574074074073744E-4</v>
       </c>
       <c r="F78" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>HOUR(E78) *3600 + MINUTE(E78) * 60 + SECOND(E78)</f>
+        <v>10</v>
       </c>
       <c r="G78" s="6">
-        <f t="shared" si="10"/>
-        <v>748</v>
+        <f>HOUR(C78) *3600 + MINUTE(C78) * 60 + SECOND(C78)</f>
+        <v>1068</v>
       </c>
       <c r="H78" s="6">
-        <f t="shared" si="11"/>
-        <v>750</v>
+        <f>HOUR(D78) *3600 + MINUTE(D78) * 60 + SECOND(D78)</f>
+        <v>1078</v>
       </c>
       <c r="I78" s="2" t="str">
         <f>VLOOKUP(J78,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J78" s="2" t="str">
         <f>VLOOKUP(B78,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>cayenne</v>
       </c>
       <c r="K78" s="2">
         <f>VLOOKUP(B78,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -8837,32 +8778,32 @@
     </row>
     <row r="79" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C79" s="3">
-        <v>9.0046296296296298E-3</v>
+        <v>1.3356481481481483E-2</v>
       </c>
       <c r="D79" s="4">
-        <v>9.0277777777777787E-3</v>
+        <v>1.3472222222222221E-2</v>
       </c>
       <c r="E79" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148875E-5</v>
+        <f>D79-C79</f>
+        <v>1.1574074074073744E-4</v>
       </c>
       <c r="F79" s="6">
-        <f t="shared" si="9"/>
-        <v>2</v>
+        <f>HOUR(E79) *3600 + MINUTE(E79) * 60 + SECOND(E79)</f>
+        <v>10</v>
       </c>
       <c r="G79" s="6">
-        <f t="shared" si="10"/>
-        <v>778</v>
+        <f>HOUR(C79) *3600 + MINUTE(C79) * 60 + SECOND(C79)</f>
+        <v>1154</v>
       </c>
       <c r="H79" s="6">
-        <f t="shared" si="11"/>
-        <v>780</v>
+        <f>HOUR(D79) *3600 + MINUTE(D79) * 60 + SECOND(D79)</f>
+        <v>1164</v>
       </c>
       <c r="I79" s="2" t="str">
         <f>VLOOKUP(J79,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8870,11 +8811,11 @@
       </c>
       <c r="J79" s="2" t="str">
         <f>VLOOKUP(B79,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K79" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K79" s="2" t="str">
         <f>VLOOKUP(B79,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M79" s="2">
         <v>1</v>
@@ -8882,32 +8823,32 @@
     </row>
     <row r="80" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C80" s="3">
-        <v>9.6527777777777775E-3</v>
+        <v>1.3912037037037037E-2</v>
       </c>
       <c r="D80" s="4">
-        <v>1.0115740740740741E-2</v>
+        <v>1.4027777777777778E-2</v>
       </c>
       <c r="E80" s="3">
-        <f t="shared" si="8"/>
-        <v>4.6296296296296363E-4</v>
+        <f>D80-C80</f>
+        <v>1.1574074074074091E-4</v>
       </c>
       <c r="F80" s="6">
-        <f t="shared" si="9"/>
-        <v>40</v>
+        <f>HOUR(E80) *3600 + MINUTE(E80) * 60 + SECOND(E80)</f>
+        <v>10</v>
       </c>
       <c r="G80" s="6">
-        <f t="shared" si="10"/>
-        <v>834</v>
+        <f>HOUR(C80) *3600 + MINUTE(C80) * 60 + SECOND(C80)</f>
+        <v>1202</v>
       </c>
       <c r="H80" s="6">
-        <f t="shared" si="11"/>
-        <v>874</v>
+        <f>HOUR(D80) *3600 + MINUTE(D80) * 60 + SECOND(D80)</f>
+        <v>1212</v>
       </c>
       <c r="I80" s="2" t="str">
         <f>VLOOKUP(J80,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8915,14 +8856,14 @@
       </c>
       <c r="J80" s="2" t="str">
         <f>VLOOKUP(B80,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K80" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K80" s="2" t="str">
         <f>VLOOKUP(B80,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="L80" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="M80" s="2">
         <v>1</v>
@@ -8930,32 +8871,32 @@
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>89</v>
+        <v>18</v>
       </c>
       <c r="C81" s="3">
-        <v>1.0462962962962964E-2</v>
+        <v>1.5347222222222222E-2</v>
       </c>
       <c r="D81" s="4">
-        <v>1.050925925925926E-2</v>
+        <v>1.5462962962962963E-2</v>
       </c>
       <c r="E81" s="3">
-        <f t="shared" si="8"/>
-        <v>4.6296296296296016E-5</v>
+        <f>D81-C81</f>
+        <v>1.1574074074074091E-4</v>
       </c>
       <c r="F81" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>HOUR(E81) *3600 + MINUTE(E81) * 60 + SECOND(E81)</f>
+        <v>10</v>
       </c>
       <c r="G81" s="6">
-        <f t="shared" si="10"/>
-        <v>904</v>
+        <f>HOUR(C81) *3600 + MINUTE(C81) * 60 + SECOND(C81)</f>
+        <v>1326</v>
       </c>
       <c r="H81" s="6">
-        <f t="shared" si="11"/>
-        <v>908</v>
+        <f>HOUR(D81) *3600 + MINUTE(D81) * 60 + SECOND(D81)</f>
+        <v>1336</v>
       </c>
       <c r="I81" s="2" t="str">
         <f>VLOOKUP(J81,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -8963,7 +8904,7 @@
       </c>
       <c r="J81" s="2" t="str">
         <f>VLOOKUP(B81,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>pot</v>
       </c>
       <c r="K81" s="2">
         <f>VLOOKUP(B81,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -8975,32 +8916,32 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C82" s="3">
-        <v>1.0833333333333334E-2</v>
+        <v>1.7083333333333336E-2</v>
       </c>
       <c r="D82" s="4">
-        <v>1.0902777777777777E-2</v>
+        <v>1.7199074074074071E-2</v>
       </c>
       <c r="E82" s="3">
-        <f t="shared" si="8"/>
-        <v>6.9444444444443157E-5</v>
+        <f>D82-C82</f>
+        <v>1.157407407407357E-4</v>
       </c>
       <c r="F82" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>HOUR(E82) *3600 + MINUTE(E82) * 60 + SECOND(E82)</f>
+        <v>10</v>
       </c>
       <c r="G82" s="6">
-        <f t="shared" si="10"/>
-        <v>936</v>
+        <f>HOUR(C82) *3600 + MINUTE(C82) * 60 + SECOND(C82)</f>
+        <v>1476</v>
       </c>
       <c r="H82" s="6">
-        <f t="shared" si="11"/>
-        <v>942</v>
+        <f>HOUR(D82) *3600 + MINUTE(D82) * 60 + SECOND(D82)</f>
+        <v>1486</v>
       </c>
       <c r="I82" s="2" t="str">
         <f>VLOOKUP(J82,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9020,44 +8961,47 @@
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
-        <v>73</v>
+        <v>95</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C83" s="3">
-        <v>1.5000000000000001E-2</v>
+        <v>1.9884259259259258E-2</v>
       </c>
       <c r="D83" s="4">
-        <v>1.5069444444444443E-2</v>
+        <v>0.02</v>
       </c>
       <c r="E83" s="3">
-        <f t="shared" si="8"/>
-        <v>6.9444444444441422E-5</v>
+        <f>D83-C83</f>
+        <v>1.1574074074074264E-4</v>
       </c>
       <c r="F83" s="6">
-        <f t="shared" si="9"/>
-        <v>6</v>
+        <f>HOUR(E83) *3600 + MINUTE(E83) * 60 + SECOND(E83)</f>
+        <v>10</v>
       </c>
       <c r="G83" s="6">
-        <f t="shared" si="10"/>
-        <v>1296</v>
+        <f>HOUR(C83) *3600 + MINUTE(C83) * 60 + SECOND(C83)</f>
+        <v>1718</v>
       </c>
       <c r="H83" s="6">
-        <f t="shared" si="11"/>
-        <v>1302</v>
+        <f>HOUR(D83) *3600 + MINUTE(D83) * 60 + SECOND(D83)</f>
+        <v>1728</v>
       </c>
       <c r="I83" s="2" t="str">
         <f>VLOOKUP(J83,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J83" s="2" t="str">
         <f>VLOOKUP(B83,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K83" s="2">
+        <v>food</v>
+      </c>
+      <c r="K83" s="2" t="str">
         <f>VLOOKUP(B83,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>pasta</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="M83" s="2">
         <v>1</v>
@@ -9065,40 +9009,40 @@
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C84" s="3">
-        <v>2.0833333333333332E-2</v>
+        <v>1.7592592592592592E-3</v>
       </c>
       <c r="D84" s="4">
-        <v>2.0925925925925928E-2</v>
+        <v>1.8981481481481482E-3</v>
       </c>
       <c r="E84" s="3">
-        <f t="shared" si="8"/>
-        <v>9.2592592592595502E-5</v>
+        <f>D84-C84</f>
+        <v>1.3888888888888892E-4</v>
       </c>
       <c r="F84" s="6">
-        <f t="shared" si="9"/>
-        <v>8</v>
+        <f>HOUR(E84) *3600 + MINUTE(E84) * 60 + SECOND(E84)</f>
+        <v>12</v>
       </c>
       <c r="G84" s="6">
-        <f t="shared" si="10"/>
-        <v>1800</v>
+        <f>HOUR(C84) *3600 + MINUTE(C84) * 60 + SECOND(C84)</f>
+        <v>152</v>
       </c>
       <c r="H84" s="6">
-        <f t="shared" si="11"/>
-        <v>1808</v>
+        <f>HOUR(D84) *3600 + MINUTE(D84) * 60 + SECOND(D84)</f>
+        <v>164</v>
       </c>
       <c r="I84" s="2" t="str">
         <f>VLOOKUP(J84,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J84" s="2" t="str">
         <f>VLOOKUP(B84,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>mincedMeat</v>
       </c>
       <c r="K84" s="2">
         <f>VLOOKUP(B84,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -9110,40 +9054,40 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="C85" s="3">
-        <v>2.1180555555555553E-2</v>
+        <v>1.3310185185185187E-2</v>
       </c>
       <c r="D85" s="4">
-        <v>2.1226851851851854E-2</v>
+        <v>1.3449074074074073E-2</v>
       </c>
       <c r="E85" s="3">
-        <f t="shared" si="8"/>
-        <v>4.629629629630122E-5</v>
+        <f>D85-C85</f>
+        <v>1.3888888888888631E-4</v>
       </c>
       <c r="F85" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>HOUR(E85) *3600 + MINUTE(E85) * 60 + SECOND(E85)</f>
+        <v>12</v>
       </c>
       <c r="G85" s="6">
-        <f t="shared" si="10"/>
-        <v>1830</v>
+        <f>HOUR(C85) *3600 + MINUTE(C85) * 60 + SECOND(C85)</f>
+        <v>1150</v>
       </c>
       <c r="H85" s="6">
-        <f t="shared" si="11"/>
-        <v>1834</v>
+        <f>HOUR(D85) *3600 + MINUTE(D85) * 60 + SECOND(D85)</f>
+        <v>1162</v>
       </c>
       <c r="I85" s="2" t="str">
         <f>VLOOKUP(J85,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J85" s="2" t="str">
         <f>VLOOKUP(B85,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>worcestershireSauce</v>
       </c>
       <c r="K85" s="2">
         <f>VLOOKUP(B85,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -9155,47 +9099,44 @@
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C86" s="3">
-        <v>2.2361111111111113E-2</v>
+        <v>1.5162037037037036E-2</v>
       </c>
       <c r="D86" s="4">
-        <v>2.4236111111111111E-2</v>
+        <v>1.5300925925925926E-2</v>
       </c>
       <c r="E86" s="3">
-        <f t="shared" si="8"/>
-        <v>1.8749999999999982E-3</v>
+        <f>D86-C86</f>
+        <v>1.3888888888888978E-4</v>
       </c>
       <c r="F86" s="6">
-        <f t="shared" si="9"/>
-        <v>162</v>
+        <f>HOUR(E86) *3600 + MINUTE(E86) * 60 + SECOND(E86)</f>
+        <v>12</v>
       </c>
       <c r="G86" s="6">
-        <f t="shared" si="10"/>
-        <v>1932</v>
+        <f>HOUR(C86) *3600 + MINUTE(C86) * 60 + SECOND(C86)</f>
+        <v>1310</v>
       </c>
       <c r="H86" s="6">
-        <f t="shared" si="11"/>
-        <v>2094</v>
+        <f>HOUR(D86) *3600 + MINUTE(D86) * 60 + SECOND(D86)</f>
+        <v>1322</v>
       </c>
       <c r="I86" s="2" t="str">
         <f>VLOOKUP(J86,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J86" s="2" t="str">
         <f>VLOOKUP(B86,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K86" s="2">
+        <v>food</v>
+      </c>
+      <c r="K86" s="2" t="str">
         <f>VLOOKUP(B86,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L86" s="1" t="s">
-        <v>110</v>
+        <v>pasta</v>
       </c>
       <c r="M86" s="2">
         <v>1</v>
@@ -9203,32 +9144,32 @@
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="C87" s="3">
-        <v>2.3356481481481482E-2</v>
+        <v>2.8425925925925924E-2</v>
       </c>
       <c r="D87" s="4">
-        <v>2.3402777777777783E-2</v>
+        <v>2.8564814814814817E-2</v>
       </c>
       <c r="E87" s="3">
-        <f t="shared" si="8"/>
-        <v>4.629629629630122E-5</v>
+        <f>D87-C87</f>
+        <v>1.3888888888889325E-4</v>
       </c>
       <c r="F87" s="6">
-        <f t="shared" si="9"/>
-        <v>4</v>
+        <f>HOUR(E87) *3600 + MINUTE(E87) * 60 + SECOND(E87)</f>
+        <v>12</v>
       </c>
       <c r="G87" s="6">
-        <f t="shared" si="10"/>
-        <v>2018</v>
+        <f>HOUR(C87) *3600 + MINUTE(C87) * 60 + SECOND(C87)</f>
+        <v>2456</v>
       </c>
       <c r="H87" s="6">
-        <f t="shared" si="11"/>
-        <v>2022</v>
+        <f>HOUR(D87) *3600 + MINUTE(D87) * 60 + SECOND(D87)</f>
+        <v>2468</v>
       </c>
       <c r="I87" s="2" t="str">
         <f>VLOOKUP(J87,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9236,14 +9177,11 @@
       </c>
       <c r="J87" s="2" t="str">
         <f>VLOOKUP(B87,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K87" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K87" s="2" t="str">
         <f>VLOOKUP(B87,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>111</v>
+        <v>w_1</v>
       </c>
       <c r="M87" s="2">
         <v>1</v>
@@ -9251,32 +9189,32 @@
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
-        <v>118</v>
+        <v>11</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="C88" s="3">
-        <v>2.4976851851851851E-2</v>
+        <v>1.2268518518518518E-3</v>
       </c>
       <c r="D88" s="4">
-        <v>2.5208333333333333E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="E88" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3148148148148182E-4</v>
+        <f>D88-C88</f>
+        <v>1.6203703703703714E-4</v>
       </c>
       <c r="F88" s="6">
-        <f t="shared" si="9"/>
-        <v>20</v>
+        <f>HOUR(E88) *3600 + MINUTE(E88) * 60 + SECOND(E88)</f>
+        <v>14</v>
       </c>
       <c r="G88" s="6">
-        <f t="shared" si="10"/>
-        <v>2158</v>
+        <f>HOUR(C88) *3600 + MINUTE(C88) * 60 + SECOND(C88)</f>
+        <v>106</v>
       </c>
       <c r="H88" s="6">
-        <f t="shared" si="11"/>
-        <v>2178</v>
+        <f>HOUR(D88) *3600 + MINUTE(D88) * 60 + SECOND(D88)</f>
+        <v>120</v>
       </c>
       <c r="I88" s="2" t="str">
         <f>VLOOKUP(J88,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9284,56 +9222,59 @@
       </c>
       <c r="J88" s="2" t="str">
         <f>VLOOKUP(B88,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
+        <v>kettle</v>
       </c>
       <c r="K88" s="2">
         <f>VLOOKUP(B88,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L88" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="M88" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
-        <v>120</v>
+        <v>43</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C89" s="3">
-        <v>2.5694444444444447E-2</v>
+        <v>1.087962962962963E-2</v>
       </c>
       <c r="D89" s="4">
-        <v>2.6180555555555558E-2</v>
+        <v>1.1041666666666667E-2</v>
       </c>
       <c r="E89" s="3">
-        <f t="shared" si="8"/>
-        <v>4.8611111111111077E-4</v>
+        <f>D89-C89</f>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="F89" s="6">
-        <f t="shared" si="9"/>
-        <v>42</v>
+        <f>HOUR(E89) *3600 + MINUTE(E89) * 60 + SECOND(E89)</f>
+        <v>14</v>
       </c>
       <c r="G89" s="6">
-        <f t="shared" si="10"/>
-        <v>2220</v>
+        <f>HOUR(C89) *3600 + MINUTE(C89) * 60 + SECOND(C89)</f>
+        <v>940</v>
       </c>
       <c r="H89" s="6">
-        <f t="shared" si="11"/>
-        <v>2262</v>
+        <f>HOUR(D89) *3600 + MINUTE(D89) * 60 + SECOND(D89)</f>
+        <v>954</v>
       </c>
       <c r="I89" s="2" t="str">
         <f>VLOOKUP(J89,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J89" s="2" t="str">
         <f>VLOOKUP(B89,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>plate</v>
-      </c>
-      <c r="K89" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K89" s="2" t="str">
         <f>VLOOKUP(B89,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>a_co_1</v>
       </c>
       <c r="M89" s="2">
         <v>1</v>
@@ -9341,32 +9282,32 @@
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="C90" s="3">
-        <v>1.0185185185185184E-2</v>
+        <v>1.4490740740740742E-2</v>
       </c>
       <c r="D90" s="4">
-        <v>1.050925925925926E-2</v>
+        <v>1.4652777777777778E-2</v>
       </c>
       <c r="E90" s="3">
-        <f t="shared" si="8"/>
-        <v>3.2407407407407558E-4</v>
+        <f>D90-C90</f>
+        <v>1.6203703703703692E-4</v>
       </c>
       <c r="F90" s="6">
-        <f t="shared" si="9"/>
-        <v>28</v>
+        <f>HOUR(E90) *3600 + MINUTE(E90) * 60 + SECOND(E90)</f>
+        <v>14</v>
       </c>
       <c r="G90" s="6">
-        <f t="shared" si="10"/>
-        <v>880</v>
+        <f>HOUR(C90) *3600 + MINUTE(C90) * 60 + SECOND(C90)</f>
+        <v>1252</v>
       </c>
       <c r="H90" s="6">
-        <f t="shared" si="11"/>
-        <v>908</v>
+        <f>HOUR(D90) *3600 + MINUTE(D90) * 60 + SECOND(D90)</f>
+        <v>1266</v>
       </c>
       <c r="I90" s="2" t="str">
         <f>VLOOKUP(J90,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9374,44 +9315,47 @@
       </c>
       <c r="J90" s="2" t="str">
         <f>VLOOKUP(B90,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pot</v>
+        <v>kettle</v>
       </c>
       <c r="K90" s="2">
         <f>VLOOKUP(B90,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L90" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="M90" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C91" s="3">
-        <v>2.1250000000000002E-2</v>
+        <v>2.8634259259259262E-2</v>
       </c>
       <c r="D91" s="4">
-        <v>2.1967592592592594E-2</v>
+        <v>2.8796296296296296E-2</v>
       </c>
       <c r="E91" s="3">
-        <f t="shared" si="8"/>
-        <v>7.1759259259259259E-4</v>
+        <f>D91-C91</f>
+        <v>1.6203703703703345E-4</v>
       </c>
       <c r="F91" s="6">
-        <f t="shared" si="9"/>
-        <v>62</v>
+        <f>HOUR(E91) *3600 + MINUTE(E91) * 60 + SECOND(E91)</f>
+        <v>14</v>
       </c>
       <c r="G91" s="6">
-        <f t="shared" si="10"/>
-        <v>1836</v>
+        <f>HOUR(C91) *3600 + MINUTE(C91) * 60 + SECOND(C91)</f>
+        <v>2474</v>
       </c>
       <c r="H91" s="6">
-        <f t="shared" si="11"/>
-        <v>1898</v>
+        <f>HOUR(D91) *3600 + MINUTE(D91) * 60 + SECOND(D91)</f>
+        <v>2488</v>
       </c>
       <c r="I91" s="2" t="str">
         <f>VLOOKUP(J91,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9419,11 +9363,11 @@
       </c>
       <c r="J91" s="2" t="str">
         <f>VLOOKUP(B91,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>pot</v>
-      </c>
-      <c r="K91" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K91" s="2" t="str">
         <f>VLOOKUP(B91,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M91" s="2">
         <v>1</v>
@@ -9431,32 +9375,32 @@
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C92" s="3">
-        <v>2.2222222222222223E-2</v>
+        <v>9.1898148148148139E-3</v>
       </c>
       <c r="D92" s="4">
-        <v>2.4560185185185185E-2</v>
+        <v>9.3749999999999997E-3</v>
       </c>
       <c r="E92" s="3">
-        <f t="shared" si="8"/>
-        <v>2.3379629629629618E-3</v>
+        <f>D92-C92</f>
+        <v>1.851851851851858E-4</v>
       </c>
       <c r="F92" s="6">
-        <f t="shared" si="9"/>
-        <v>202</v>
+        <f>HOUR(E92) *3600 + MINUTE(E92) * 60 + SECOND(E92)</f>
+        <v>16</v>
       </c>
       <c r="G92" s="6">
-        <f t="shared" si="10"/>
-        <v>1920</v>
+        <f>HOUR(C92) *3600 + MINUTE(C92) * 60 + SECOND(C92)</f>
+        <v>794</v>
       </c>
       <c r="H92" s="6">
-        <f t="shared" si="11"/>
-        <v>2122</v>
+        <f>HOUR(D92) *3600 + MINUTE(D92) * 60 + SECOND(D92)</f>
+        <v>810</v>
       </c>
       <c r="I92" s="2" t="str">
         <f>VLOOKUP(J92,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9464,11 +9408,11 @@
       </c>
       <c r="J92" s="2" t="str">
         <f>VLOOKUP(B92,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>rSheet</v>
-      </c>
-      <c r="K92" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K92" s="2" t="str">
         <f>VLOOKUP(B92,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>1</v>
+        <v>w_1</v>
       </c>
       <c r="M92" s="2">
         <v>1</v>
@@ -9476,32 +9420,32 @@
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C93" s="3">
-        <v>1.6782407407407409E-2</v>
+        <v>1.2777777777777777E-2</v>
       </c>
       <c r="D93" s="4">
-        <v>1.7060185185185185E-2</v>
+        <v>1.2962962962962963E-2</v>
       </c>
       <c r="E93" s="3">
-        <f t="shared" si="8"/>
-        <v>2.777777777777761E-4</v>
+        <f>D93-C93</f>
+        <v>1.851851851851858E-4</v>
       </c>
       <c r="F93" s="6">
-        <f t="shared" si="9"/>
-        <v>24</v>
+        <f>HOUR(E93) *3600 + MINUTE(E93) * 60 + SECOND(E93)</f>
+        <v>16</v>
       </c>
       <c r="G93" s="6">
-        <f t="shared" si="10"/>
-        <v>1450</v>
+        <f>HOUR(C93) *3600 + MINUTE(C93) * 60 + SECOND(C93)</f>
+        <v>1104</v>
       </c>
       <c r="H93" s="6">
-        <f t="shared" si="11"/>
-        <v>1474</v>
+        <f>HOUR(D93) *3600 + MINUTE(D93) * 60 + SECOND(D93)</f>
+        <v>1120</v>
       </c>
       <c r="I93" s="2" t="str">
         <f>VLOOKUP(J93,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9509,14 +9453,11 @@
       </c>
       <c r="J93" s="2" t="str">
         <f>VLOOKUP(B93,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>rSheet</v>
-      </c>
-      <c r="K93" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K93" s="2" t="str">
         <f>VLOOKUP(B93,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>2</v>
-      </c>
-      <c r="L93" s="1" t="s">
-        <v>98</v>
+        <v>w_1</v>
       </c>
       <c r="M93" s="2">
         <v>1</v>
@@ -9524,32 +9465,32 @@
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>48</v>
+        <v>6</v>
       </c>
       <c r="C94" s="3">
-        <v>2.2222222222222222E-3</v>
+        <v>2.0324074074074074E-2</v>
       </c>
       <c r="D94" s="4">
-        <v>3.4027777777777784E-3</v>
+        <v>2.0532407407407405E-2</v>
       </c>
       <c r="E94" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1805555555555562E-3</v>
+        <f>D94-C94</f>
+        <v>2.0833333333333121E-4</v>
       </c>
       <c r="F94" s="6">
-        <f t="shared" si="9"/>
-        <v>102</v>
+        <f>HOUR(E94) *3600 + MINUTE(E94) * 60 + SECOND(E94)</f>
+        <v>18</v>
       </c>
       <c r="G94" s="6">
-        <f t="shared" si="10"/>
-        <v>192</v>
+        <f>HOUR(C94) *3600 + MINUTE(C94) * 60 + SECOND(C94)</f>
+        <v>1756</v>
       </c>
       <c r="H94" s="6">
-        <f t="shared" si="11"/>
-        <v>294</v>
+        <f>HOUR(D94) *3600 + MINUTE(D94) * 60 + SECOND(D94)</f>
+        <v>1774</v>
       </c>
       <c r="I94" s="2" t="str">
         <f>VLOOKUP(J94,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9557,62 +9498,56 @@
       </c>
       <c r="J94" s="2" t="str">
         <f>VLOOKUP(B94,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>plate</v>
       </c>
       <c r="K94" s="2">
         <f>VLOOKUP(B94,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="M94" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C95" s="4">
-        <v>3.9351851851851857E-3</v>
+        <v>88</v>
+      </c>
+      <c r="C95" s="3">
+        <v>2.7800925925925923E-2</v>
       </c>
       <c r="D95" s="4">
-        <v>8.4027777777777781E-3</v>
+        <v>2.8009259259259262E-2</v>
       </c>
       <c r="E95" s="3">
-        <f t="shared" si="8"/>
-        <v>4.4675925925925924E-3</v>
+        <f>D95-C95</f>
+        <v>2.0833333333333814E-4</v>
       </c>
       <c r="F95" s="6">
-        <f t="shared" si="9"/>
-        <v>386</v>
+        <f>HOUR(E95) *3600 + MINUTE(E95) * 60 + SECOND(E95)</f>
+        <v>18</v>
       </c>
       <c r="G95" s="6">
-        <f t="shared" si="10"/>
-        <v>340</v>
+        <f>HOUR(C95) *3600 + MINUTE(C95) * 60 + SECOND(C95)</f>
+        <v>2402</v>
       </c>
       <c r="H95" s="6">
-        <f t="shared" si="11"/>
-        <v>726</v>
+        <f>HOUR(D95) *3600 + MINUTE(D95) * 60 + SECOND(D95)</f>
+        <v>2420</v>
       </c>
       <c r="I95" s="2" t="str">
         <f>VLOOKUP(J95,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J95" s="2" t="str">
         <f>VLOOKUP(B95,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K95" s="2">
+        <v>food</v>
+      </c>
+      <c r="K95" s="2" t="str">
         <f>VLOOKUP(B95,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L95" s="1" t="s">
-        <v>97</v>
+        <v>pasta</v>
       </c>
       <c r="M95" s="2">
         <v>1</v>
@@ -9620,32 +9555,32 @@
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C96" s="3">
-        <v>8.8657407407407417E-3</v>
+        <v>2.837962962962963E-2</v>
       </c>
       <c r="D96" s="4">
-        <v>8.9814814814814809E-3</v>
+        <v>2.8587962962962964E-2</v>
       </c>
       <c r="E96" s="3">
-        <f t="shared" si="8"/>
-        <v>1.1574074074073917E-4</v>
+        <f>D96-C96</f>
+        <v>2.0833333333333467E-4</v>
       </c>
       <c r="F96" s="6">
-        <f t="shared" si="9"/>
-        <v>10</v>
+        <f>HOUR(E96) *3600 + MINUTE(E96) * 60 + SECOND(E96)</f>
+        <v>18</v>
       </c>
       <c r="G96" s="6">
-        <f t="shared" si="10"/>
-        <v>766</v>
+        <f>HOUR(C96) *3600 + MINUTE(C96) * 60 + SECOND(C96)</f>
+        <v>2452</v>
       </c>
       <c r="H96" s="6">
-        <f t="shared" si="11"/>
-        <v>776</v>
+        <f>HOUR(D96) *3600 + MINUTE(D96) * 60 + SECOND(D96)</f>
+        <v>2470</v>
       </c>
       <c r="I96" s="2" t="str">
         <f>VLOOKUP(J96,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9653,11 +9588,11 @@
       </c>
       <c r="J96" s="2" t="str">
         <f>VLOOKUP(B96,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K96" s="2">
+        <v>bowl</v>
+      </c>
+      <c r="K96" s="2" t="str">
         <f>VLOOKUP(B96,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>small_1</v>
       </c>
       <c r="M96" s="2">
         <v>1</v>
@@ -9665,32 +9600,32 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C97" s="3">
-        <v>9.1898148148148139E-3</v>
+        <v>1.0578703703703703E-2</v>
       </c>
       <c r="D97" s="4">
-        <v>9.3749999999999997E-3</v>
+        <v>1.0810185185185185E-2</v>
       </c>
       <c r="E97" s="3">
-        <f t="shared" si="8"/>
-        <v>1.851851851851858E-4</v>
+        <f>D97-C97</f>
+        <v>2.3148148148148182E-4</v>
       </c>
       <c r="F97" s="6">
-        <f t="shared" si="9"/>
-        <v>16</v>
+        <f>HOUR(E97) *3600 + MINUTE(E97) * 60 + SECOND(E97)</f>
+        <v>20</v>
       </c>
       <c r="G97" s="6">
-        <f t="shared" si="10"/>
-        <v>794</v>
+        <f>HOUR(C97) *3600 + MINUTE(C97) * 60 + SECOND(C97)</f>
+        <v>914</v>
       </c>
       <c r="H97" s="6">
-        <f t="shared" si="11"/>
-        <v>810</v>
+        <f>HOUR(D97) *3600 + MINUTE(D97) * 60 + SECOND(D97)</f>
+        <v>934</v>
       </c>
       <c r="I97" s="2" t="str">
         <f>VLOOKUP(J97,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9698,11 +9633,11 @@
       </c>
       <c r="J97" s="2" t="str">
         <f>VLOOKUP(B97,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K97" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K97" s="2" t="str">
         <f>VLOOKUP(B97,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M97" s="2">
         <v>1</v>
@@ -9710,32 +9645,32 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="C98" s="3">
-        <v>1.0578703703703703E-2</v>
+        <v>2.4976851851851851E-2</v>
       </c>
       <c r="D98" s="4">
-        <v>1.0810185185185185E-2</v>
+        <v>2.5208333333333333E-2</v>
       </c>
       <c r="E98" s="3">
-        <f t="shared" ref="E98:E129" si="12">D98-C98</f>
+        <f>D98-C98</f>
         <v>2.3148148148148182E-4</v>
       </c>
       <c r="F98" s="6">
-        <f t="shared" ref="F98:F129" si="13">HOUR(E98) *3600 + MINUTE(E98) * 60 + SECOND(E98)</f>
+        <f>HOUR(E98) *3600 + MINUTE(E98) * 60 + SECOND(E98)</f>
         <v>20</v>
       </c>
       <c r="G98" s="6">
-        <f t="shared" ref="G98:G129" si="14">HOUR(C98) *3600 + MINUTE(C98) * 60 + SECOND(C98)</f>
-        <v>914</v>
+        <f>HOUR(C98) *3600 + MINUTE(C98) * 60 + SECOND(C98)</f>
+        <v>2158</v>
       </c>
       <c r="H98" s="6">
-        <f t="shared" ref="H98:H129" si="15">HOUR(D98) *3600 + MINUTE(D98) * 60 + SECOND(D98)</f>
-        <v>934</v>
+        <f>HOUR(D98) *3600 + MINUTE(D98) * 60 + SECOND(D98)</f>
+        <v>2178</v>
       </c>
       <c r="I98" s="2" t="str">
         <f>VLOOKUP(J98,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9743,11 +9678,11 @@
       </c>
       <c r="J98" s="2" t="str">
         <f>VLOOKUP(B98,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K98" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K98" s="2" t="str">
         <f>VLOOKUP(B98,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
       </c>
       <c r="M98" s="2">
         <v>1</v>
@@ -9755,32 +9690,32 @@
     </row>
     <row r="99" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
-        <v>50</v>
+        <v>131</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="C99" s="3">
-        <v>1.1597222222222222E-2</v>
+        <v>2.8055555555555556E-2</v>
       </c>
       <c r="D99" s="4">
-        <v>1.1875000000000002E-2</v>
+        <v>2.8287037037037038E-2</v>
       </c>
       <c r="E99" s="3">
-        <f t="shared" si="12"/>
-        <v>2.7777777777777957E-4</v>
+        <f>D99-C99</f>
+        <v>2.3148148148148182E-4</v>
       </c>
       <c r="F99" s="6">
-        <f t="shared" si="13"/>
-        <v>24</v>
+        <f>HOUR(E99) *3600 + MINUTE(E99) * 60 + SECOND(E99)</f>
+        <v>20</v>
       </c>
       <c r="G99" s="6">
-        <f t="shared" si="14"/>
-        <v>1002</v>
+        <f>HOUR(C99) *3600 + MINUTE(C99) * 60 + SECOND(C99)</f>
+        <v>2424</v>
       </c>
       <c r="H99" s="6">
-        <f t="shared" si="15"/>
-        <v>1026</v>
+        <f>HOUR(D99) *3600 + MINUTE(D99) * 60 + SECOND(D99)</f>
+        <v>2444</v>
       </c>
       <c r="I99" s="2" t="str">
         <f>VLOOKUP(J99,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9788,7 +9723,7 @@
       </c>
       <c r="J99" s="2" t="str">
         <f>VLOOKUP(B99,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>pot</v>
       </c>
       <c r="K99" s="2">
         <f>VLOOKUP(B99,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -9800,32 +9735,32 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
-        <v>57</v>
+        <v>135</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C100" s="3">
-        <v>1.2777777777777777E-2</v>
+        <v>2.8587962962962964E-2</v>
       </c>
       <c r="D100" s="4">
-        <v>1.2962962962962963E-2</v>
+        <v>2.8819444444444443E-2</v>
       </c>
       <c r="E100" s="3">
-        <f t="shared" si="12"/>
-        <v>1.851851851851858E-4</v>
+        <f>D100-C100</f>
+        <v>2.3148148148147835E-4</v>
       </c>
       <c r="F100" s="6">
-        <f t="shared" si="13"/>
-        <v>16</v>
+        <f>HOUR(E100) *3600 + MINUTE(E100) * 60 + SECOND(E100)</f>
+        <v>20</v>
       </c>
       <c r="G100" s="6">
-        <f t="shared" si="14"/>
-        <v>1104</v>
+        <f>HOUR(C100) *3600 + MINUTE(C100) * 60 + SECOND(C100)</f>
+        <v>2470</v>
       </c>
       <c r="H100" s="6">
-        <f t="shared" si="15"/>
-        <v>1120</v>
+        <f>HOUR(D100) *3600 + MINUTE(D100) * 60 + SECOND(D100)</f>
+        <v>2490</v>
       </c>
       <c r="I100" s="2" t="str">
         <f>VLOOKUP(J100,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9833,11 +9768,11 @@
       </c>
       <c r="J100" s="2" t="str">
         <f>VLOOKUP(B100,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K100" s="2">
+        <v>bowl</v>
+      </c>
+      <c r="K100" s="2" t="str">
         <f>VLOOKUP(B100,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>small_2</v>
       </c>
       <c r="M100" s="2">
         <v>1</v>
@@ -9845,44 +9780,44 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C101" s="3">
-        <v>1.3356481481481483E-2</v>
+        <v>2.3587962962962963E-2</v>
       </c>
       <c r="D101" s="4">
-        <v>1.3472222222222221E-2</v>
+        <v>2.3842592592592596E-2</v>
       </c>
       <c r="E101" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1574074074073744E-4</v>
+        <f>D101-C101</f>
+        <v>2.5462962962963243E-4</v>
       </c>
       <c r="F101" s="6">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>HOUR(E101) *3600 + MINUTE(E101) * 60 + SECOND(E101)</f>
+        <v>22</v>
       </c>
       <c r="G101" s="6">
-        <f t="shared" si="14"/>
-        <v>1154</v>
+        <f>HOUR(C101) *3600 + MINUTE(C101) * 60 + SECOND(C101)</f>
+        <v>2038</v>
       </c>
       <c r="H101" s="6">
-        <f t="shared" si="15"/>
-        <v>1164</v>
+        <f>HOUR(D101) *3600 + MINUTE(D101) * 60 + SECOND(D101)</f>
+        <v>2060</v>
       </c>
       <c r="I101" s="2" t="str">
         <f>VLOOKUP(J101,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J101" s="2" t="str">
         <f>VLOOKUP(B101,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K101" s="2">
+        <v>food</v>
+      </c>
+      <c r="K101" s="2" t="str">
         <f>VLOOKUP(B101,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>pasta</v>
       </c>
       <c r="M101" s="2">
         <v>1</v>
@@ -9890,47 +9825,47 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C102" s="3">
-        <v>1.3912037037037037E-2</v>
+        <v>1.0162037037037037E-2</v>
       </c>
       <c r="D102" s="4">
-        <v>1.4027777777777778E-2</v>
+        <v>1.0439814814814813E-2</v>
       </c>
       <c r="E102" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1574074074074091E-4</v>
+        <f>D102-C102</f>
+        <v>2.777777777777761E-4</v>
       </c>
       <c r="F102" s="6">
-        <f t="shared" si="13"/>
-        <v>10</v>
+        <f>HOUR(E102) *3600 + MINUTE(E102) * 60 + SECOND(E102)</f>
+        <v>24</v>
       </c>
       <c r="G102" s="6">
-        <f t="shared" si="14"/>
-        <v>1202</v>
+        <f>HOUR(C102) *3600 + MINUTE(C102) * 60 + SECOND(C102)</f>
+        <v>878</v>
       </c>
       <c r="H102" s="6">
-        <f t="shared" si="15"/>
-        <v>1212</v>
+        <f>HOUR(D102) *3600 + MINUTE(D102) * 60 + SECOND(D102)</f>
+        <v>902</v>
       </c>
       <c r="I102" s="2" t="str">
         <f>VLOOKUP(J102,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J102" s="2" t="str">
         <f>VLOOKUP(B102,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K102" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K102" s="2" t="str">
         <f>VLOOKUP(B102,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>a_co_1</v>
       </c>
       <c r="L102" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M102" s="2">
         <v>1</v>
@@ -9938,32 +9873,32 @@
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C103" s="3">
-        <v>1.4699074074074074E-2</v>
+        <v>1.1597222222222222E-2</v>
       </c>
       <c r="D103" s="4">
-        <v>1.4976851851851852E-2</v>
+        <v>1.1875000000000002E-2</v>
       </c>
       <c r="E103" s="3">
-        <f t="shared" si="12"/>
-        <v>2.7777777777777783E-4</v>
+        <f>D103-C103</f>
+        <v>2.7777777777777957E-4</v>
       </c>
       <c r="F103" s="6">
-        <f t="shared" si="13"/>
+        <f>HOUR(E103) *3600 + MINUTE(E103) * 60 + SECOND(E103)</f>
         <v>24</v>
       </c>
       <c r="G103" s="6">
-        <f t="shared" si="14"/>
-        <v>1270</v>
+        <f>HOUR(C103) *3600 + MINUTE(C103) * 60 + SECOND(C103)</f>
+        <v>1002</v>
       </c>
       <c r="H103" s="6">
-        <f t="shared" si="15"/>
-        <v>1294</v>
+        <f>HOUR(D103) *3600 + MINUTE(D103) * 60 + SECOND(D103)</f>
+        <v>1026</v>
       </c>
       <c r="I103" s="2" t="str">
         <f>VLOOKUP(J103,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -9971,11 +9906,11 @@
       </c>
       <c r="J103" s="2" t="str">
         <f>VLOOKUP(B103,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K103" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K103" s="2" t="str">
         <f>VLOOKUP(B103,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M103" s="2">
         <v>1</v>
@@ -9983,44 +9918,44 @@
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>48</v>
+        <v>88</v>
       </c>
       <c r="C104" s="3">
-        <v>1.5092592592592593E-2</v>
+        <v>1.4513888888888889E-2</v>
       </c>
       <c r="D104" s="4">
-        <v>1.5740740740740743E-2</v>
+        <v>1.4791666666666668E-2</v>
       </c>
       <c r="E104" s="3">
-        <f t="shared" si="12"/>
-        <v>6.4814814814814943E-4</v>
+        <f>D104-C104</f>
+        <v>2.7777777777777957E-4</v>
       </c>
       <c r="F104" s="6">
-        <f t="shared" si="13"/>
-        <v>56</v>
+        <f>HOUR(E104) *3600 + MINUTE(E104) * 60 + SECOND(E104)</f>
+        <v>24</v>
       </c>
       <c r="G104" s="6">
-        <f t="shared" si="14"/>
-        <v>1304</v>
+        <f>HOUR(C104) *3600 + MINUTE(C104) * 60 + SECOND(C104)</f>
+        <v>1254</v>
       </c>
       <c r="H104" s="6">
-        <f t="shared" si="15"/>
-        <v>1360</v>
+        <f>HOUR(D104) *3600 + MINUTE(D104) * 60 + SECOND(D104)</f>
+        <v>1278</v>
       </c>
       <c r="I104" s="2" t="str">
         <f>VLOOKUP(J104,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J104" s="2" t="str">
         <f>VLOOKUP(B104,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K104" s="2">
+        <v>food</v>
+      </c>
+      <c r="K104" s="2" t="str">
         <f>VLOOKUP(B104,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>pasta</v>
       </c>
       <c r="M104" s="2">
         <v>1</v>
@@ -10028,32 +9963,32 @@
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C105" s="3">
-        <v>1.5300925925925926E-2</v>
+        <v>1.4699074074074074E-2</v>
       </c>
       <c r="D105" s="4">
-        <v>1.5763888888888886E-2</v>
+        <v>1.4976851851851852E-2</v>
       </c>
       <c r="E105" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6296296296296016E-4</v>
+        <f>D105-C105</f>
+        <v>2.7777777777777783E-4</v>
       </c>
       <c r="F105" s="6">
-        <f t="shared" si="13"/>
-        <v>40</v>
+        <f>HOUR(E105) *3600 + MINUTE(E105) * 60 + SECOND(E105)</f>
+        <v>24</v>
       </c>
       <c r="G105" s="6">
-        <f t="shared" si="14"/>
-        <v>1322</v>
+        <f>HOUR(C105) *3600 + MINUTE(C105) * 60 + SECOND(C105)</f>
+        <v>1270</v>
       </c>
       <c r="H105" s="6">
-        <f t="shared" si="15"/>
-        <v>1362</v>
+        <f>HOUR(D105) *3600 + MINUTE(D105) * 60 + SECOND(D105)</f>
+        <v>1294</v>
       </c>
       <c r="I105" s="2" t="str">
         <f>VLOOKUP(J105,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10061,11 +9996,11 @@
       </c>
       <c r="J105" s="2" t="str">
         <f>VLOOKUP(B105,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K105" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K105" s="2" t="str">
         <f>VLOOKUP(B105,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M105" s="2">
         <v>1</v>
@@ -10073,32 +10008,32 @@
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C106" s="3">
-        <v>1.7731481481481483E-2</v>
+        <v>1.6782407407407409E-2</v>
       </c>
       <c r="D106" s="4">
-        <v>1.8032407407407407E-2</v>
+        <v>1.7060185185185185E-2</v>
       </c>
       <c r="E106" s="3">
-        <f t="shared" si="12"/>
-        <v>3.0092592592592324E-4</v>
+        <f>D106-C106</f>
+        <v>2.777777777777761E-4</v>
       </c>
       <c r="F106" s="6">
-        <f t="shared" si="13"/>
-        <v>26</v>
+        <f>HOUR(E106) *3600 + MINUTE(E106) * 60 + SECOND(E106)</f>
+        <v>24</v>
       </c>
       <c r="G106" s="6">
-        <f t="shared" si="14"/>
-        <v>1532</v>
+        <f>HOUR(C106) *3600 + MINUTE(C106) * 60 + SECOND(C106)</f>
+        <v>1450</v>
       </c>
       <c r="H106" s="6">
-        <f t="shared" si="15"/>
-        <v>1558</v>
+        <f>HOUR(D106) *3600 + MINUTE(D106) * 60 + SECOND(D106)</f>
+        <v>1474</v>
       </c>
       <c r="I106" s="2" t="str">
         <f>VLOOKUP(J106,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10112,38 +10047,41 @@
         <f>VLOOKUP(B106,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L106" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="M106" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C107" s="3">
-        <v>1.9120370370370371E-2</v>
+        <v>1.7731481481481483E-2</v>
       </c>
       <c r="D107" s="4">
-        <v>1.9189814814814816E-2</v>
+        <v>1.8032407407407407E-2</v>
       </c>
       <c r="E107" s="3">
-        <f t="shared" si="12"/>
-        <v>6.9444444444444892E-5</v>
+        <f>D107-C107</f>
+        <v>3.0092592592592324E-4</v>
       </c>
       <c r="F107" s="6">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f>HOUR(E107) *3600 + MINUTE(E107) * 60 + SECOND(E107)</f>
+        <v>26</v>
       </c>
       <c r="G107" s="6">
-        <f t="shared" si="14"/>
-        <v>1652</v>
+        <f>HOUR(C107) *3600 + MINUTE(C107) * 60 + SECOND(C107)</f>
+        <v>1532</v>
       </c>
       <c r="H107" s="6">
-        <f t="shared" si="15"/>
-        <v>1658</v>
+        <f>HOUR(D107) *3600 + MINUTE(D107) * 60 + SECOND(D107)</f>
+        <v>1558</v>
       </c>
       <c r="I107" s="2" t="str">
         <f>VLOOKUP(J107,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10151,11 +10089,11 @@
       </c>
       <c r="J107" s="2" t="str">
         <f>VLOOKUP(B107,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K107" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K107" s="2" t="str">
         <f>VLOOKUP(B107,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M107" s="2">
         <v>1</v>
@@ -10163,32 +10101,32 @@
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C108" s="3">
-        <v>1.9282407407407408E-2</v>
+        <v>1.9976851851851853E-2</v>
       </c>
       <c r="D108" s="4">
-        <v>1.9861111111111111E-2</v>
+        <v>2.0277777777777777E-2</v>
       </c>
       <c r="E108" s="3">
-        <f t="shared" si="12"/>
-        <v>5.787037037037028E-4</v>
+        <f>D108-C108</f>
+        <v>3.0092592592592324E-4</v>
       </c>
       <c r="F108" s="6">
-        <f t="shared" si="13"/>
-        <v>50</v>
+        <f>HOUR(E108) *3600 + MINUTE(E108) * 60 + SECOND(E108)</f>
+        <v>26</v>
       </c>
       <c r="G108" s="6">
-        <f t="shared" si="14"/>
-        <v>1666</v>
+        <f>HOUR(C108) *3600 + MINUTE(C108) * 60 + SECOND(C108)</f>
+        <v>1726</v>
       </c>
       <c r="H108" s="6">
-        <f t="shared" si="15"/>
-        <v>1716</v>
+        <f>HOUR(D108) *3600 + MINUTE(D108) * 60 + SECOND(D108)</f>
+        <v>1752</v>
       </c>
       <c r="I108" s="2" t="str">
         <f>VLOOKUP(J108,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10196,11 +10134,11 @@
       </c>
       <c r="J108" s="2" t="str">
         <f>VLOOKUP(B108,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K108" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K108" s="2" t="str">
         <f>VLOOKUP(B108,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M108" s="2">
         <v>1</v>
@@ -10208,32 +10146,32 @@
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="C109" s="3">
-        <v>1.9976851851851853E-2</v>
+        <v>2.7731481481481478E-2</v>
       </c>
       <c r="D109" s="4">
-        <v>2.0277777777777777E-2</v>
+        <v>2.8032407407407409E-2</v>
       </c>
       <c r="E109" s="3">
-        <f t="shared" si="12"/>
-        <v>3.0092592592592324E-4</v>
+        <f>D109-C109</f>
+        <v>3.0092592592593018E-4</v>
       </c>
       <c r="F109" s="6">
-        <f t="shared" si="13"/>
+        <f>HOUR(E109) *3600 + MINUTE(E109) * 60 + SECOND(E109)</f>
         <v>26</v>
       </c>
       <c r="G109" s="6">
-        <f t="shared" si="14"/>
-        <v>1726</v>
+        <f>HOUR(C109) *3600 + MINUTE(C109) * 60 + SECOND(C109)</f>
+        <v>2396</v>
       </c>
       <c r="H109" s="6">
-        <f t="shared" si="15"/>
-        <v>1752</v>
+        <f>HOUR(D109) *3600 + MINUTE(D109) * 60 + SECOND(D109)</f>
+        <v>2422</v>
       </c>
       <c r="I109" s="2" t="str">
         <f>VLOOKUP(J109,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10241,11 +10179,11 @@
       </c>
       <c r="J109" s="2" t="str">
         <f>VLOOKUP(B109,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K109" s="2">
+        <v>bowl</v>
+      </c>
+      <c r="K109" s="2" t="str">
         <f>VLOOKUP(B109,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>small_2</v>
       </c>
       <c r="M109" s="2">
         <v>1</v>
@@ -10253,32 +10191,32 @@
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
-        <v>111</v>
+        <v>39</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C110" s="3">
-        <v>2.2708333333333334E-2</v>
+        <v>1.0185185185185184E-2</v>
       </c>
       <c r="D110" s="4">
-        <v>2.2800925925925929E-2</v>
+        <v>1.050925925925926E-2</v>
       </c>
       <c r="E110" s="3">
-        <f t="shared" si="12"/>
-        <v>9.2592592592595502E-5</v>
+        <f>D110-C110</f>
+        <v>3.2407407407407558E-4</v>
       </c>
       <c r="F110" s="6">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f>HOUR(E110) *3600 + MINUTE(E110) * 60 + SECOND(E110)</f>
+        <v>28</v>
       </c>
       <c r="G110" s="6">
-        <f t="shared" si="14"/>
-        <v>1962</v>
+        <f>HOUR(C110) *3600 + MINUTE(C110) * 60 + SECOND(C110)</f>
+        <v>880</v>
       </c>
       <c r="H110" s="6">
-        <f t="shared" si="15"/>
-        <v>1970</v>
+        <f>HOUR(D110) *3600 + MINUTE(D110) * 60 + SECOND(D110)</f>
+        <v>908</v>
       </c>
       <c r="I110" s="2" t="str">
         <f>VLOOKUP(J110,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10286,11 +10224,11 @@
       </c>
       <c r="J110" s="2" t="str">
         <f>VLOOKUP(B110,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>rSheet</v>
       </c>
       <c r="K110" s="2">
         <f>VLOOKUP(B110,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M110" s="2">
         <v>1</v>
@@ -10298,44 +10236,44 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
-        <v>112</v>
+        <v>61</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C111" s="3">
-        <v>2.314814814814815E-2</v>
+        <v>1.3541666666666667E-2</v>
       </c>
       <c r="D111" s="4">
-        <v>2.3217592592592592E-2</v>
+        <v>1.3865740740740739E-2</v>
       </c>
       <c r="E111" s="3">
-        <f t="shared" si="12"/>
-        <v>6.9444444444441422E-5</v>
+        <f>D111-C111</f>
+        <v>3.2407407407407211E-4</v>
       </c>
       <c r="F111" s="6">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f>HOUR(E111) *3600 + MINUTE(E111) * 60 + SECOND(E111)</f>
+        <v>28</v>
       </c>
       <c r="G111" s="6">
-        <f t="shared" si="14"/>
-        <v>2000</v>
+        <f>HOUR(C111) *3600 + MINUTE(C111) * 60 + SECOND(C111)</f>
+        <v>1170</v>
       </c>
       <c r="H111" s="6">
-        <f t="shared" si="15"/>
-        <v>2006</v>
+        <f>HOUR(D111) *3600 + MINUTE(D111) * 60 + SECOND(D111)</f>
+        <v>1198</v>
       </c>
       <c r="I111" s="2" t="str">
         <f>VLOOKUP(J111,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J111" s="2" t="str">
         <f>VLOOKUP(B111,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K111" s="2">
+        <v>tomatoesProcessed</v>
+      </c>
+      <c r="K111" s="2" t="str">
         <f>VLOOKUP(B111,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>tomatoesPaste</v>
       </c>
       <c r="M111" s="2">
         <v>1</v>
@@ -10343,32 +10281,32 @@
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C112" s="3">
-        <v>2.3356481481481482E-2</v>
+        <v>2.342592592592593E-2</v>
       </c>
       <c r="D112" s="4">
-        <v>2.3379629629629629E-2</v>
+        <v>2.3750000000000004E-2</v>
       </c>
       <c r="E112" s="3">
-        <f t="shared" si="12"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D112-C112</f>
+        <v>3.2407407407407385E-4</v>
       </c>
       <c r="F112" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E112) *3600 + MINUTE(E112) * 60 + SECOND(E112)</f>
+        <v>28</v>
       </c>
       <c r="G112" s="6">
-        <f t="shared" si="14"/>
-        <v>2018</v>
+        <f>HOUR(C112) *3600 + MINUTE(C112) * 60 + SECOND(C112)</f>
+        <v>2024</v>
       </c>
       <c r="H112" s="6">
-        <f t="shared" si="15"/>
-        <v>2020</v>
+        <f>HOUR(D112) *3600 + MINUTE(D112) * 60 + SECOND(D112)</f>
+        <v>2052</v>
       </c>
       <c r="I112" s="2" t="str">
         <f>VLOOKUP(J112,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10376,11 +10314,11 @@
       </c>
       <c r="J112" s="2" t="str">
         <f>VLOOKUP(B112,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K112" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K112" s="2" t="str">
         <f>VLOOKUP(B112,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M112" s="2">
         <v>1</v>
@@ -10388,44 +10326,44 @@
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
-        <v>114</v>
+        <v>81</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="C113" s="3">
-        <v>2.342592592592593E-2</v>
+        <v>1.6666666666666666E-2</v>
       </c>
       <c r="D113" s="4">
-        <v>2.3750000000000004E-2</v>
+        <v>1.7013888888888887E-2</v>
       </c>
       <c r="E113" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2407407407407385E-4</v>
+        <f>D113-C113</f>
+        <v>3.4722222222222099E-4</v>
       </c>
       <c r="F113" s="6">
-        <f t="shared" si="13"/>
-        <v>28</v>
+        <f>HOUR(E113) *3600 + MINUTE(E113) * 60 + SECOND(E113)</f>
+        <v>30</v>
       </c>
       <c r="G113" s="6">
-        <f t="shared" si="14"/>
-        <v>2024</v>
+        <f>HOUR(C113) *3600 + MINUTE(C113) * 60 + SECOND(C113)</f>
+        <v>1440</v>
       </c>
       <c r="H113" s="6">
-        <f t="shared" si="15"/>
-        <v>2052</v>
+        <f>HOUR(D113) *3600 + MINUTE(D113) * 60 + SECOND(D113)</f>
+        <v>1470</v>
       </c>
       <c r="I113" s="2" t="str">
         <f>VLOOKUP(J113,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J113" s="2" t="str">
         <f>VLOOKUP(B113,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K113" s="2">
+        <v>cheese</v>
+      </c>
+      <c r="K113" s="2" t="str">
         <f>VLOOKUP(B113,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>cheedar</v>
       </c>
       <c r="M113" s="2">
         <v>1</v>
@@ -10433,40 +10371,40 @@
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
-        <v>117</v>
+        <v>30</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="C114" s="3">
-        <v>2.479166666666667E-2</v>
+        <v>8.5879629629629622E-3</v>
       </c>
       <c r="D114" s="4">
-        <v>2.4884259259259259E-2</v>
+        <v>9.0046296296296298E-3</v>
       </c>
       <c r="E114" s="3">
-        <f t="shared" si="12"/>
-        <v>9.2592592592588563E-5</v>
+        <f>D114-C114</f>
+        <v>4.1666666666666761E-4</v>
       </c>
       <c r="F114" s="6">
-        <f t="shared" si="13"/>
-        <v>8</v>
+        <f>HOUR(E114) *3600 + MINUTE(E114) * 60 + SECOND(E114)</f>
+        <v>36</v>
       </c>
       <c r="G114" s="6">
-        <f t="shared" si="14"/>
-        <v>2142</v>
+        <f>HOUR(C114) *3600 + MINUTE(C114) * 60 + SECOND(C114)</f>
+        <v>742</v>
       </c>
       <c r="H114" s="6">
-        <f t="shared" si="15"/>
-        <v>2150</v>
+        <f>HOUR(D114) *3600 + MINUTE(D114) * 60 + SECOND(D114)</f>
+        <v>778</v>
       </c>
       <c r="I114" s="2" t="str">
         <f>VLOOKUP(J114,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J114" s="2" t="str">
         <f>VLOOKUP(B114,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>bouillon</v>
       </c>
       <c r="K114" s="2">
         <f>VLOOKUP(B114,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -10478,85 +10416,88 @@
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
-        <v>119</v>
+        <v>34</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="C115" s="3">
-        <v>2.5555555555555554E-2</v>
+        <v>9.0509259259259258E-3</v>
       </c>
       <c r="D115" s="4">
-        <v>2.5601851851851851E-2</v>
+        <v>9.4675925925925917E-3</v>
       </c>
       <c r="E115" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6296296296297751E-5</v>
+        <f>D115-C115</f>
+        <v>4.1666666666666588E-4</v>
       </c>
       <c r="F115" s="6">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f>HOUR(E115) *3600 + MINUTE(E115) * 60 + SECOND(E115)</f>
+        <v>36</v>
       </c>
       <c r="G115" s="6">
-        <f t="shared" si="14"/>
-        <v>2208</v>
+        <f>HOUR(C115) *3600 + MINUTE(C115) * 60 + SECOND(C115)</f>
+        <v>782</v>
       </c>
       <c r="H115" s="6">
-        <f t="shared" si="15"/>
-        <v>2212</v>
+        <f>HOUR(D115) *3600 + MINUTE(D115) * 60 + SECOND(D115)</f>
+        <v>818</v>
       </c>
       <c r="I115" s="2" t="str">
         <f>VLOOKUP(J115,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J115" s="2" t="str">
         <f>VLOOKUP(B115,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>wine</v>
       </c>
       <c r="K115" s="2">
         <f>VLOOKUP(B115,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
         <v>0</v>
       </c>
+      <c r="L115" s="1" t="s">
+        <v>99</v>
+      </c>
       <c r="M115" s="2">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C116" s="3">
-        <v>2.6296296296296293E-2</v>
+        <v>1.4050925925925927E-2</v>
       </c>
       <c r="D116" s="4">
-        <v>2.631944444444444E-2</v>
+        <v>1.4467592592592593E-2</v>
       </c>
       <c r="E116" s="3">
-        <f t="shared" si="12"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D116-C116</f>
+        <v>4.1666666666666588E-4</v>
       </c>
       <c r="F116" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E116) *3600 + MINUTE(E116) * 60 + SECOND(E116)</f>
+        <v>36</v>
       </c>
       <c r="G116" s="6">
-        <f t="shared" si="14"/>
-        <v>2272</v>
+        <f>HOUR(C116) *3600 + MINUTE(C116) * 60 + SECOND(C116)</f>
+        <v>1214</v>
       </c>
       <c r="H116" s="6">
-        <f t="shared" si="15"/>
-        <v>2274</v>
+        <f>HOUR(D116) *3600 + MINUTE(D116) * 60 + SECOND(D116)</f>
+        <v>1250</v>
       </c>
       <c r="I116" s="2" t="str">
         <f>VLOOKUP(J116,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J116" s="2" t="str">
         <f>VLOOKUP(B116,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>spaghetti</v>
       </c>
       <c r="K116" s="2">
         <f>VLOOKUP(B116,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -10568,40 +10509,40 @@
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C117" s="4">
-        <v>2.6458333333333334E-2</v>
+        <v>72</v>
+      </c>
+      <c r="C117" s="3">
+        <v>9.5370370370370366E-3</v>
       </c>
       <c r="D117" s="4">
-        <v>2.6898148148148147E-2</v>
+        <v>9.9768518518518531E-3</v>
       </c>
       <c r="E117" s="3">
-        <f t="shared" si="12"/>
-        <v>4.3981481481481302E-4</v>
+        <f>D117-C117</f>
+        <v>4.3981481481481649E-4</v>
       </c>
       <c r="F117" s="6">
-        <f t="shared" si="13"/>
+        <f>HOUR(E117) *3600 + MINUTE(E117) * 60 + SECOND(E117)</f>
         <v>38</v>
       </c>
       <c r="G117" s="6">
-        <f t="shared" si="14"/>
-        <v>2286</v>
+        <f>HOUR(C117) *3600 + MINUTE(C117) * 60 + SECOND(C117)</f>
+        <v>824</v>
       </c>
       <c r="H117" s="6">
-        <f t="shared" si="15"/>
-        <v>2324</v>
+        <f>HOUR(D117) *3600 + MINUTE(D117) * 60 + SECOND(D117)</f>
+        <v>862</v>
       </c>
       <c r="I117" s="2" t="str">
         <f>VLOOKUP(J117,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J117" s="2" t="str">
         <f>VLOOKUP(B117,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
+        <v>kitchenRoll</v>
       </c>
       <c r="K117" s="2">
         <f>VLOOKUP(B117,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -10613,32 +10554,32 @@
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C118" s="3">
-        <v>2.8425925925925924E-2</v>
+      <c r="C118" s="4">
+        <v>2.6458333333333334E-2</v>
       </c>
       <c r="D118" s="4">
-        <v>2.8564814814814817E-2</v>
+        <v>2.6898148148148147E-2</v>
       </c>
       <c r="E118" s="3">
-        <f t="shared" si="12"/>
-        <v>1.3888888888889325E-4</v>
+        <f>D118-C118</f>
+        <v>4.3981481481481302E-4</v>
       </c>
       <c r="F118" s="6">
-        <f t="shared" si="13"/>
-        <v>12</v>
+        <f>HOUR(E118) *3600 + MINUTE(E118) * 60 + SECOND(E118)</f>
+        <v>38</v>
       </c>
       <c r="G118" s="6">
-        <f t="shared" si="14"/>
-        <v>2456</v>
+        <f>HOUR(C118) *3600 + MINUTE(C118) * 60 + SECOND(C118)</f>
+        <v>2286</v>
       </c>
       <c r="H118" s="6">
-        <f t="shared" si="15"/>
-        <v>2468</v>
+        <f>HOUR(D118) *3600 + MINUTE(D118) * 60 + SECOND(D118)</f>
+        <v>2324</v>
       </c>
       <c r="I118" s="2" t="str">
         <f>VLOOKUP(J118,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10646,11 +10587,11 @@
       </c>
       <c r="J118" s="2" t="str">
         <f>VLOOKUP(B118,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K118" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K118" s="2" t="str">
         <f>VLOOKUP(B118,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M118" s="2">
         <v>1</v>
@@ -10658,32 +10599,32 @@
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="C119" s="3">
-        <v>2.8634259259259262E-2</v>
+        <v>2.7268518518518515E-2</v>
       </c>
       <c r="D119" s="4">
-        <v>2.8796296296296296E-2</v>
+        <v>2.7708333333333331E-2</v>
       </c>
       <c r="E119" s="3">
-        <f t="shared" si="12"/>
-        <v>1.6203703703703345E-4</v>
+        <f>D119-C119</f>
+        <v>4.3981481481481649E-4</v>
       </c>
       <c r="F119" s="6">
-        <f t="shared" si="13"/>
-        <v>14</v>
+        <f>HOUR(E119) *3600 + MINUTE(E119) * 60 + SECOND(E119)</f>
+        <v>38</v>
       </c>
       <c r="G119" s="6">
-        <f t="shared" si="14"/>
-        <v>2474</v>
+        <f>HOUR(C119) *3600 + MINUTE(C119) * 60 + SECOND(C119)</f>
+        <v>2356</v>
       </c>
       <c r="H119" s="6">
-        <f t="shared" si="15"/>
-        <v>2488</v>
+        <f>HOUR(D119) *3600 + MINUTE(D119) * 60 + SECOND(D119)</f>
+        <v>2394</v>
       </c>
       <c r="I119" s="2" t="str">
         <f>VLOOKUP(J119,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10691,11 +10632,11 @@
       </c>
       <c r="J119" s="2" t="str">
         <f>VLOOKUP(B119,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>scissors</v>
-      </c>
-      <c r="K119" s="2">
+        <v>bowl</v>
+      </c>
+      <c r="K119" s="2" t="str">
         <f>VLOOKUP(B119,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>small_1</v>
       </c>
       <c r="M119" s="2">
         <v>1</v>
@@ -10703,44 +10644,47 @@
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>126</v>
+        <v>37</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C120" s="3">
-        <v>2.7199074074074073E-2</v>
+        <v>9.6527777777777775E-3</v>
       </c>
       <c r="D120" s="4">
-        <v>2.837962962962963E-2</v>
+        <v>1.0115740740740741E-2</v>
       </c>
       <c r="E120" s="3">
-        <f t="shared" si="12"/>
-        <v>1.1805555555555562E-3</v>
+        <f>D120-C120</f>
+        <v>4.6296296296296363E-4</v>
       </c>
       <c r="F120" s="6">
-        <f t="shared" si="13"/>
-        <v>102</v>
+        <f>HOUR(E120) *3600 + MINUTE(E120) * 60 + SECOND(E120)</f>
+        <v>40</v>
       </c>
       <c r="G120" s="6">
-        <f t="shared" si="14"/>
-        <v>2350</v>
+        <f>HOUR(C120) *3600 + MINUTE(C120) * 60 + SECOND(C120)</f>
+        <v>834</v>
       </c>
       <c r="H120" s="6">
-        <f t="shared" si="15"/>
-        <v>2452</v>
+        <f>HOUR(D120) *3600 + MINUTE(D120) * 60 + SECOND(D120)</f>
+        <v>874</v>
       </c>
       <c r="I120" s="2" t="str">
         <f>VLOOKUP(J120,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>e</v>
+        <v>u</v>
       </c>
       <c r="J120" s="2" t="str">
         <f>VLOOKUP(B120,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>stove</v>
-      </c>
-      <c r="K120" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K120" s="2" t="str">
         <f>VLOOKUP(B120,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="M120" s="2">
         <v>1</v>
@@ -10748,32 +10692,32 @@
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C121" s="3">
-        <v>1.8750000000000001E-3</v>
+        <v>1.5300925925925926E-2</v>
       </c>
       <c r="D121" s="4">
-        <v>2.6990740740740742E-2</v>
+        <v>1.5763888888888886E-2</v>
       </c>
       <c r="E121" s="3">
-        <f t="shared" si="12"/>
-        <v>2.5115740740740741E-2</v>
+        <f>D121-C121</f>
+        <v>4.6296296296296016E-4</v>
       </c>
       <c r="F121" s="6">
-        <f t="shared" si="13"/>
-        <v>2170</v>
+        <f>HOUR(E121) *3600 + MINUTE(E121) * 60 + SECOND(E121)</f>
+        <v>40</v>
       </c>
       <c r="G121" s="6">
-        <f t="shared" si="14"/>
-        <v>162</v>
+        <f>HOUR(C121) *3600 + MINUTE(C121) * 60 + SECOND(C121)</f>
+        <v>1322</v>
       </c>
       <c r="H121" s="6">
-        <f t="shared" si="15"/>
-        <v>2332</v>
+        <f>HOUR(D121) *3600 + MINUTE(D121) * 60 + SECOND(D121)</f>
+        <v>1362</v>
       </c>
       <c r="I121" s="2" t="str">
         <f>VLOOKUP(J121,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -10781,11 +10725,11 @@
       </c>
       <c r="J121" s="2" t="str">
         <f>VLOOKUP(B121,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>strainer</v>
-      </c>
-      <c r="K121" s="2">
+        <v>cookingSpoon</v>
+      </c>
+      <c r="K121" s="2" t="str">
         <f>VLOOKUP(B121,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>w_1</v>
       </c>
       <c r="M121" s="2">
         <v>1</v>
@@ -10793,47 +10737,44 @@
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C122" s="3">
-        <v>1.4027777777777778E-2</v>
+        <v>1.1041666666666667E-2</v>
       </c>
       <c r="D122" s="4">
-        <v>1.4050925925925927E-2</v>
+        <v>1.1527777777777777E-2</v>
       </c>
       <c r="E122" s="3">
-        <f t="shared" si="12"/>
-        <v>2.3148148148148875E-5</v>
+        <f>D122-C122</f>
+        <v>4.8611111111111077E-4</v>
       </c>
       <c r="F122" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E122) *3600 + MINUTE(E122) * 60 + SECOND(E122)</f>
+        <v>42</v>
       </c>
       <c r="G122" s="6">
-        <f t="shared" si="14"/>
-        <v>1212</v>
+        <f>HOUR(C122) *3600 + MINUTE(C122) * 60 + SECOND(C122)</f>
+        <v>954</v>
       </c>
       <c r="H122" s="6">
-        <f t="shared" si="15"/>
-        <v>1214</v>
+        <f>HOUR(D122) *3600 + MINUTE(D122) * 60 + SECOND(D122)</f>
+        <v>996</v>
       </c>
       <c r="I122" s="2" t="str">
         <f>VLOOKUP(J122,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>c</v>
       </c>
       <c r="J122" s="2" t="str">
         <f>VLOOKUP(B122,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>strainer</v>
-      </c>
-      <c r="K122" s="2">
+        <v>tomatoesProcessed</v>
+      </c>
+      <c r="K122" s="2" t="str">
         <f>VLOOKUP(B122,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L122" s="1" t="s">
-        <v>105</v>
+        <v>tomatoesCanned</v>
       </c>
       <c r="M122" s="2">
         <v>1</v>
@@ -10841,44 +10782,44 @@
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C123" s="3">
-        <v>1.1388888888888888E-2</v>
+        <v>2.5694444444444447E-2</v>
       </c>
       <c r="D123" s="4">
-        <v>1.1412037037037038E-2</v>
+        <v>2.6180555555555558E-2</v>
       </c>
       <c r="E123" s="3">
-        <f t="shared" si="12"/>
-        <v>2.314814814815061E-5</v>
+        <f>D123-C123</f>
+        <v>4.8611111111111077E-4</v>
       </c>
       <c r="F123" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E123) *3600 + MINUTE(E123) * 60 + SECOND(E123)</f>
+        <v>42</v>
       </c>
       <c r="G123" s="6">
-        <f t="shared" si="14"/>
-        <v>984</v>
+        <f>HOUR(C123) *3600 + MINUTE(C123) * 60 + SECOND(C123)</f>
+        <v>2220</v>
       </c>
       <c r="H123" s="6">
-        <f t="shared" si="15"/>
-        <v>986</v>
+        <f>HOUR(D123) *3600 + MINUTE(D123) * 60 + SECOND(D123)</f>
+        <v>2262</v>
       </c>
       <c r="I123" s="2" t="str">
         <f>VLOOKUP(J123,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J123" s="2" t="str">
         <f>VLOOKUP(B123,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>tomatoesProcessed</v>
+        <v>rBook</v>
       </c>
       <c r="K123" s="2" t="str">
         <f>VLOOKUP(B123,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>tomatoesCanned</v>
+        <v>nBook</v>
       </c>
       <c r="M123" s="2">
         <v>1</v>
@@ -10886,44 +10827,44 @@
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C124" s="3">
-        <v>2.7106481481481481E-2</v>
+        <v>1.9282407407407408E-2</v>
       </c>
       <c r="D124" s="4">
-        <v>2.7129629629629632E-2</v>
+        <v>1.9861111111111111E-2</v>
       </c>
       <c r="E124" s="3">
-        <f t="shared" si="12"/>
-        <v>2.314814814815061E-5</v>
+        <f>D124-C124</f>
+        <v>5.787037037037028E-4</v>
       </c>
       <c r="F124" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E124) *3600 + MINUTE(E124) * 60 + SECOND(E124)</f>
+        <v>50</v>
       </c>
       <c r="G124" s="6">
-        <f t="shared" si="14"/>
-        <v>2342</v>
+        <f>HOUR(C124) *3600 + MINUTE(C124) * 60 + SECOND(C124)</f>
+        <v>1666</v>
       </c>
       <c r="H124" s="6">
-        <f t="shared" si="15"/>
-        <v>2344</v>
+        <f>HOUR(D124) *3600 + MINUTE(D124) * 60 + SECOND(D124)</f>
+        <v>1716</v>
       </c>
       <c r="I124" s="2" t="str">
         <f>VLOOKUP(J124,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J124" s="2" t="str">
         <f>VLOOKUP(B124,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>tomatoesProcessed</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K124" s="2" t="str">
         <f>VLOOKUP(B124,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>tomatoesCanned</v>
+        <v>w_1</v>
       </c>
       <c r="M124" s="2">
         <v>1</v>
@@ -10931,44 +10872,44 @@
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C125" s="3">
-        <v>9.7222222222222209E-4</v>
+        <v>1.5092592592592593E-2</v>
       </c>
       <c r="D125" s="4">
-        <v>1.0185185185185186E-3</v>
+        <v>1.5740740740740743E-2</v>
       </c>
       <c r="E125" s="3">
-        <f t="shared" si="12"/>
-        <v>4.6296296296296558E-5</v>
+        <f>D125-C125</f>
+        <v>6.4814814814814943E-4</v>
       </c>
       <c r="F125" s="6">
-        <f t="shared" si="13"/>
-        <v>4</v>
+        <f>HOUR(E125) *3600 + MINUTE(E125) * 60 + SECOND(E125)</f>
+        <v>56</v>
       </c>
       <c r="G125" s="6">
-        <f t="shared" si="14"/>
-        <v>84</v>
+        <f>HOUR(C125) *3600 + MINUTE(C125) * 60 + SECOND(C125)</f>
+        <v>1304</v>
       </c>
       <c r="H125" s="6">
-        <f t="shared" si="15"/>
-        <v>88</v>
+        <f>HOUR(D125) *3600 + MINUTE(D125) * 60 + SECOND(D125)</f>
+        <v>1360</v>
       </c>
       <c r="I125" s="2" t="str">
         <f>VLOOKUP(J125,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J125" s="2" t="str">
         <f>VLOOKUP(B125,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>tomatoesProcessed</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K125" s="2" t="str">
         <f>VLOOKUP(B125,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>tomatoesPaste</v>
+        <v>w_1</v>
       </c>
       <c r="M125" s="2">
         <v>1</v>
@@ -10976,44 +10917,44 @@
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="C126" s="3">
-        <v>1.1041666666666667E-2</v>
+        <v>2.1250000000000002E-2</v>
       </c>
       <c r="D126" s="4">
-        <v>1.1527777777777777E-2</v>
+        <v>2.1967592592592594E-2</v>
       </c>
       <c r="E126" s="3">
-        <f t="shared" si="12"/>
-        <v>4.8611111111111077E-4</v>
+        <f>D126-C126</f>
+        <v>7.1759259259259259E-4</v>
       </c>
       <c r="F126" s="6">
-        <f t="shared" si="13"/>
-        <v>42</v>
+        <f>HOUR(E126) *3600 + MINUTE(E126) * 60 + SECOND(E126)</f>
+        <v>62</v>
       </c>
       <c r="G126" s="6">
-        <f t="shared" si="14"/>
-        <v>954</v>
+        <f>HOUR(C126) *3600 + MINUTE(C126) * 60 + SECOND(C126)</f>
+        <v>1836</v>
       </c>
       <c r="H126" s="6">
-        <f t="shared" si="15"/>
-        <v>996</v>
+        <f>HOUR(D126) *3600 + MINUTE(D126) * 60 + SECOND(D126)</f>
+        <v>1898</v>
       </c>
       <c r="I126" s="2" t="str">
         <f>VLOOKUP(J126,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J126" s="2" t="str">
         <f>VLOOKUP(B126,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>tomatoesProcessed</v>
-      </c>
-      <c r="K126" s="2" t="str">
+        <v>rSheet</v>
+      </c>
+      <c r="K126" s="2">
         <f>VLOOKUP(B126,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>tomatoesPaste</v>
+        <v>1</v>
       </c>
       <c r="M126" s="2">
         <v>1</v>
@@ -11021,44 +10962,44 @@
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C127" s="3">
-        <v>1.3541666666666667E-2</v>
+        <v>1.1967592592592592E-2</v>
       </c>
       <c r="D127" s="4">
-        <v>1.3865740740740739E-2</v>
+        <v>1.2731481481481481E-2</v>
       </c>
       <c r="E127" s="3">
-        <f t="shared" si="12"/>
-        <v>3.2407407407407211E-4</v>
+        <f>D127-C127</f>
+        <v>7.638888888888886E-4</v>
       </c>
       <c r="F127" s="6">
-        <f t="shared" si="13"/>
-        <v>28</v>
+        <f>HOUR(E127) *3600 + MINUTE(E127) * 60 + SECOND(E127)</f>
+        <v>66</v>
       </c>
       <c r="G127" s="6">
-        <f t="shared" si="14"/>
-        <v>1170</v>
+        <f>HOUR(C127) *3600 + MINUTE(C127) * 60 + SECOND(C127)</f>
+        <v>1034</v>
       </c>
       <c r="H127" s="6">
-        <f t="shared" si="15"/>
-        <v>1198</v>
+        <f>HOUR(D127) *3600 + MINUTE(D127) * 60 + SECOND(D127)</f>
+        <v>1100</v>
       </c>
       <c r="I127" s="2" t="str">
         <f>VLOOKUP(J127,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J127" s="2" t="str">
         <f>VLOOKUP(B127,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>towel</v>
-      </c>
-      <c r="K127" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K127" s="2" t="str">
         <f>VLOOKUP(B127,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>a_co_2</v>
       </c>
       <c r="M127" s="2">
         <v>1</v>
@@ -11066,44 +11007,44 @@
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C128" s="3">
-        <v>2.0833333333333333E-3</v>
+        <v>2.1226851851851854E-2</v>
       </c>
       <c r="D128" s="4">
-        <v>2.1527777777777778E-3</v>
+        <v>2.1990740740740741E-2</v>
       </c>
       <c r="E128" s="3">
-        <f t="shared" si="12"/>
-        <v>6.9444444444444458E-5</v>
+        <f>D128-C128</f>
+        <v>7.6388888888888687E-4</v>
       </c>
       <c r="F128" s="6">
-        <f t="shared" si="13"/>
-        <v>6</v>
+        <f>HOUR(E128) *3600 + MINUTE(E128) * 60 + SECOND(E128)</f>
+        <v>66</v>
       </c>
       <c r="G128" s="6">
-        <f t="shared" si="14"/>
-        <v>180</v>
+        <f>HOUR(C128) *3600 + MINUTE(C128) * 60 + SECOND(C128)</f>
+        <v>1834</v>
       </c>
       <c r="H128" s="6">
-        <f t="shared" si="15"/>
-        <v>186</v>
+        <f>HOUR(D128) *3600 + MINUTE(D128) * 60 + SECOND(D128)</f>
+        <v>1900</v>
       </c>
       <c r="I128" s="2" t="str">
         <f>VLOOKUP(J128,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>u</v>
+        <v>e</v>
       </c>
       <c r="J128" s="2" t="str">
         <f>VLOOKUP(B128,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>trashB</v>
-      </c>
-      <c r="K128" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K128" s="2" t="str">
         <f>VLOOKUP(B128,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>a_co_1</v>
       </c>
       <c r="M128" s="2">
         <v>1</v>
@@ -11111,32 +11052,32 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C129" s="3">
-        <v>2.4768518518518516E-3</v>
+        <v>2.2222222222222222E-3</v>
       </c>
       <c r="D129" s="4">
-        <v>2.5000000000000001E-3</v>
+        <v>3.4027777777777784E-3</v>
       </c>
       <c r="E129" s="3">
-        <f t="shared" si="12"/>
-        <v>2.3148148148148442E-5</v>
+        <f>D129-C129</f>
+        <v>1.1805555555555562E-3</v>
       </c>
       <c r="F129" s="6">
-        <f t="shared" si="13"/>
-        <v>2</v>
+        <f>HOUR(E129) *3600 + MINUTE(E129) * 60 + SECOND(E129)</f>
+        <v>102</v>
       </c>
       <c r="G129" s="6">
-        <f t="shared" si="14"/>
-        <v>214</v>
+        <f>HOUR(C129) *3600 + MINUTE(C129) * 60 + SECOND(C129)</f>
+        <v>192</v>
       </c>
       <c r="H129" s="6">
-        <f t="shared" si="15"/>
-        <v>216</v>
+        <f>HOUR(D129) *3600 + MINUTE(D129) * 60 + SECOND(D129)</f>
+        <v>294</v>
       </c>
       <c r="I129" s="2" t="str">
         <f>VLOOKUP(J129,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -11144,11 +11085,14 @@
       </c>
       <c r="J129" s="2" t="str">
         <f>VLOOKUP(B129,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>trashB</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K129" s="2" t="str">
         <f>VLOOKUP(B129,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>recycling</v>
+        <v>w_1</v>
+      </c>
+      <c r="L129" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="M129" s="2">
         <v>1</v>
@@ -11156,32 +11100,32 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="C130" s="3">
-        <v>1.923611111111111E-2</v>
+        <v>2.7199074074074073E-2</v>
       </c>
       <c r="D130" s="4">
-        <v>1.9259259259259261E-2</v>
+        <v>2.837962962962963E-2</v>
       </c>
       <c r="E130" s="3">
-        <f t="shared" ref="E130:E138" si="16">D130-C130</f>
-        <v>2.314814814815061E-5</v>
+        <f>D130-C130</f>
+        <v>1.1805555555555562E-3</v>
       </c>
       <c r="F130" s="6">
-        <f t="shared" ref="F130:F138" si="17">HOUR(E130) *3600 + MINUTE(E130) * 60 + SECOND(E130)</f>
-        <v>2</v>
+        <f>HOUR(E130) *3600 + MINUTE(E130) * 60 + SECOND(E130)</f>
+        <v>102</v>
       </c>
       <c r="G130" s="6">
-        <f t="shared" ref="G130:G138" si="18">HOUR(C130) *3600 + MINUTE(C130) * 60 + SECOND(C130)</f>
-        <v>1662</v>
+        <f>HOUR(C130) *3600 + MINUTE(C130) * 60 + SECOND(C130)</f>
+        <v>2350</v>
       </c>
       <c r="H130" s="6">
-        <f t="shared" ref="H130:H138" si="19">HOUR(D130) *3600 + MINUTE(D130) * 60 + SECOND(D130)</f>
-        <v>1664</v>
+        <f>HOUR(D130) *3600 + MINUTE(D130) * 60 + SECOND(D130)</f>
+        <v>2452</v>
       </c>
       <c r="I130" s="2" t="str">
         <f>VLOOKUP(J130,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -11189,11 +11133,11 @@
       </c>
       <c r="J130" s="2" t="str">
         <f>VLOOKUP(B130,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>trashB</v>
+        <v>cookingSpoon</v>
       </c>
       <c r="K130" s="2" t="str">
         <f>VLOOKUP(B130,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>recycling</v>
+        <v>p_1</v>
       </c>
       <c r="M130" s="2">
         <v>1</v>
@@ -11201,40 +11145,40 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="C131" s="3">
-        <v>1.1527777777777777E-2</v>
+        <v>1.7546296296296296E-2</v>
       </c>
       <c r="D131" s="4">
-        <v>1.1550925925925925E-2</v>
+        <v>1.8888888888888889E-2</v>
       </c>
       <c r="E131" s="3">
-        <f t="shared" si="16"/>
-        <v>2.3148148148147141E-5</v>
+        <f>D131-C131</f>
+        <v>1.3425925925925931E-3</v>
       </c>
       <c r="F131" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f>HOUR(E131) *3600 + MINUTE(E131) * 60 + SECOND(E131)</f>
+        <v>116</v>
       </c>
       <c r="G131" s="6">
-        <f t="shared" si="18"/>
-        <v>996</v>
+        <f>HOUR(C131) *3600 + MINUTE(C131) * 60 + SECOND(C131)</f>
+        <v>1516</v>
       </c>
       <c r="H131" s="6">
-        <f t="shared" si="19"/>
-        <v>998</v>
+        <f>HOUR(D131) *3600 + MINUTE(D131) * 60 + SECOND(D131)</f>
+        <v>1632</v>
       </c>
       <c r="I131" s="2" t="str">
         <f>VLOOKUP(J131,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J131" s="2" t="str">
         <f>VLOOKUP(B131,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>water</v>
+        <v>grater</v>
       </c>
       <c r="K131" s="2">
         <f>VLOOKUP(B131,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -11246,32 +11190,32 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>22</v>
+        <v>79</v>
       </c>
       <c r="C132" s="3">
-        <v>1.7013888888888887E-2</v>
+        <v>1.7199074074074071E-2</v>
       </c>
       <c r="D132" s="4">
-        <v>1.7037037037037038E-2</v>
+        <v>1.9074074074074073E-2</v>
       </c>
       <c r="E132" s="3">
-        <f t="shared" si="16"/>
-        <v>2.314814814815061E-5</v>
+        <f>D132-C132</f>
+        <v>1.8750000000000017E-3</v>
       </c>
       <c r="F132" s="6">
-        <f t="shared" si="17"/>
-        <v>2</v>
+        <f>HOUR(E132) *3600 + MINUTE(E132) * 60 + SECOND(E132)</f>
+        <v>162</v>
       </c>
       <c r="G132" s="6">
-        <f t="shared" si="18"/>
-        <v>1470</v>
+        <f>HOUR(C132) *3600 + MINUTE(C132) * 60 + SECOND(C132)</f>
+        <v>1486</v>
       </c>
       <c r="H132" s="6">
-        <f t="shared" si="19"/>
-        <v>1472</v>
+        <f>HOUR(D132) *3600 + MINUTE(D132) * 60 + SECOND(D132)</f>
+        <v>1648</v>
       </c>
       <c r="I132" s="2" t="str">
         <f>VLOOKUP(J132,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -11279,11 +11223,14 @@
       </c>
       <c r="J132" s="2" t="str">
         <f>VLOOKUP(B132,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>water</v>
-      </c>
-      <c r="K132" s="2">
+        <v>cheese</v>
+      </c>
+      <c r="K132" s="2" t="str">
         <f>VLOOKUP(B132,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>cheedar</v>
+      </c>
+      <c r="L132" s="1" t="s">
+        <v>107</v>
       </c>
       <c r="M132" s="2">
         <v>1</v>
@@ -11291,44 +11238,47 @@
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>13</v>
+        <v>110</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="C133" s="3">
-        <v>1.2962962962962963E-3</v>
+        <v>2.2361111111111113E-2</v>
       </c>
       <c r="D133" s="4">
-        <v>1.3657407407407409E-3</v>
+        <v>2.4236111111111111E-2</v>
       </c>
       <c r="E133" s="3">
-        <f t="shared" si="16"/>
-        <v>6.9444444444444675E-5</v>
+        <f>D133-C133</f>
+        <v>1.8749999999999982E-3</v>
       </c>
       <c r="F133" s="6">
-        <f t="shared" si="17"/>
-        <v>6</v>
+        <f>HOUR(E133) *3600 + MINUTE(E133) * 60 + SECOND(E133)</f>
+        <v>162</v>
       </c>
       <c r="G133" s="6">
-        <f t="shared" si="18"/>
-        <v>112</v>
+        <f>HOUR(C133) *3600 + MINUTE(C133) * 60 + SECOND(C133)</f>
+        <v>1932</v>
       </c>
       <c r="H133" s="6">
-        <f t="shared" si="19"/>
-        <v>118</v>
+        <f>HOUR(D133) *3600 + MINUTE(D133) * 60 + SECOND(D133)</f>
+        <v>2094</v>
       </c>
       <c r="I133" s="2" t="str">
         <f>VLOOKUP(J133,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J133" s="2" t="str">
         <f>VLOOKUP(B133,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>wine</v>
-      </c>
-      <c r="K133" s="2">
+        <v>rBook</v>
+      </c>
+      <c r="K133" s="2" t="str">
         <f>VLOOKUP(B133,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>nBook</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="M133" s="2">
         <v>1</v>
@@ -11336,44 +11286,44 @@
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>20</v>
+        <v>109</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="C134" s="3">
-        <v>1.9907407407407408E-3</v>
+        <v>2.2222222222222223E-2</v>
       </c>
       <c r="D134" s="4">
-        <v>2.0370370370370373E-3</v>
+        <v>2.4560185185185185E-2</v>
       </c>
       <c r="E134" s="3">
-        <f t="shared" si="16"/>
-        <v>4.629629629629645E-5</v>
+        <f>D134-C134</f>
+        <v>2.3379629629629618E-3</v>
       </c>
       <c r="F134" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f>HOUR(E134) *3600 + MINUTE(E134) * 60 + SECOND(E134)</f>
+        <v>202</v>
       </c>
       <c r="G134" s="6">
-        <f t="shared" si="18"/>
-        <v>172</v>
+        <f>HOUR(C134) *3600 + MINUTE(C134) * 60 + SECOND(C134)</f>
+        <v>1920</v>
       </c>
       <c r="H134" s="6">
-        <f t="shared" si="19"/>
-        <v>176</v>
+        <f>HOUR(D134) *3600 + MINUTE(D134) * 60 + SECOND(D134)</f>
+        <v>2122</v>
       </c>
       <c r="I134" s="2" t="str">
         <f>VLOOKUP(J134,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J134" s="2" t="str">
         <f>VLOOKUP(B134,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>wine</v>
+        <v>rSheet</v>
       </c>
       <c r="K134" s="2">
         <f>VLOOKUP(B134,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M134" s="2">
         <v>1</v>
@@ -11381,44 +11331,44 @@
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>47</v>
+        <v>108</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="C135" s="3">
-        <v>1.1342592592592592E-2</v>
+        <v>2.2060185185185183E-2</v>
       </c>
       <c r="D135" s="4">
-        <v>1.1388888888888888E-2</v>
+        <v>2.4583333333333332E-2</v>
       </c>
       <c r="E135" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6296296296296016E-5</v>
+        <f>D135-C135</f>
+        <v>2.5231481481481494E-3</v>
       </c>
       <c r="F135" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f>HOUR(E135) *3600 + MINUTE(E135) * 60 + SECOND(E135)</f>
+        <v>218</v>
       </c>
       <c r="G135" s="6">
-        <f t="shared" si="18"/>
-        <v>980</v>
+        <f>HOUR(C135) *3600 + MINUTE(C135) * 60 + SECOND(C135)</f>
+        <v>1906</v>
       </c>
       <c r="H135" s="6">
-        <f t="shared" si="19"/>
-        <v>984</v>
+        <f>HOUR(D135) *3600 + MINUTE(D135) * 60 + SECOND(D135)</f>
+        <v>2124</v>
       </c>
       <c r="I135" s="2" t="str">
         <f>VLOOKUP(J135,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J135" s="2" t="str">
         <f>VLOOKUP(B135,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>wine</v>
-      </c>
-      <c r="K135" s="2">
+        <v>cpB</v>
+      </c>
+      <c r="K135" s="2" t="str">
         <f>VLOOKUP(B135,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
-        <v>0</v>
+        <v>a_sk_1</v>
       </c>
       <c r="M135" s="2">
         <v>1</v>
@@ -11426,40 +11376,40 @@
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C136" s="3">
-        <v>1.4537037037037038E-2</v>
+        <v>7</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.8842592592592592E-3</v>
       </c>
       <c r="D136" s="4">
-        <v>1.4583333333333332E-2</v>
+        <v>8.4027777777777781E-3</v>
       </c>
       <c r="E136" s="3">
-        <f t="shared" si="16"/>
-        <v>4.6296296296294281E-5</v>
+        <f>D136-C136</f>
+        <v>3.5185185185185189E-3</v>
       </c>
       <c r="F136" s="6">
-        <f t="shared" si="17"/>
-        <v>4</v>
+        <f>HOUR(E136) *3600 + MINUTE(E136) * 60 + SECOND(E136)</f>
+        <v>304</v>
       </c>
       <c r="G136" s="6">
-        <f t="shared" si="18"/>
-        <v>1256</v>
+        <f>HOUR(C136) *3600 + MINUTE(C136) * 60 + SECOND(C136)</f>
+        <v>422</v>
       </c>
       <c r="H136" s="6">
-        <f t="shared" si="19"/>
-        <v>1260</v>
+        <f>HOUR(D136) *3600 + MINUTE(D136) * 60 + SECOND(D136)</f>
+        <v>726</v>
       </c>
       <c r="I136" s="2" t="str">
         <f>VLOOKUP(J136,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>u</v>
       </c>
       <c r="J136" s="2" t="str">
         <f>VLOOKUP(B136,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>wine</v>
+        <v>pan</v>
       </c>
       <c r="K136" s="2">
         <f>VLOOKUP(B136,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -11471,32 +11421,32 @@
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C137" s="3">
-        <v>9.0509259259259258E-3</v>
+        <v>48</v>
+      </c>
+      <c r="C137" s="4">
+        <v>3.9351851851851857E-3</v>
       </c>
       <c r="D137" s="4">
-        <v>9.4675925925925917E-3</v>
+        <v>8.4027777777777781E-3</v>
       </c>
       <c r="E137" s="3">
-        <f t="shared" si="16"/>
-        <v>4.1666666666666588E-4</v>
+        <f>D137-C137</f>
+        <v>4.4675925925925924E-3</v>
       </c>
       <c r="F137" s="6">
-        <f t="shared" si="17"/>
-        <v>36</v>
+        <f>HOUR(E137) *3600 + MINUTE(E137) * 60 + SECOND(E137)</f>
+        <v>386</v>
       </c>
       <c r="G137" s="6">
-        <f t="shared" si="18"/>
-        <v>782</v>
+        <f>HOUR(C137) *3600 + MINUTE(C137) * 60 + SECOND(C137)</f>
+        <v>340</v>
       </c>
       <c r="H137" s="6">
-        <f t="shared" si="19"/>
-        <v>818</v>
+        <f>HOUR(D137) *3600 + MINUTE(D137) * 60 + SECOND(D137)</f>
+        <v>726</v>
       </c>
       <c r="I137" s="2" t="str">
         <f>VLOOKUP(J137,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
@@ -11511,7 +11461,7 @@
         <v>w_1</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="M137" s="2">
         <v>1</v>
@@ -11519,40 +11469,40 @@
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C138" s="3">
-        <v>1.3310185185185187E-2</v>
+        <v>1.8750000000000001E-3</v>
       </c>
       <c r="D138" s="4">
-        <v>1.3449074074074073E-2</v>
+        <v>2.6990740740740742E-2</v>
       </c>
       <c r="E138" s="3">
-        <f t="shared" si="16"/>
-        <v>1.3888888888888631E-4</v>
+        <f>D138-C138</f>
+        <v>2.5115740740740741E-2</v>
       </c>
       <c r="F138" s="6">
-        <f t="shared" si="17"/>
-        <v>12</v>
+        <f>HOUR(E138) *3600 + MINUTE(E138) * 60 + SECOND(E138)</f>
+        <v>2170</v>
       </c>
       <c r="G138" s="6">
-        <f t="shared" si="18"/>
-        <v>1150</v>
+        <f>HOUR(C138) *3600 + MINUTE(C138) * 60 + SECOND(C138)</f>
+        <v>162</v>
       </c>
       <c r="H138" s="6">
-        <f t="shared" si="19"/>
-        <v>1162</v>
+        <f>HOUR(D138) *3600 + MINUTE(D138) * 60 + SECOND(D138)</f>
+        <v>2332</v>
       </c>
       <c r="I138" s="2" t="str">
         <f>VLOOKUP(J138,'[1]all-items'!$A$2:$C$297,2,FALSE)</f>
-        <v>c</v>
+        <v>e</v>
       </c>
       <c r="J138" s="2" t="str">
         <f>VLOOKUP(B138,'[1]p05-items'!$A$2:$E$51,3,FALSE)</f>
-        <v>worcestershireSauce</v>
+        <v>stove</v>
       </c>
       <c r="K138" s="2">
         <f>VLOOKUP(B138,'[1]p05-items'!$A$2:$E$51,4,FALSE)</f>
@@ -11564,7 +11514,7 @@
     </row>
   </sheetData>
   <sortState ref="A2:M138">
-    <sortCondition ref="B1"/>
+    <sortCondition ref="F1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11575,10 +11525,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI319"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A188" sqref="A188:A197"/>
+      <selection pane="bottomLeft" activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
